--- a/WorkingFolder/Tables/corrM.xlsx
+++ b/WorkingFolder/Tables/corrM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>sp500</t>
   </si>
@@ -28,6 +28,12 @@
     <t>meanMed</t>
   </si>
   <si>
+    <t>rmeanMed</t>
+  </si>
+  <si>
+    <t>rvarMed</t>
+  </si>
+  <si>
     <t>varMed</t>
   </si>
   <si>
@@ -35,6 +41,12 @@
   </si>
   <si>
     <t>meanMean</t>
+  </si>
+  <si>
+    <t>rmeanMean</t>
+  </si>
+  <si>
+    <t>rvarMean</t>
   </si>
   <si>
     <t>varMean</t>
@@ -419,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,8 +486,20 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,46 +510,58 @@
         <v>-0.4458282196891535</v>
       </c>
       <c r="D2">
-        <v>0.02738253677924167</v>
+        <v>-0.002890041057218672</v>
       </c>
       <c r="E2">
-        <v>0.06698345825260228</v>
+        <v>0.04691643174611355</v>
       </c>
       <c r="F2">
-        <v>0.03829592793637498</v>
+        <v>-0.03407980532515774</v>
       </c>
       <c r="G2">
-        <v>0.2055043811754584</v>
+        <v>0.02649363176082393</v>
       </c>
       <c r="H2">
-        <v>0.02342063384200978</v>
+        <v>0.01840439596338389</v>
       </c>
       <c r="I2">
-        <v>0.2383507987939932</v>
+        <v>0.1914163956428686</v>
       </c>
       <c r="J2">
+        <v>0.00126246021214614</v>
+      </c>
+      <c r="K2">
+        <v>-0.02632993544152095</v>
+      </c>
+      <c r="L2">
+        <v>0.2222065256551813</v>
+      </c>
+      <c r="M2">
+        <v>0.2263900698760361</v>
+      </c>
+      <c r="N2">
         <v>-3.605317083788505e-17</v>
       </c>
-      <c r="K2">
+      <c r="O2">
         <v>0.0130826914658021</v>
       </c>
-      <c r="M2">
+      <c r="Q2">
         <v>5.171561390680233e-18</v>
       </c>
-      <c r="N2">
+      <c r="R2">
         <v>-0.0008024736171283922</v>
       </c>
-      <c r="O2">
+      <c r="S2">
         <v>-0.1270849872887459</v>
       </c>
-      <c r="P2">
+      <c r="T2">
         <v>-0.02213409327633181</v>
       </c>
-      <c r="Q2">
+      <c r="U2">
         <v>-0.1183270549046993</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -536,697 +572,1113 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.061800453567013</v>
+        <v>0.05535495627391889</v>
       </c>
       <c r="E3">
-        <v>0.02122899598234677</v>
+        <v>0.03276453079446027</v>
       </c>
       <c r="F3">
-        <v>0.09023384143667829</v>
+        <v>0.1404846743907372</v>
       </c>
       <c r="G3">
-        <v>-0.1470369336301187</v>
+        <v>0.01824170573388066</v>
       </c>
       <c r="H3">
-        <v>-0.03617796346914219</v>
+        <v>0.07996780652306233</v>
       </c>
       <c r="I3">
-        <v>-0.189154898724009</v>
+        <v>-0.1609440552789667</v>
       </c>
       <c r="J3">
+        <v>-0.03257605632637062</v>
+      </c>
+      <c r="K3">
+        <v>0.1188015824780843</v>
+      </c>
+      <c r="L3">
+        <v>-0.209493958903448</v>
+      </c>
+      <c r="M3">
+        <v>-0.1968020742767988</v>
+      </c>
+      <c r="N3">
         <v>-1.351284330897043e-15</v>
       </c>
-      <c r="K3">
+      <c r="O3">
         <v>0.01258556062345989</v>
       </c>
-      <c r="M3">
+      <c r="Q3">
         <v>-1.306241519867141e-15</v>
       </c>
-      <c r="N3">
+      <c r="R3">
         <v>0.1072221942112523</v>
       </c>
-      <c r="O3">
+      <c r="S3">
         <v>-0.09342305512333833</v>
       </c>
-      <c r="P3">
+      <c r="T3">
         <v>0.06012285306948947</v>
       </c>
-      <c r="Q3">
+      <c r="U3">
         <v>-0.1025932136429224</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.02738253677924167</v>
+        <v>-0.002890041057218672</v>
       </c>
       <c r="C4">
-        <v>0.061800453567013</v>
+        <v>0.05535495627391889</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.5350997279036801</v>
+        <v>0.5397263630912893</v>
       </c>
       <c r="F4">
-        <v>0.9785765310057427</v>
+        <v>0.2842393195036107</v>
       </c>
       <c r="G4">
-        <v>0.6777934471120348</v>
+        <v>0.382542624693987</v>
       </c>
       <c r="H4">
-        <v>0.624292268233799</v>
+        <v>0.9777708223157993</v>
       </c>
       <c r="I4">
-        <v>0.5536977651234096</v>
+        <v>0.677843292559108</v>
       </c>
       <c r="J4">
-        <v>-1.384288853674479e-15</v>
+        <v>0.6165719222663102</v>
       </c>
       <c r="K4">
-        <v>-0.1533102196305275</v>
+        <v>0.316370910263008</v>
+      </c>
+      <c r="L4">
+        <v>0.07090471111046673</v>
       </c>
       <c r="M4">
-        <v>-1.162802637086563e-15</v>
+        <v>0.5529870926079059</v>
       </c>
       <c r="N4">
-        <v>-0.09312525372909426</v>
+        <v>8.012283562604331e-16</v>
       </c>
       <c r="O4">
-        <v>0.06785138308903468</v>
-      </c>
-      <c r="P4">
-        <v>0.1966089052522472</v>
+        <v>-0.08566806663665789</v>
       </c>
       <c r="Q4">
-        <v>-0.1317749549183503</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>5.608598493823031e-16</v>
+      </c>
+      <c r="R4">
+        <v>-0.09321131443873186</v>
+      </c>
+      <c r="S4">
+        <v>0.07622355528351664</v>
+      </c>
+      <c r="T4">
+        <v>0.1948016473023572</v>
+      </c>
+      <c r="U4">
+        <v>-0.1170210732328847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.06698345825260228</v>
+        <v>0.04691643174611355</v>
       </c>
       <c r="C5">
-        <v>0.02122899598234677</v>
+        <v>0.03276453079446027</v>
       </c>
       <c r="D5">
-        <v>0.5350997279036801</v>
+        <v>0.5397263630912893</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5760105434441182</v>
+        <v>0.5328980016200657</v>
       </c>
       <c r="G5">
-        <v>0.5626335641535947</v>
+        <v>0.1523000183953932</v>
       </c>
       <c r="H5">
-        <v>0.8922123472797604</v>
+        <v>0.5853934870863284</v>
       </c>
       <c r="I5">
-        <v>0.494610345080318</v>
+        <v>0.5536826270233426</v>
       </c>
       <c r="J5">
-        <v>-5.767242245833527e-16</v>
+        <v>0.8884748822998667</v>
       </c>
       <c r="K5">
-        <v>-0.01921854288021281</v>
+        <v>0.4460568278712635</v>
+      </c>
+      <c r="L5">
+        <v>0.1148592857997386</v>
       </c>
       <c r="M5">
-        <v>-4.570267440094493e-16</v>
+        <v>0.4876468510435155</v>
       </c>
       <c r="N5">
-        <v>-0.2124971687745286</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4939658745747314</v>
-      </c>
-      <c r="P5">
-        <v>0.2702146282068343</v>
+        <v>0.04710005612928433</v>
       </c>
       <c r="Q5">
-        <v>0.2929335829816342</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>-0.1950226703400275</v>
+      </c>
+      <c r="S5">
+        <v>0.4906803591951636</v>
+      </c>
+      <c r="T5">
+        <v>0.2748602547668558</v>
+      </c>
+      <c r="U5">
+        <v>0.2872172178222431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03829592793637498</v>
+        <v>-0.03407980532515774</v>
       </c>
       <c r="C6">
-        <v>0.09023384143667829</v>
+        <v>0.1404846743907372</v>
       </c>
       <c r="D6">
-        <v>0.9785765310057427</v>
+        <v>0.2842393195036107</v>
       </c>
       <c r="E6">
-        <v>0.5760105434441182</v>
+        <v>0.5328980016200657</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7083312757419766</v>
+        <v>-0.3025325223790488</v>
       </c>
       <c r="H6">
-        <v>0.6506705879168393</v>
+        <v>0.3046381029676009</v>
       </c>
       <c r="I6">
-        <v>0.5698736630552992</v>
+        <v>0.1389250558464513</v>
       </c>
       <c r="J6">
-        <v>-5.159155417570948e-16</v>
+        <v>0.4969963144980583</v>
       </c>
       <c r="K6">
-        <v>-0.1523418259886911</v>
+        <v>0.9289967463533779</v>
+      </c>
+      <c r="L6">
+        <v>-0.3410326518758263</v>
       </c>
       <c r="M6">
-        <v>-2.59046200291537e-16</v>
+        <v>0.0832245376423885</v>
       </c>
       <c r="N6">
-        <v>-0.09037762142242194</v>
+        <v>-3.219931488862619e-16</v>
       </c>
       <c r="O6">
-        <v>0.08490213021941843</v>
-      </c>
-      <c r="P6">
-        <v>0.2168259796670922</v>
+        <v>0.05472110801575797</v>
       </c>
       <c r="Q6">
-        <v>-0.1235383095002701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>3.923546147540006e-16</v>
+      </c>
+      <c r="R6">
+        <v>-0.05562576281924133</v>
+      </c>
+      <c r="S6">
+        <v>0.5192915835477643</v>
+      </c>
+      <c r="T6">
+        <v>0.1061535256119129</v>
+      </c>
+      <c r="U6">
+        <v>0.2793531944933477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2055043811754584</v>
+        <v>0.02649363176082393</v>
       </c>
       <c r="C7">
-        <v>-0.1470369336301187</v>
+        <v>0.01824170573388066</v>
       </c>
       <c r="D7">
-        <v>0.6777934471120348</v>
+        <v>0.382542624693987</v>
       </c>
       <c r="E7">
-        <v>0.5626335641535947</v>
+        <v>0.1523000183953932</v>
       </c>
       <c r="F7">
-        <v>0.7083312757419766</v>
+        <v>-0.3025325223790488</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.6710006609887923</v>
+        <v>0.4431294767725407</v>
       </c>
       <c r="I7">
-        <v>0.9521942405445483</v>
+        <v>0.5251452674004942</v>
       </c>
       <c r="J7">
-        <v>-9.680271963606372e-15</v>
+        <v>0.2787695769750945</v>
       </c>
       <c r="K7">
-        <v>-0.1967896312540564</v>
+        <v>-0.2838002070719546</v>
+      </c>
+      <c r="L7">
+        <v>0.6507116305352277</v>
       </c>
       <c r="M7">
-        <v>-9.693848782629662e-15</v>
+        <v>0.4332857878916667</v>
       </c>
       <c r="N7">
-        <v>-0.2078395028161455</v>
+        <v>-1.052379072180502e-16</v>
       </c>
       <c r="O7">
-        <v>0.02348752187607726</v>
-      </c>
-      <c r="P7">
-        <v>0.1808322868066345</v>
+        <v>-0.09622760015367039</v>
       </c>
       <c r="Q7">
-        <v>-0.0821164127512411</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>-3.84347139405053e-16</v>
+      </c>
+      <c r="R7">
+        <v>0.05178495634279924</v>
+      </c>
+      <c r="S7">
+        <v>-0.2528141650941757</v>
+      </c>
+      <c r="T7">
+        <v>0.03638976210238996</v>
+      </c>
+      <c r="U7">
+        <v>-0.2748363015967687</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.02342063384200978</v>
+        <v>0.01840439596338389</v>
       </c>
       <c r="C8">
-        <v>-0.03617796346914219</v>
+        <v>0.07996780652306233</v>
       </c>
       <c r="D8">
-        <v>0.624292268233799</v>
+        <v>0.9777708223157993</v>
       </c>
       <c r="E8">
-        <v>0.8922123472797604</v>
+        <v>0.5853934870863284</v>
       </c>
       <c r="F8">
-        <v>0.6506705879168393</v>
+        <v>0.3046381029676009</v>
       </c>
       <c r="G8">
-        <v>0.6710006609887923</v>
+        <v>0.4431294767725407</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.5501165915273256</v>
+        <v>0.7129672205385122</v>
       </c>
       <c r="J8">
-        <v>1.088428066941292e-15</v>
+        <v>0.6596533454934377</v>
       </c>
       <c r="K8">
-        <v>-0.03355903589153966</v>
+        <v>0.3136263024100464</v>
+      </c>
+      <c r="L8">
+        <v>0.1408035849469267</v>
       </c>
       <c r="M8">
-        <v>1.026673283001361e-15</v>
+        <v>0.5712801754476896</v>
       </c>
       <c r="N8">
-        <v>-0.2092591327468121</v>
+        <v>-3.412036074518795e-17</v>
       </c>
       <c r="O8">
-        <v>0.4341534034697072</v>
-      </c>
-      <c r="P8">
-        <v>0.3011331699813937</v>
+        <v>-0.09231197098919502</v>
       </c>
       <c r="Q8">
-        <v>0.2367508030193874</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>2.388425252163157e-16</v>
+      </c>
+      <c r="R8">
+        <v>-0.09516468379482727</v>
+      </c>
+      <c r="S8">
+        <v>0.103940159321858</v>
+      </c>
+      <c r="T8">
+        <v>0.2234331225014324</v>
+      </c>
+      <c r="U8">
+        <v>-0.1032556592365568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2383507987939932</v>
+        <v>0.1914163956428686</v>
       </c>
       <c r="C9">
-        <v>-0.189154898724009</v>
+        <v>-0.1609440552789667</v>
       </c>
       <c r="D9">
-        <v>0.5536977651234096</v>
+        <v>0.677843292559108</v>
       </c>
       <c r="E9">
-        <v>0.494610345080318</v>
+        <v>0.5536826270233426</v>
       </c>
       <c r="F9">
-        <v>0.5698736630552992</v>
+        <v>0.1389250558464513</v>
       </c>
       <c r="G9">
-        <v>0.9521942405445483</v>
+        <v>0.5251452674004942</v>
       </c>
       <c r="H9">
-        <v>0.5501165915273256</v>
+        <v>0.7129672205385122</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>-3.450331569611728e-15</v>
+        <v>0.6632642522584935</v>
       </c>
       <c r="K9">
-        <v>-0.1802527106811263</v>
+        <v>0.1795921551193817</v>
+      </c>
+      <c r="L9">
+        <v>0.4003666027119899</v>
       </c>
       <c r="M9">
-        <v>-3.479571667659285e-15</v>
+        <v>0.951243623670587</v>
       </c>
       <c r="N9">
-        <v>-0.2112383543317712</v>
+        <v>8.927951336788909e-15</v>
       </c>
       <c r="O9">
-        <v>0.02252161983198953</v>
-      </c>
-      <c r="P9">
-        <v>0.09292162442940478</v>
+        <v>-0.1504364853544375</v>
       </c>
       <c r="Q9">
-        <v>-0.04021769680810631</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>8.941686646537814e-15</v>
+      </c>
+      <c r="R9">
+        <v>-0.2132577748178268</v>
+      </c>
+      <c r="S9">
+        <v>0.03864242014490347</v>
+      </c>
+      <c r="T9">
+        <v>0.184040759583541</v>
+      </c>
+      <c r="U9">
+        <v>-0.07258883940966357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-3.605317083788505e-17</v>
+        <v>0.00126246021214614</v>
       </c>
       <c r="C10">
-        <v>-1.351284330897043e-15</v>
+        <v>-0.03257605632637062</v>
       </c>
       <c r="D10">
-        <v>-1.384288853674479e-15</v>
+        <v>0.6165719222663102</v>
       </c>
       <c r="E10">
-        <v>-5.767242245833527e-16</v>
+        <v>0.8884748822998667</v>
       </c>
       <c r="F10">
-        <v>-5.159155417570948e-16</v>
+        <v>0.4969963144980583</v>
       </c>
       <c r="G10">
-        <v>-9.680271963606372e-15</v>
+        <v>0.2787695769750945</v>
       </c>
       <c r="H10">
-        <v>1.088428066941292e-15</v>
+        <v>0.6596533454934377</v>
       </c>
       <c r="I10">
-        <v>-3.450331569611728e-15</v>
+        <v>0.6632642522584935</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>1.632581470038348e-17</v>
+        <v>0.4681834811507579</v>
+      </c>
+      <c r="L10">
+        <v>0.1526678468408229</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0.5404459691384669</v>
       </c>
       <c r="N10">
-        <v>-4.557986870598185e-16</v>
+        <v>-4.233691955599627e-15</v>
       </c>
       <c r="O10">
-        <v>2.556518521088962e-15</v>
-      </c>
-      <c r="P10">
-        <v>-1.292064513791213e-15</v>
+        <v>-0.001604643446389674</v>
       </c>
       <c r="Q10">
-        <v>7.064990977789627e-16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>-4.187673564777891e-15</v>
+      </c>
+      <c r="R10">
+        <v>-0.2110550033452053</v>
+      </c>
+      <c r="S10">
+        <v>0.441233766972406</v>
+      </c>
+      <c r="T10">
+        <v>0.2959558270901552</v>
+      </c>
+      <c r="U10">
+        <v>0.2451797634299111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.0130826914658021</v>
+        <v>-0.02632993544152095</v>
       </c>
       <c r="C11">
-        <v>0.01258556062345989</v>
+        <v>0.1188015824780843</v>
       </c>
       <c r="D11">
-        <v>-0.1533102196305275</v>
+        <v>0.316370910263008</v>
       </c>
       <c r="E11">
-        <v>-0.01921854288021281</v>
+        <v>0.4460568278712635</v>
       </c>
       <c r="F11">
-        <v>-0.1523418259886911</v>
+        <v>0.9289967463533779</v>
       </c>
       <c r="G11">
-        <v>-0.1967896312540564</v>
+        <v>-0.2838002070719546</v>
       </c>
       <c r="H11">
-        <v>-0.03355903589153966</v>
+        <v>0.3136263024100464</v>
       </c>
       <c r="I11">
-        <v>-0.1802527106811263</v>
+        <v>0.1795921551193817</v>
       </c>
       <c r="J11">
-        <v>1.632581470038348e-17</v>
+        <v>0.4681834811507579</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
+      <c r="L11">
+        <v>-0.3641690617343418</v>
+      </c>
       <c r="M11">
-        <v>1.523742705369125e-16</v>
+        <v>0.1387813382882432</v>
       </c>
       <c r="N11">
-        <v>0.1029500719623566</v>
+        <v>2.884062198438208e-16</v>
       </c>
       <c r="O11">
-        <v>0.2351728441743047</v>
-      </c>
-      <c r="P11">
-        <v>0.09152439825371425</v>
+        <v>0.06445799734056648</v>
       </c>
       <c r="Q11">
-        <v>0.1986374714833062</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>-3.725762754205582e-16</v>
+      </c>
+      <c r="R11">
+        <v>-0.04646679323606726</v>
+      </c>
+      <c r="S11">
+        <v>0.456280060364496</v>
+      </c>
+      <c r="T11">
+        <v>0.09684007612527605</v>
+      </c>
+      <c r="U11">
+        <v>0.2189495670254766</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="B12">
+        <v>0.2222065256551813</v>
+      </c>
+      <c r="C12">
+        <v>-0.209493958903448</v>
+      </c>
+      <c r="D12">
+        <v>0.07090471111046673</v>
+      </c>
+      <c r="E12">
+        <v>0.1148592857997386</v>
+      </c>
+      <c r="F12">
+        <v>-0.3410326518758263</v>
+      </c>
+      <c r="G12">
+        <v>0.6507116305352277</v>
+      </c>
+      <c r="H12">
+        <v>0.1408035849469267</v>
+      </c>
+      <c r="I12">
+        <v>0.4003666027119899</v>
+      </c>
+      <c r="J12">
+        <v>0.1526678468408229</v>
+      </c>
+      <c r="K12">
+        <v>-0.3641690617343418</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.4370812941830706</v>
+      </c>
+      <c r="N12">
+        <v>-6.96417804932223e-16</v>
+      </c>
+      <c r="O12">
+        <v>0.02508524582755221</v>
+      </c>
+      <c r="Q12">
+        <v>-5.416582927250622e-16</v>
+      </c>
+      <c r="R12">
+        <v>-0.0272141279477379</v>
+      </c>
+      <c r="S12">
+        <v>-0.1067787341593857</v>
+      </c>
+      <c r="T12">
+        <v>-0.05781221093368369</v>
+      </c>
+      <c r="U12">
+        <v>-0.08437699766851482</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.171561390680233e-18</v>
+        <v>0.2263900698760361</v>
       </c>
       <c r="C13">
-        <v>-1.306241519867141e-15</v>
+        <v>-0.1968020742767988</v>
       </c>
       <c r="D13">
-        <v>-1.162802637086563e-15</v>
+        <v>0.5529870926079059</v>
       </c>
       <c r="E13">
-        <v>-4.570267440094493e-16</v>
+        <v>0.4876468510435155</v>
       </c>
       <c r="F13">
-        <v>-2.59046200291537e-16</v>
+        <v>0.0832245376423885</v>
       </c>
       <c r="G13">
-        <v>-9.693848782629662e-15</v>
+        <v>0.4332857878916667</v>
       </c>
       <c r="H13">
-        <v>1.026673283001361e-15</v>
+        <v>0.5712801754476896</v>
       </c>
       <c r="I13">
-        <v>-3.479571667659285e-15</v>
+        <v>0.951243623670587</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0.5404459691384669</v>
       </c>
       <c r="K13">
-        <v>1.523742705369125e-16</v>
+        <v>0.1387813382882432</v>
+      </c>
+      <c r="L13">
+        <v>0.4370812941830706</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>-4.805106640690858e-16</v>
+        <v>2.043211466511396e-15</v>
       </c>
       <c r="O13">
-        <v>2.508733128171411e-15</v>
-      </c>
-      <c r="P13">
-        <v>-1.268225685123479e-15</v>
+        <v>-0.138769846639401</v>
       </c>
       <c r="Q13">
-        <v>6.031089859088705e-16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>2.07282322689562e-15</v>
+      </c>
+      <c r="R13">
+        <v>-0.2137866077639033</v>
+      </c>
+      <c r="S13">
+        <v>0.0337298110219959</v>
+      </c>
+      <c r="T13">
+        <v>0.1000552954237189</v>
+      </c>
+      <c r="U13">
+        <v>-0.03560032839658783</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.0008024736171283922</v>
+        <v>-3.605317083788505e-17</v>
       </c>
       <c r="C14">
-        <v>0.1072221942112523</v>
+        <v>-1.351284330897043e-15</v>
       </c>
       <c r="D14">
-        <v>-0.09312525372909426</v>
+        <v>8.012283562604331e-16</v>
       </c>
       <c r="E14">
-        <v>-0.2124971687745286</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>-0.09037762142242194</v>
+        <v>-3.219931488862619e-16</v>
       </c>
       <c r="G14">
-        <v>-0.2078395028161455</v>
+        <v>-1.052379072180502e-16</v>
       </c>
       <c r="H14">
-        <v>-0.2092591327468121</v>
+        <v>-3.412036074518795e-17</v>
       </c>
       <c r="I14">
-        <v>-0.2112383543317712</v>
+        <v>8.927951336788909e-15</v>
       </c>
       <c r="J14">
+        <v>-4.233691955599627e-15</v>
+      </c>
+      <c r="K14">
+        <v>2.884062198438208e-16</v>
+      </c>
+      <c r="L14">
+        <v>-6.96417804932223e-16</v>
+      </c>
+      <c r="M14">
+        <v>2.043211466511396e-15</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1.632581470038348e-17</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
         <v>-4.557986870598185e-16</v>
       </c>
-      <c r="K14">
-        <v>0.1029500719623566</v>
-      </c>
-      <c r="M14">
-        <v>-4.805106640690858e-16</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>-0.1346253357174245</v>
-      </c>
-      <c r="P14">
-        <v>0.1917376337038413</v>
-      </c>
-      <c r="Q14">
-        <v>-0.1504973988878999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="S14">
+        <v>2.556518521088962e-15</v>
+      </c>
+      <c r="T14">
+        <v>-1.292064513791213e-15</v>
+      </c>
+      <c r="U14">
+        <v>7.064990977789627e-16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.1270849872887459</v>
+        <v>0.0130826914658021</v>
       </c>
       <c r="C15">
-        <v>-0.09342305512333833</v>
+        <v>0.01258556062345989</v>
       </c>
       <c r="D15">
-        <v>0.06785138308903468</v>
+        <v>-0.08566806663665789</v>
       </c>
       <c r="E15">
-        <v>0.4939658745747314</v>
+        <v>0.04710005612928433</v>
       </c>
       <c r="F15">
-        <v>0.08490213021941843</v>
+        <v>0.05472110801575797</v>
       </c>
       <c r="G15">
-        <v>0.02348752187607726</v>
+        <v>-0.09622760015367039</v>
       </c>
       <c r="H15">
-        <v>0.4341534034697072</v>
+        <v>-0.09231197098919502</v>
       </c>
       <c r="I15">
-        <v>0.02252161983198953</v>
+        <v>-0.1504364853544375</v>
       </c>
       <c r="J15">
-        <v>2.556518521088962e-15</v>
+        <v>-0.001604643446389674</v>
       </c>
       <c r="K15">
+        <v>0.06445799734056648</v>
+      </c>
+      <c r="L15">
+        <v>0.02508524582755221</v>
+      </c>
+      <c r="M15">
+        <v>-0.138769846639401</v>
+      </c>
+      <c r="N15">
+        <v>1.632581470038348e-17</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1.523742705369125e-16</v>
+      </c>
+      <c r="R15">
+        <v>0.1029500719623566</v>
+      </c>
+      <c r="S15">
         <v>0.2351728441743047</v>
       </c>
-      <c r="M15">
-        <v>2.508733128171411e-15</v>
-      </c>
-      <c r="N15">
-        <v>-0.1346253357174245</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>0.1208304344892702</v>
-      </c>
-      <c r="Q15">
-        <v>0.8800112611249851</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="T15">
+        <v>0.09152439825371425</v>
+      </c>
+      <c r="U15">
+        <v>0.1986374714833062</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>-0.02213409327633181</v>
-      </c>
-      <c r="C16">
-        <v>0.06012285306948947</v>
-      </c>
-      <c r="D16">
-        <v>0.1966089052522472</v>
-      </c>
-      <c r="E16">
-        <v>0.2702146282068343</v>
-      </c>
-      <c r="F16">
-        <v>0.2168259796670922</v>
-      </c>
-      <c r="G16">
-        <v>0.1808322868066345</v>
-      </c>
-      <c r="H16">
-        <v>0.3011331699813937</v>
-      </c>
-      <c r="I16">
-        <v>0.09292162442940478</v>
-      </c>
-      <c r="J16">
-        <v>-1.292064513791213e-15</v>
-      </c>
-      <c r="K16">
-        <v>0.09152439825371425</v>
-      </c>
-      <c r="M16">
-        <v>-1.268225685123479e-15</v>
-      </c>
-      <c r="N16">
-        <v>0.1917376337038413</v>
-      </c>
-      <c r="O16">
-        <v>0.1208304344892702</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <v>0.01463345688581298</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17">
+        <v>5.171561390680233e-18</v>
+      </c>
+      <c r="C17">
+        <v>-1.306241519867141e-15</v>
+      </c>
+      <c r="D17">
+        <v>5.608598493823031e-16</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>3.923546147540006e-16</v>
+      </c>
+      <c r="G17">
+        <v>-3.84347139405053e-16</v>
+      </c>
+      <c r="H17">
+        <v>2.388425252163157e-16</v>
+      </c>
+      <c r="I17">
+        <v>8.941686646537814e-15</v>
+      </c>
+      <c r="J17">
+        <v>-4.187673564777891e-15</v>
+      </c>
+      <c r="K17">
+        <v>-3.725762754205582e-16</v>
+      </c>
+      <c r="L17">
+        <v>-5.416582927250622e-16</v>
+      </c>
+      <c r="M17">
+        <v>2.07282322689562e-15</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1.523742705369125e-16</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>-4.805106640690858e-16</v>
+      </c>
+      <c r="S17">
+        <v>2.508733128171411e-15</v>
+      </c>
+      <c r="T17">
+        <v>-1.268225685123479e-15</v>
+      </c>
+      <c r="U17">
+        <v>6.031089859088705e-16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>-0.0008024736171283922</v>
+      </c>
+      <c r="C18">
+        <v>0.1072221942112523</v>
+      </c>
+      <c r="D18">
+        <v>-0.09321131443873186</v>
+      </c>
+      <c r="E18">
+        <v>-0.1950226703400275</v>
+      </c>
+      <c r="F18">
+        <v>-0.05562576281924133</v>
+      </c>
+      <c r="G18">
+        <v>0.05178495634279924</v>
+      </c>
+      <c r="H18">
+        <v>-0.09516468379482727</v>
+      </c>
+      <c r="I18">
+        <v>-0.2132577748178268</v>
+      </c>
+      <c r="J18">
+        <v>-0.2110550033452053</v>
+      </c>
+      <c r="K18">
+        <v>-0.04646679323606726</v>
+      </c>
+      <c r="L18">
+        <v>-0.0272141279477379</v>
+      </c>
+      <c r="M18">
+        <v>-0.2137866077639033</v>
+      </c>
+      <c r="N18">
+        <v>-4.557986870598185e-16</v>
+      </c>
+      <c r="O18">
+        <v>0.1029500719623566</v>
+      </c>
+      <c r="Q18">
+        <v>-4.805106640690858e-16</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>-0.1346253357174245</v>
+      </c>
+      <c r="T18">
+        <v>0.1917376337038413</v>
+      </c>
+      <c r="U18">
+        <v>-0.1504973988878999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>-0.1270849872887459</v>
+      </c>
+      <c r="C19">
+        <v>-0.09342305512333833</v>
+      </c>
+      <c r="D19">
+        <v>0.07622355528351664</v>
+      </c>
+      <c r="E19">
+        <v>0.4906803591951636</v>
+      </c>
+      <c r="F19">
+        <v>0.5192915835477643</v>
+      </c>
+      <c r="G19">
+        <v>-0.2528141650941757</v>
+      </c>
+      <c r="H19">
+        <v>0.103940159321858</v>
+      </c>
+      <c r="I19">
+        <v>0.03864242014490347</v>
+      </c>
+      <c r="J19">
+        <v>0.441233766972406</v>
+      </c>
+      <c r="K19">
+        <v>0.456280060364496</v>
+      </c>
+      <c r="L19">
+        <v>-0.1067787341593857</v>
+      </c>
+      <c r="M19">
+        <v>0.0337298110219959</v>
+      </c>
+      <c r="N19">
+        <v>2.556518521088962e-15</v>
+      </c>
+      <c r="O19">
+        <v>0.2351728441743047</v>
+      </c>
+      <c r="Q19">
+        <v>2.508733128171411e-15</v>
+      </c>
+      <c r="R19">
+        <v>-0.1346253357174245</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>0.1208304344892702</v>
+      </c>
+      <c r="U19">
+        <v>0.8800112611249851</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>-0.02213409327633181</v>
+      </c>
+      <c r="C20">
+        <v>0.06012285306948947</v>
+      </c>
+      <c r="D20">
+        <v>0.1948016473023572</v>
+      </c>
+      <c r="E20">
+        <v>0.2748602547668558</v>
+      </c>
+      <c r="F20">
+        <v>0.1061535256119129</v>
+      </c>
+      <c r="G20">
+        <v>0.03638976210238996</v>
+      </c>
+      <c r="H20">
+        <v>0.2234331225014324</v>
+      </c>
+      <c r="I20">
+        <v>0.184040759583541</v>
+      </c>
+      <c r="J20">
+        <v>0.2959558270901552</v>
+      </c>
+      <c r="K20">
+        <v>0.09684007612527605</v>
+      </c>
+      <c r="L20">
+        <v>-0.05781221093368369</v>
+      </c>
+      <c r="M20">
+        <v>0.1000552954237189</v>
+      </c>
+      <c r="N20">
+        <v>-1.292064513791213e-15</v>
+      </c>
+      <c r="O20">
+        <v>0.09152439825371425</v>
+      </c>
+      <c r="Q20">
+        <v>-1.268225685123479e-15</v>
+      </c>
+      <c r="R20">
+        <v>0.1917376337038413</v>
+      </c>
+      <c r="S20">
+        <v>0.1208304344892702</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>0.01463345688581298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
         <v>-0.1183270549046993</v>
       </c>
-      <c r="C17">
+      <c r="C21">
         <v>-0.1025932136429224</v>
       </c>
-      <c r="D17">
-        <v>-0.1317749549183503</v>
-      </c>
-      <c r="E17">
-        <v>0.2929335829816342</v>
-      </c>
-      <c r="F17">
-        <v>-0.1235383095002701</v>
-      </c>
-      <c r="G17">
-        <v>-0.0821164127512411</v>
-      </c>
-      <c r="H17">
-        <v>0.2367508030193874</v>
-      </c>
-      <c r="I17">
-        <v>-0.04021769680810631</v>
-      </c>
-      <c r="J17">
+      <c r="D21">
+        <v>-0.1170210732328847</v>
+      </c>
+      <c r="E21">
+        <v>0.2872172178222431</v>
+      </c>
+      <c r="F21">
+        <v>0.2793531944933477</v>
+      </c>
+      <c r="G21">
+        <v>-0.2748363015967687</v>
+      </c>
+      <c r="H21">
+        <v>-0.1032556592365568</v>
+      </c>
+      <c r="I21">
+        <v>-0.07258883940966357</v>
+      </c>
+      <c r="J21">
+        <v>0.2451797634299111</v>
+      </c>
+      <c r="K21">
+        <v>0.2189495670254766</v>
+      </c>
+      <c r="L21">
+        <v>-0.08437699766851482</v>
+      </c>
+      <c r="M21">
+        <v>-0.03560032839658783</v>
+      </c>
+      <c r="N21">
         <v>7.064990977789627e-16</v>
       </c>
-      <c r="K17">
+      <c r="O21">
         <v>0.1986374714833062</v>
       </c>
-      <c r="M17">
+      <c r="Q21">
         <v>6.031089859088705e-16</v>
       </c>
-      <c r="N17">
+      <c r="R21">
         <v>-0.1504973988878999</v>
       </c>
-      <c r="O17">
+      <c r="S21">
         <v>0.8800112611249851</v>
       </c>
-      <c r="P17">
+      <c r="T21">
         <v>0.01463345688581298</v>
       </c>
-      <c r="Q17">
+      <c r="U21">
         <v>1</v>
       </c>
     </row>

--- a/WorkingFolder/Tables/corrM.xlsx
+++ b/WorkingFolder/Tables/corrM.xlsx
@@ -510,34 +510,34 @@
         <v>-0.4458282196891535</v>
       </c>
       <c r="D2">
-        <v>-0.002890041057218672</v>
+        <v>0.04250259628683546</v>
       </c>
       <c r="E2">
-        <v>0.04691643174611355</v>
+        <v>0.06052232935307845</v>
       </c>
       <c r="F2">
-        <v>-0.03407980532515774</v>
+        <v>-0.03737587636125757</v>
       </c>
       <c r="G2">
-        <v>0.02649363176082393</v>
+        <v>0.003932712359607337</v>
       </c>
       <c r="H2">
-        <v>0.01840439596338389</v>
+        <v>0.03251026699987748</v>
       </c>
       <c r="I2">
-        <v>0.1914163956428686</v>
+        <v>0.1455275192583088</v>
       </c>
       <c r="J2">
-        <v>0.00126246021214614</v>
+        <v>0.03110426779743944</v>
       </c>
       <c r="K2">
-        <v>-0.02632993544152095</v>
+        <v>-0.06786464654325448</v>
       </c>
       <c r="L2">
-        <v>0.2222065256551813</v>
+        <v>0.09694398396020938</v>
       </c>
       <c r="M2">
-        <v>0.2263900698760361</v>
+        <v>0.1693593265268756</v>
       </c>
       <c r="N2">
         <v>-3.605317083788505e-17</v>
@@ -572,34 +572,34 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.05535495627391889</v>
+        <v>0.02090081364037645</v>
       </c>
       <c r="E3">
-        <v>0.03276453079446027</v>
+        <v>0.05405000766046579</v>
       </c>
       <c r="F3">
-        <v>0.1404846743907372</v>
+        <v>0.1691006458289873</v>
       </c>
       <c r="G3">
-        <v>0.01824170573388066</v>
+        <v>0.1131570554671354</v>
       </c>
       <c r="H3">
-        <v>0.07996780652306233</v>
+        <v>0.03464555403083762</v>
       </c>
       <c r="I3">
-        <v>-0.1609440552789667</v>
+        <v>-0.05464967430273746</v>
       </c>
       <c r="J3">
-        <v>-0.03257605632637062</v>
+        <v>-0.02353409310941642</v>
       </c>
       <c r="K3">
-        <v>0.1188015824780843</v>
+        <v>0.1086358250565714</v>
       </c>
       <c r="L3">
-        <v>-0.209493958903448</v>
+        <v>0.1136429820580396</v>
       </c>
       <c r="M3">
-        <v>-0.1968020742767988</v>
+        <v>-0.03672462593629056</v>
       </c>
       <c r="N3">
         <v>-1.351284330897043e-15</v>
@@ -628,61 +628,61 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.002890041057218672</v>
+        <v>0.04250259628683546</v>
       </c>
       <c r="C4">
-        <v>0.05535495627391889</v>
+        <v>0.02090081364037645</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.5397263630912893</v>
+        <v>0.5636986541578768</v>
       </c>
       <c r="F4">
-        <v>0.2842393195036107</v>
+        <v>0.1553023117281974</v>
       </c>
       <c r="G4">
-        <v>0.382542624693987</v>
+        <v>0.6735708521826163</v>
       </c>
       <c r="H4">
-        <v>0.9777708223157993</v>
+        <v>0.9869596445666107</v>
       </c>
       <c r="I4">
-        <v>0.677843292559108</v>
+        <v>0.7703047989162173</v>
       </c>
       <c r="J4">
-        <v>0.6165719222663102</v>
+        <v>0.6657197040299973</v>
       </c>
       <c r="K4">
-        <v>0.316370910263008</v>
+        <v>0.2524737509893859</v>
       </c>
       <c r="L4">
-        <v>0.07090471111046673</v>
+        <v>0.4706509334439072</v>
       </c>
       <c r="M4">
-        <v>0.5529870926079059</v>
+        <v>0.6081882455058323</v>
       </c>
       <c r="N4">
-        <v>8.012283562604331e-16</v>
+        <v>3.566671208812168e-16</v>
       </c>
       <c r="O4">
-        <v>-0.08566806663665789</v>
+        <v>-0.1375382841619496</v>
       </c>
       <c r="Q4">
-        <v>5.608598493823031e-16</v>
+        <v>4.048653804597595e-16</v>
       </c>
       <c r="R4">
-        <v>-0.09321131443873186</v>
+        <v>-0.1123992994262411</v>
       </c>
       <c r="S4">
-        <v>0.07622355528351664</v>
+        <v>0.07052404406482074</v>
       </c>
       <c r="T4">
-        <v>0.1948016473023572</v>
+        <v>0.2153517673687143</v>
       </c>
       <c r="U4">
-        <v>-0.1170210732328847</v>
+        <v>-0.1390079924904912</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -690,61 +690,61 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.04691643174611355</v>
+        <v>0.06052232935307845</v>
       </c>
       <c r="C5">
-        <v>0.03276453079446027</v>
+        <v>0.05405000766046579</v>
       </c>
       <c r="D5">
-        <v>0.5397263630912893</v>
+        <v>0.5636986541578768</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5328980016200657</v>
+        <v>0.5352774719538452</v>
       </c>
       <c r="G5">
-        <v>0.1523000183953932</v>
+        <v>0.2934969556344409</v>
       </c>
       <c r="H5">
-        <v>0.5853934870863284</v>
+        <v>0.5878752036870768</v>
       </c>
       <c r="I5">
-        <v>0.5536826270233426</v>
+        <v>0.5062998829755584</v>
       </c>
       <c r="J5">
-        <v>0.8884748822998667</v>
+        <v>0.8734598310264916</v>
       </c>
       <c r="K5">
-        <v>0.4460568278712635</v>
+        <v>0.5076980556173233</v>
       </c>
       <c r="L5">
-        <v>0.1148592857997386</v>
+        <v>0.3233201649915313</v>
       </c>
       <c r="M5">
-        <v>0.4876468510435155</v>
+        <v>0.423299355223121</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>-6.50592752719859e-16</v>
       </c>
       <c r="O5">
-        <v>0.04710005612928433</v>
+        <v>0.0193538137074701</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-6.50592752719859e-16</v>
       </c>
       <c r="R5">
-        <v>-0.1950226703400275</v>
+        <v>-0.2134026769921701</v>
       </c>
       <c r="S5">
-        <v>0.4906803591951636</v>
+        <v>0.4211971398087573</v>
       </c>
       <c r="T5">
-        <v>0.2748602547668558</v>
+        <v>0.2304209406059521</v>
       </c>
       <c r="U5">
-        <v>0.2872172178222431</v>
+        <v>0.2146730676965272</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -752,61 +752,61 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.03407980532515774</v>
+        <v>-0.03737587636125757</v>
       </c>
       <c r="C6">
-        <v>0.1404846743907372</v>
+        <v>0.1691006458289873</v>
       </c>
       <c r="D6">
-        <v>0.2842393195036107</v>
+        <v>0.1553023117281974</v>
       </c>
       <c r="E6">
-        <v>0.5328980016200657</v>
+        <v>0.5352774719538452</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>-0.3025325223790488</v>
+        <v>-0.06193794630210222</v>
       </c>
       <c r="H6">
-        <v>0.3046381029676009</v>
+        <v>0.1665739116006598</v>
       </c>
       <c r="I6">
-        <v>0.1389250558464513</v>
+        <v>0.05360390469665118</v>
       </c>
       <c r="J6">
-        <v>0.4969963144980583</v>
+        <v>0.4975385861924605</v>
       </c>
       <c r="K6">
-        <v>0.9289967463533779</v>
+        <v>0.9245440272241831</v>
       </c>
       <c r="L6">
-        <v>-0.3410326518758263</v>
+        <v>-0.01608048406506278</v>
       </c>
       <c r="M6">
-        <v>0.0832245376423885</v>
+        <v>0.04182405402050556</v>
       </c>
       <c r="N6">
-        <v>-3.219931488862619e-16</v>
+        <v>-2.086497594274027e-16</v>
       </c>
       <c r="O6">
-        <v>0.05472110801575797</v>
+        <v>0.05686715317942567</v>
       </c>
       <c r="Q6">
-        <v>3.923546147540006e-16</v>
+        <v>4.344669041241487e-16</v>
       </c>
       <c r="R6">
-        <v>-0.05562576281924133</v>
+        <v>-0.07056329520308711</v>
       </c>
       <c r="S6">
-        <v>0.5192915835477643</v>
+        <v>0.5368144659355543</v>
       </c>
       <c r="T6">
-        <v>0.1061535256119129</v>
+        <v>0.1137821212413632</v>
       </c>
       <c r="U6">
-        <v>0.2793531944933477</v>
+        <v>0.3149986221900413</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -814,61 +814,61 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.02649363176082393</v>
+        <v>0.003932712359607337</v>
       </c>
       <c r="C7">
-        <v>0.01824170573388066</v>
+        <v>0.1131570554671354</v>
       </c>
       <c r="D7">
-        <v>0.382542624693987</v>
+        <v>0.6735708521826163</v>
       </c>
       <c r="E7">
-        <v>0.1523000183953932</v>
+        <v>0.2934969556344409</v>
       </c>
       <c r="F7">
-        <v>-0.3025325223790488</v>
+        <v>-0.06193794630210222</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.4431294767725407</v>
+        <v>0.6790844005770853</v>
       </c>
       <c r="I7">
-        <v>0.5251452674004942</v>
+        <v>0.6778749392792621</v>
       </c>
       <c r="J7">
-        <v>0.2787695769750945</v>
+        <v>0.4261778898454034</v>
       </c>
       <c r="K7">
-        <v>-0.2838002070719546</v>
+        <v>0.01219745069401997</v>
       </c>
       <c r="L7">
-        <v>0.6507116305352277</v>
+        <v>0.6530634112319517</v>
       </c>
       <c r="M7">
-        <v>0.4332857878916667</v>
+        <v>0.5393925801821926</v>
       </c>
       <c r="N7">
-        <v>-1.052379072180502e-16</v>
+        <v>-4.581468440064092e-17</v>
       </c>
       <c r="O7">
-        <v>-0.09622760015367039</v>
+        <v>-0.1469901637461705</v>
       </c>
       <c r="Q7">
-        <v>-3.84347139405053e-16</v>
+        <v>3.207027908044864e-16</v>
       </c>
       <c r="R7">
-        <v>0.05178495634279924</v>
+        <v>0.08269900451839834</v>
       </c>
       <c r="S7">
-        <v>-0.2528141650941757</v>
+        <v>-0.2122788154450698</v>
       </c>
       <c r="T7">
-        <v>0.03638976210238996</v>
+        <v>0.1279721568778777</v>
       </c>
       <c r="U7">
-        <v>-0.2748363015967687</v>
+        <v>-0.3038958665051647</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -876,61 +876,61 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.01840439596338389</v>
+        <v>0.03251026699987748</v>
       </c>
       <c r="C8">
-        <v>0.07996780652306233</v>
+        <v>0.03464555403083762</v>
       </c>
       <c r="D8">
-        <v>0.9777708223157993</v>
+        <v>0.9869596445666107</v>
       </c>
       <c r="E8">
-        <v>0.5853934870863284</v>
+        <v>0.5878752036870768</v>
       </c>
       <c r="F8">
-        <v>0.3046381029676009</v>
+        <v>0.1665739116006598</v>
       </c>
       <c r="G8">
-        <v>0.4431294767725407</v>
+        <v>0.6790844005770853</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.7129672205385122</v>
+        <v>0.7720280899487464</v>
       </c>
       <c r="J8">
-        <v>0.6596533454934377</v>
+        <v>0.6802336907754714</v>
       </c>
       <c r="K8">
-        <v>0.3136263024100464</v>
+        <v>0.2746299001602014</v>
       </c>
       <c r="L8">
-        <v>0.1408035849469267</v>
+        <v>0.4493724078540286</v>
       </c>
       <c r="M8">
-        <v>0.5712801754476896</v>
+        <v>0.6074752417321293</v>
       </c>
       <c r="N8">
-        <v>-3.412036074518795e-17</v>
+        <v>1.84520271996319e-16</v>
       </c>
       <c r="O8">
-        <v>-0.09231197098919502</v>
+        <v>-0.1514037574916817</v>
       </c>
       <c r="Q8">
-        <v>2.388425252163157e-16</v>
+        <v>2.039434585222473e-16</v>
       </c>
       <c r="R8">
-        <v>-0.09516468379482727</v>
+        <v>-0.1157636184914509</v>
       </c>
       <c r="S8">
-        <v>0.103940159321858</v>
+        <v>0.06543036595919888</v>
       </c>
       <c r="T8">
-        <v>0.2234331225014324</v>
+        <v>0.2347531325952004</v>
       </c>
       <c r="U8">
-        <v>-0.1032556592365568</v>
+        <v>-0.1384112729372551</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -938,61 +938,61 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1914163956428686</v>
+        <v>0.1455275192583088</v>
       </c>
       <c r="C9">
-        <v>-0.1609440552789667</v>
+        <v>-0.05464967430273746</v>
       </c>
       <c r="D9">
-        <v>0.677843292559108</v>
+        <v>0.7703047989162173</v>
       </c>
       <c r="E9">
-        <v>0.5536826270233426</v>
+        <v>0.5062998829755584</v>
       </c>
       <c r="F9">
-        <v>0.1389250558464513</v>
+        <v>0.05360390469665118</v>
       </c>
       <c r="G9">
-        <v>0.5251452674004942</v>
+        <v>0.6778749392792621</v>
       </c>
       <c r="H9">
-        <v>0.7129672205385122</v>
+        <v>0.7720280899487464</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.6632642522584935</v>
+        <v>0.6373355037709021</v>
       </c>
       <c r="K9">
-        <v>0.1795921551193817</v>
+        <v>0.1313961368501537</v>
       </c>
       <c r="L9">
-        <v>0.4003666027119899</v>
+        <v>0.6854381694108397</v>
       </c>
       <c r="M9">
-        <v>0.951243623670587</v>
+        <v>0.9453236016231191</v>
       </c>
       <c r="N9">
-        <v>8.927951336788909e-15</v>
+        <v>4.056173161152782e-15</v>
       </c>
       <c r="O9">
-        <v>-0.1504364853544375</v>
+        <v>-0.2037178193153648</v>
       </c>
       <c r="Q9">
-        <v>8.941686646537814e-15</v>
+        <v>4.069090910073651e-15</v>
       </c>
       <c r="R9">
-        <v>-0.2132577748178268</v>
+        <v>-0.1838509992076941</v>
       </c>
       <c r="S9">
-        <v>0.03864242014490347</v>
+        <v>-0.04724653416730241</v>
       </c>
       <c r="T9">
-        <v>0.184040759583541</v>
+        <v>0.1546249210996476</v>
       </c>
       <c r="U9">
-        <v>-0.07258883940966357</v>
+        <v>-0.1572569478461058</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1000,61 +1000,61 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.00126246021214614</v>
+        <v>0.03110426779743944</v>
       </c>
       <c r="C10">
-        <v>-0.03257605632637062</v>
+        <v>-0.02353409310941642</v>
       </c>
       <c r="D10">
-        <v>0.6165719222663102</v>
+        <v>0.6657197040299973</v>
       </c>
       <c r="E10">
-        <v>0.8884748822998667</v>
+        <v>0.8734598310264916</v>
       </c>
       <c r="F10">
-        <v>0.4969963144980583</v>
+        <v>0.4975385861924605</v>
       </c>
       <c r="G10">
-        <v>0.2787695769750945</v>
+        <v>0.4261778898454034</v>
       </c>
       <c r="H10">
-        <v>0.6596533454934377</v>
+        <v>0.6802336907754714</v>
       </c>
       <c r="I10">
-        <v>0.6632642522584935</v>
+        <v>0.6373355037709021</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.4681834811507579</v>
+        <v>0.5587315479149167</v>
       </c>
       <c r="L10">
-        <v>0.1526678468408229</v>
+        <v>0.3727721876074929</v>
       </c>
       <c r="M10">
-        <v>0.5404459691384669</v>
+        <v>0.5042955498907329</v>
       </c>
       <c r="N10">
-        <v>-4.233691955599627e-15</v>
+        <v>6.897019909926239e-16</v>
       </c>
       <c r="O10">
-        <v>-0.001604643446389674</v>
+        <v>-0.0121249135178753</v>
       </c>
       <c r="Q10">
-        <v>-4.187673564777891e-15</v>
+        <v>7.267827431965283e-16</v>
       </c>
       <c r="R10">
-        <v>-0.2110550033452053</v>
+        <v>-0.2253718962090097</v>
       </c>
       <c r="S10">
-        <v>0.441233766972406</v>
+        <v>0.376384401232258</v>
       </c>
       <c r="T10">
-        <v>0.2959558270901552</v>
+        <v>0.2665656676222631</v>
       </c>
       <c r="U10">
-        <v>0.2451797634299111</v>
+        <v>0.1703258938105085</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1062,61 +1062,61 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.02632993544152095</v>
+        <v>-0.06786464654325448</v>
       </c>
       <c r="C11">
-        <v>0.1188015824780843</v>
+        <v>0.1086358250565714</v>
       </c>
       <c r="D11">
-        <v>0.316370910263008</v>
+        <v>0.2524737509893859</v>
       </c>
       <c r="E11">
-        <v>0.4460568278712635</v>
+        <v>0.5076980556173233</v>
       </c>
       <c r="F11">
-        <v>0.9289967463533779</v>
+        <v>0.9245440272241831</v>
       </c>
       <c r="G11">
-        <v>-0.2838002070719546</v>
+        <v>0.01219745069401997</v>
       </c>
       <c r="H11">
-        <v>0.3136263024100464</v>
+        <v>0.2746299001602014</v>
       </c>
       <c r="I11">
-        <v>0.1795921551193817</v>
+        <v>0.1313961368501537</v>
       </c>
       <c r="J11">
-        <v>0.4681834811507579</v>
+        <v>0.5587315479149167</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>-0.3641690617343418</v>
+        <v>-0.0506349014461609</v>
       </c>
       <c r="M11">
-        <v>0.1387813382882432</v>
+        <v>0.08617472307857331</v>
       </c>
       <c r="N11">
-        <v>2.884062198438208e-16</v>
+        <v>-3.503331779890207e-16</v>
       </c>
       <c r="O11">
-        <v>0.06445799734056648</v>
+        <v>0.07611071914631848</v>
       </c>
       <c r="Q11">
-        <v>-3.725762754205582e-16</v>
+        <v>3.108590170888493e-16</v>
       </c>
       <c r="R11">
-        <v>-0.04646679323606726</v>
+        <v>-0.06345688522900998</v>
       </c>
       <c r="S11">
-        <v>0.456280060364496</v>
+        <v>0.4623819073833715</v>
       </c>
       <c r="T11">
-        <v>0.09684007612527605</v>
+        <v>0.1399306648904478</v>
       </c>
       <c r="U11">
-        <v>0.2189495670254766</v>
+        <v>0.2210165422892613</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1124,61 +1124,61 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2222065256551813</v>
+        <v>0.09694398396020938</v>
       </c>
       <c r="C12">
-        <v>-0.209493958903448</v>
+        <v>0.1136429820580396</v>
       </c>
       <c r="D12">
-        <v>0.07090471111046673</v>
+        <v>0.4706509334439072</v>
       </c>
       <c r="E12">
-        <v>0.1148592857997386</v>
+        <v>0.3233201649915313</v>
       </c>
       <c r="F12">
-        <v>-0.3410326518758263</v>
+        <v>-0.01608048406506278</v>
       </c>
       <c r="G12">
-        <v>0.6507116305352277</v>
+        <v>0.6530634112319517</v>
       </c>
       <c r="H12">
-        <v>0.1408035849469267</v>
+        <v>0.4493724078540286</v>
       </c>
       <c r="I12">
-        <v>0.4003666027119899</v>
+        <v>0.6854381694108397</v>
       </c>
       <c r="J12">
-        <v>0.1526678468408229</v>
+        <v>0.3727721876074929</v>
       </c>
       <c r="K12">
-        <v>-0.3641690617343418</v>
+        <v>-0.0506349014461609</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4370812941830706</v>
+        <v>0.7095625596926839</v>
       </c>
       <c r="N12">
-        <v>-6.96417804932223e-16</v>
+        <v>3.926509632699553e-17</v>
       </c>
       <c r="O12">
-        <v>0.02508524582755221</v>
+        <v>-0.07155333816120758</v>
       </c>
       <c r="Q12">
-        <v>-5.416582927250622e-16</v>
+        <v>-1.570603853079821e-16</v>
       </c>
       <c r="R12">
-        <v>-0.0272141279477379</v>
+        <v>-0.02872318328931278</v>
       </c>
       <c r="S12">
-        <v>-0.1067787341593857</v>
+        <v>-0.001769315014088405</v>
       </c>
       <c r="T12">
-        <v>-0.05781221093368369</v>
+        <v>0.0491481588542904</v>
       </c>
       <c r="U12">
-        <v>-0.08437699766851482</v>
+        <v>-0.08750535152529236</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1186,61 +1186,61 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2263900698760361</v>
+        <v>0.1693593265268756</v>
       </c>
       <c r="C13">
-        <v>-0.1968020742767988</v>
+        <v>-0.03672462593629056</v>
       </c>
       <c r="D13">
-        <v>0.5529870926079059</v>
+        <v>0.6081882455058323</v>
       </c>
       <c r="E13">
-        <v>0.4876468510435155</v>
+        <v>0.423299355223121</v>
       </c>
       <c r="F13">
-        <v>0.0832245376423885</v>
+        <v>0.04182405402050556</v>
       </c>
       <c r="G13">
-        <v>0.4332857878916667</v>
+        <v>0.5393925801821926</v>
       </c>
       <c r="H13">
-        <v>0.5712801754476896</v>
+        <v>0.6074752417321293</v>
       </c>
       <c r="I13">
-        <v>0.951243623670587</v>
+        <v>0.9453236016231191</v>
       </c>
       <c r="J13">
-        <v>0.5404459691384669</v>
+        <v>0.5042955498907329</v>
       </c>
       <c r="K13">
-        <v>0.1387813382882432</v>
+        <v>0.08617472307857331</v>
       </c>
       <c r="L13">
-        <v>0.4370812941830706</v>
+        <v>0.7095625596926839</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>2.043211466511396e-15</v>
+        <v>2.198470513904755e-17</v>
       </c>
       <c r="O13">
-        <v>-0.138769846639401</v>
+        <v>-0.2125738933008336</v>
       </c>
       <c r="Q13">
-        <v>2.07282322689562e-15</v>
+        <v>-5.129764532444429e-17</v>
       </c>
       <c r="R13">
-        <v>-0.2137866077639033</v>
+        <v>-0.1875333398232258</v>
       </c>
       <c r="S13">
-        <v>0.0337298110219959</v>
+        <v>-0.05266050773362523</v>
       </c>
       <c r="T13">
-        <v>0.1000552954237189</v>
+        <v>0.0662380697599478</v>
       </c>
       <c r="U13">
-        <v>-0.03560032839658783</v>
+        <v>-0.1156739560277123</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1254,34 +1254,34 @@
         <v>-1.351284330897043e-15</v>
       </c>
       <c r="D14">
-        <v>8.012283562604331e-16</v>
+        <v>3.566671208812168e-16</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>-6.50592752719859e-16</v>
       </c>
       <c r="F14">
-        <v>-3.219931488862619e-16</v>
+        <v>-2.086497594274027e-16</v>
       </c>
       <c r="G14">
-        <v>-1.052379072180502e-16</v>
+        <v>-4.581468440064092e-17</v>
       </c>
       <c r="H14">
-        <v>-3.412036074518795e-17</v>
+        <v>1.84520271996319e-16</v>
       </c>
       <c r="I14">
-        <v>8.927951336788909e-15</v>
+        <v>4.056173161152782e-15</v>
       </c>
       <c r="J14">
-        <v>-4.233691955599627e-15</v>
+        <v>6.897019909926239e-16</v>
       </c>
       <c r="K14">
-        <v>2.884062198438208e-16</v>
+        <v>-3.503331779890207e-16</v>
       </c>
       <c r="L14">
-        <v>-6.96417804932223e-16</v>
+        <v>3.926509632699553e-17</v>
       </c>
       <c r="M14">
-        <v>2.043211466511396e-15</v>
+        <v>2.198470513904755e-17</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1316,34 +1316,34 @@
         <v>0.01258556062345989</v>
       </c>
       <c r="D15">
-        <v>-0.08566806663665789</v>
+        <v>-0.1375382841619496</v>
       </c>
       <c r="E15">
-        <v>0.04710005612928433</v>
+        <v>0.0193538137074701</v>
       </c>
       <c r="F15">
-        <v>0.05472110801575797</v>
+        <v>0.05686715317942567</v>
       </c>
       <c r="G15">
-        <v>-0.09622760015367039</v>
+        <v>-0.1469901637461705</v>
       </c>
       <c r="H15">
-        <v>-0.09231197098919502</v>
+        <v>-0.1514037574916817</v>
       </c>
       <c r="I15">
-        <v>-0.1504364853544375</v>
+        <v>-0.2037178193153648</v>
       </c>
       <c r="J15">
-        <v>-0.001604643446389674</v>
+        <v>-0.0121249135178753</v>
       </c>
       <c r="K15">
-        <v>0.06445799734056648</v>
+        <v>0.07611071914631848</v>
       </c>
       <c r="L15">
-        <v>0.02508524582755221</v>
+        <v>-0.07155333816120758</v>
       </c>
       <c r="M15">
-        <v>-0.138769846639401</v>
+        <v>-0.2125738933008336</v>
       </c>
       <c r="N15">
         <v>1.632581470038348e-17</v>
@@ -1383,34 +1383,34 @@
         <v>-1.306241519867141e-15</v>
       </c>
       <c r="D17">
-        <v>5.608598493823031e-16</v>
+        <v>4.048653804597595e-16</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>-6.50592752719859e-16</v>
       </c>
       <c r="F17">
-        <v>3.923546147540006e-16</v>
+        <v>4.344669041241487e-16</v>
       </c>
       <c r="G17">
-        <v>-3.84347139405053e-16</v>
+        <v>3.207027908044864e-16</v>
       </c>
       <c r="H17">
-        <v>2.388425252163157e-16</v>
+        <v>2.039434585222473e-16</v>
       </c>
       <c r="I17">
-        <v>8.941686646537814e-15</v>
+        <v>4.069090910073651e-15</v>
       </c>
       <c r="J17">
-        <v>-4.187673564777891e-15</v>
+        <v>7.267827431965283e-16</v>
       </c>
       <c r="K17">
-        <v>-3.725762754205582e-16</v>
+        <v>3.108590170888493e-16</v>
       </c>
       <c r="L17">
-        <v>-5.416582927250622e-16</v>
+        <v>-1.570603853079821e-16</v>
       </c>
       <c r="M17">
-        <v>2.07282322689562e-15</v>
+        <v>-5.129764532444429e-17</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1445,34 +1445,34 @@
         <v>0.1072221942112523</v>
       </c>
       <c r="D18">
-        <v>-0.09321131443873186</v>
+        <v>-0.1123992994262411</v>
       </c>
       <c r="E18">
-        <v>-0.1950226703400275</v>
+        <v>-0.2134026769921701</v>
       </c>
       <c r="F18">
-        <v>-0.05562576281924133</v>
+        <v>-0.07056329520308711</v>
       </c>
       <c r="G18">
-        <v>0.05178495634279924</v>
+        <v>0.08269900451839834</v>
       </c>
       <c r="H18">
-        <v>-0.09516468379482727</v>
+        <v>-0.1157636184914509</v>
       </c>
       <c r="I18">
-        <v>-0.2132577748178268</v>
+        <v>-0.1838509992076941</v>
       </c>
       <c r="J18">
-        <v>-0.2110550033452053</v>
+        <v>-0.2253718962090097</v>
       </c>
       <c r="K18">
-        <v>-0.04646679323606726</v>
+        <v>-0.06345688522900998</v>
       </c>
       <c r="L18">
-        <v>-0.0272141279477379</v>
+        <v>-0.02872318328931278</v>
       </c>
       <c r="M18">
-        <v>-0.2137866077639033</v>
+        <v>-0.1875333398232258</v>
       </c>
       <c r="N18">
         <v>-4.557986870598185e-16</v>
@@ -1507,34 +1507,34 @@
         <v>-0.09342305512333833</v>
       </c>
       <c r="D19">
-        <v>0.07622355528351664</v>
+        <v>0.07052404406482074</v>
       </c>
       <c r="E19">
-        <v>0.4906803591951636</v>
+        <v>0.4211971398087573</v>
       </c>
       <c r="F19">
-        <v>0.5192915835477643</v>
+        <v>0.5368144659355543</v>
       </c>
       <c r="G19">
-        <v>-0.2528141650941757</v>
+        <v>-0.2122788154450698</v>
       </c>
       <c r="H19">
-        <v>0.103940159321858</v>
+        <v>0.06543036595919888</v>
       </c>
       <c r="I19">
-        <v>0.03864242014490347</v>
+        <v>-0.04724653416730241</v>
       </c>
       <c r="J19">
-        <v>0.441233766972406</v>
+        <v>0.376384401232258</v>
       </c>
       <c r="K19">
-        <v>0.456280060364496</v>
+        <v>0.4623819073833715</v>
       </c>
       <c r="L19">
-        <v>-0.1067787341593857</v>
+        <v>-0.001769315014088405</v>
       </c>
       <c r="M19">
-        <v>0.0337298110219959</v>
+        <v>-0.05266050773362523</v>
       </c>
       <c r="N19">
         <v>2.556518521088962e-15</v>
@@ -1569,34 +1569,34 @@
         <v>0.06012285306948947</v>
       </c>
       <c r="D20">
-        <v>0.1948016473023572</v>
+        <v>0.2153517673687143</v>
       </c>
       <c r="E20">
-        <v>0.2748602547668558</v>
+        <v>0.2304209406059521</v>
       </c>
       <c r="F20">
-        <v>0.1061535256119129</v>
+        <v>0.1137821212413632</v>
       </c>
       <c r="G20">
-        <v>0.03638976210238996</v>
+        <v>0.1279721568778777</v>
       </c>
       <c r="H20">
-        <v>0.2234331225014324</v>
+        <v>0.2347531325952004</v>
       </c>
       <c r="I20">
-        <v>0.184040759583541</v>
+        <v>0.1546249210996476</v>
       </c>
       <c r="J20">
-        <v>0.2959558270901552</v>
+        <v>0.2665656676222631</v>
       </c>
       <c r="K20">
-        <v>0.09684007612527605</v>
+        <v>0.1399306648904478</v>
       </c>
       <c r="L20">
-        <v>-0.05781221093368369</v>
+        <v>0.0491481588542904</v>
       </c>
       <c r="M20">
-        <v>0.1000552954237189</v>
+        <v>0.0662380697599478</v>
       </c>
       <c r="N20">
         <v>-1.292064513791213e-15</v>
@@ -1631,34 +1631,34 @@
         <v>-0.1025932136429224</v>
       </c>
       <c r="D21">
-        <v>-0.1170210732328847</v>
+        <v>-0.1390079924904912</v>
       </c>
       <c r="E21">
-        <v>0.2872172178222431</v>
+        <v>0.2146730676965272</v>
       </c>
       <c r="F21">
-        <v>0.2793531944933477</v>
+        <v>0.3149986221900413</v>
       </c>
       <c r="G21">
-        <v>-0.2748363015967687</v>
+        <v>-0.3038958665051647</v>
       </c>
       <c r="H21">
-        <v>-0.1032556592365568</v>
+        <v>-0.1384112729372551</v>
       </c>
       <c r="I21">
-        <v>-0.07258883940966357</v>
+        <v>-0.1572569478461058</v>
       </c>
       <c r="J21">
-        <v>0.2451797634299111</v>
+        <v>0.1703258938105085</v>
       </c>
       <c r="K21">
-        <v>0.2189495670254766</v>
+        <v>0.2210165422892613</v>
       </c>
       <c r="L21">
-        <v>-0.08437699766851482</v>
+        <v>-0.08750535152529236</v>
       </c>
       <c r="M21">
-        <v>-0.03560032839658783</v>
+        <v>-0.1156739560277123</v>
       </c>
       <c r="N21">
         <v>7.064990977789627e-16</v>

--- a/WorkingFolder/Tables/corrM.xlsx
+++ b/WorkingFolder/Tables/corrM.xlsx
@@ -22,10 +22,13 @@
     <t>VIXCLS</t>
   </si>
   <si>
+    <t>meanMed</t>
+  </si>
+  <si>
     <t>iqrMed</t>
   </si>
   <si>
-    <t>meanMed</t>
+    <t>varMed</t>
   </si>
   <si>
     <t>rmeanMed</t>
@@ -34,22 +37,19 @@
     <t>rvarMed</t>
   </si>
   <si>
-    <t>varMed</t>
+    <t>meanMean</t>
   </si>
   <si>
     <t>iqrMean</t>
   </si>
   <si>
-    <t>meanMean</t>
+    <t>varMean</t>
   </si>
   <si>
     <t>rmeanMean</t>
   </si>
   <si>
     <t>rvarMean</t>
-  </si>
-  <si>
-    <t>varMean</t>
   </si>
   <si>
     <t>kurtEstMed</t>
@@ -510,34 +510,34 @@
         <v>-0.4458282196891535</v>
       </c>
       <c r="D2">
+        <v>0.06052232935307845</v>
+      </c>
+      <c r="E2">
         <v>0.04250259628683546</v>
       </c>
-      <c r="E2">
-        <v>0.06052232935307845</v>
-      </c>
       <c r="F2">
+        <v>0.03251026699987748</v>
+      </c>
+      <c r="G2">
         <v>-0.03737587636125757</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.003932712359607337</v>
       </c>
-      <c r="H2">
-        <v>0.03251026699987748</v>
-      </c>
       <c r="I2">
+        <v>0.03110426779743944</v>
+      </c>
+      <c r="J2">
         <v>0.1455275192583088</v>
       </c>
-      <c r="J2">
-        <v>0.03110426779743944</v>
-      </c>
       <c r="K2">
+        <v>0.1693593265268756</v>
+      </c>
+      <c r="L2">
         <v>-0.06786464654325448</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.09694398396020938</v>
-      </c>
-      <c r="M2">
-        <v>0.1693593265268756</v>
       </c>
       <c r="N2">
         <v>-3.605317083788505e-17</v>
@@ -572,34 +572,34 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>0.05405000766046579</v>
+      </c>
+      <c r="E3">
         <v>0.02090081364037645</v>
       </c>
-      <c r="E3">
-        <v>0.05405000766046579</v>
-      </c>
       <c r="F3">
+        <v>0.03464555403083762</v>
+      </c>
+      <c r="G3">
         <v>0.1691006458289873</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.1131570554671354</v>
       </c>
-      <c r="H3">
-        <v>0.03464555403083762</v>
-      </c>
       <c r="I3">
+        <v>-0.02353409310941642</v>
+      </c>
+      <c r="J3">
         <v>-0.05464967430273746</v>
       </c>
-      <c r="J3">
-        <v>-0.02353409310941642</v>
-      </c>
       <c r="K3">
+        <v>-0.03672462593629056</v>
+      </c>
+      <c r="L3">
         <v>0.1086358250565714</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.1136429820580396</v>
-      </c>
-      <c r="M3">
-        <v>-0.03672462593629056</v>
       </c>
       <c r="N3">
         <v>-1.351284330897043e-15</v>
@@ -628,10 +628,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.04250259628683546</v>
+        <v>0.06052232935307845</v>
       </c>
       <c r="C4">
-        <v>0.02090081364037645</v>
+        <v>0.05405000766046579</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -640,49 +640,49 @@
         <v>0.5636986541578768</v>
       </c>
       <c r="F4">
-        <v>0.1553023117281974</v>
+        <v>0.5878752036870768</v>
       </c>
       <c r="G4">
-        <v>0.6735708521826163</v>
+        <v>0.5352774719538452</v>
       </c>
       <c r="H4">
-        <v>0.9869596445666107</v>
+        <v>0.2934969556344409</v>
       </c>
       <c r="I4">
-        <v>0.7703047989162173</v>
+        <v>0.8734598310264916</v>
       </c>
       <c r="J4">
-        <v>0.6657197040299973</v>
+        <v>0.5062998829755584</v>
       </c>
       <c r="K4">
-        <v>0.2524737509893859</v>
+        <v>0.423299355223121</v>
       </c>
       <c r="L4">
-        <v>0.4706509334439072</v>
+        <v>0.5076980556173233</v>
       </c>
       <c r="M4">
-        <v>0.6081882455058323</v>
+        <v>0.3233201649915313</v>
       </c>
       <c r="N4">
-        <v>3.566671208812168e-16</v>
+        <v>-6.50592752719859e-16</v>
       </c>
       <c r="O4">
-        <v>-0.1375382841619496</v>
+        <v>0.0193538137074701</v>
       </c>
       <c r="Q4">
-        <v>4.048653804597595e-16</v>
+        <v>-6.50592752719859e-16</v>
       </c>
       <c r="R4">
-        <v>-0.1123992994262411</v>
+        <v>-0.2134026769921701</v>
       </c>
       <c r="S4">
-        <v>0.07052404406482074</v>
+        <v>0.4211971398087573</v>
       </c>
       <c r="T4">
-        <v>0.2153517673687143</v>
+        <v>0.2304209406059521</v>
       </c>
       <c r="U4">
-        <v>-0.1390079924904912</v>
+        <v>0.2146730676965272</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -690,10 +690,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.06052232935307845</v>
+        <v>0.04250259628683546</v>
       </c>
       <c r="C5">
-        <v>0.05405000766046579</v>
+        <v>0.02090081364037645</v>
       </c>
       <c r="D5">
         <v>0.5636986541578768</v>
@@ -702,49 +702,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5352774719538452</v>
+        <v>0.9869596445666107</v>
       </c>
       <c r="G5">
-        <v>0.2934969556344409</v>
+        <v>0.1553023117281974</v>
       </c>
       <c r="H5">
-        <v>0.5878752036870768</v>
+        <v>0.6735708521826163</v>
       </c>
       <c r="I5">
-        <v>0.5062998829755584</v>
+        <v>0.6657197040299973</v>
       </c>
       <c r="J5">
-        <v>0.8734598310264916</v>
+        <v>0.7703047989162173</v>
       </c>
       <c r="K5">
-        <v>0.5076980556173233</v>
+        <v>0.6081882455058323</v>
       </c>
       <c r="L5">
-        <v>0.3233201649915313</v>
+        <v>0.2524737509893859</v>
       </c>
       <c r="M5">
-        <v>0.423299355223121</v>
+        <v>0.4706509334439072</v>
       </c>
       <c r="N5">
-        <v>-6.50592752719859e-16</v>
+        <v>3.566671208812168e-16</v>
       </c>
       <c r="O5">
-        <v>0.0193538137074701</v>
+        <v>-0.1375382841619496</v>
       </c>
       <c r="Q5">
-        <v>-6.50592752719859e-16</v>
+        <v>4.048653804597595e-16</v>
       </c>
       <c r="R5">
-        <v>-0.2134026769921701</v>
+        <v>-0.1123992994262411</v>
       </c>
       <c r="S5">
-        <v>0.4211971398087573</v>
+        <v>0.07052404406482074</v>
       </c>
       <c r="T5">
-        <v>0.2304209406059521</v>
+        <v>0.2153517673687143</v>
       </c>
       <c r="U5">
-        <v>0.2146730676965272</v>
+        <v>-0.1390079924904912</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -752,61 +752,61 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.03737587636125757</v>
+        <v>0.03251026699987748</v>
       </c>
       <c r="C6">
-        <v>0.1691006458289873</v>
+        <v>0.03464555403083762</v>
       </c>
       <c r="D6">
-        <v>0.1553023117281974</v>
+        <v>0.5878752036870768</v>
       </c>
       <c r="E6">
-        <v>0.5352774719538452</v>
+        <v>0.9869596445666107</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>-0.06193794630210222</v>
+        <v>0.1665739116006598</v>
       </c>
       <c r="H6">
-        <v>0.1665739116006598</v>
+        <v>0.6790844005770853</v>
       </c>
       <c r="I6">
-        <v>0.05360390469665118</v>
+        <v>0.6802336907754714</v>
       </c>
       <c r="J6">
-        <v>0.4975385861924605</v>
+        <v>0.7720280899487464</v>
       </c>
       <c r="K6">
-        <v>0.9245440272241831</v>
+        <v>0.6074752417321293</v>
       </c>
       <c r="L6">
-        <v>-0.01608048406506278</v>
+        <v>0.2746299001602014</v>
       </c>
       <c r="M6">
-        <v>0.04182405402050556</v>
+        <v>0.4493724078540286</v>
       </c>
       <c r="N6">
-        <v>-2.086497594274027e-16</v>
+        <v>1.84520271996319e-16</v>
       </c>
       <c r="O6">
-        <v>0.05686715317942567</v>
+        <v>-0.1514037574916817</v>
       </c>
       <c r="Q6">
-        <v>4.344669041241487e-16</v>
+        <v>2.039434585222473e-16</v>
       </c>
       <c r="R6">
-        <v>-0.07056329520308711</v>
+        <v>-0.1157636184914509</v>
       </c>
       <c r="S6">
-        <v>0.5368144659355543</v>
+        <v>0.06543036595919888</v>
       </c>
       <c r="T6">
-        <v>0.1137821212413632</v>
+        <v>0.2347531325952004</v>
       </c>
       <c r="U6">
-        <v>0.3149986221900413</v>
+        <v>-0.1384112729372551</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -814,61 +814,61 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.003932712359607337</v>
+        <v>-0.03737587636125757</v>
       </c>
       <c r="C7">
-        <v>0.1131570554671354</v>
+        <v>0.1691006458289873</v>
       </c>
       <c r="D7">
-        <v>0.6735708521826163</v>
+        <v>0.5352774719538452</v>
       </c>
       <c r="E7">
-        <v>0.2934969556344409</v>
+        <v>0.1553023117281974</v>
       </c>
       <c r="F7">
+        <v>0.1665739116006598</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>-0.06193794630210222</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0.6790844005770853</v>
-      </c>
       <c r="I7">
-        <v>0.6778749392792621</v>
+        <v>0.4975385861924605</v>
       </c>
       <c r="J7">
-        <v>0.4261778898454034</v>
+        <v>0.05360390469665118</v>
       </c>
       <c r="K7">
-        <v>0.01219745069401997</v>
+        <v>0.04182405402050556</v>
       </c>
       <c r="L7">
-        <v>0.6530634112319517</v>
+        <v>0.9245440272241831</v>
       </c>
       <c r="M7">
-        <v>0.5393925801821926</v>
+        <v>-0.01608048406506278</v>
       </c>
       <c r="N7">
-        <v>-4.581468440064092e-17</v>
+        <v>-2.086497594274027e-16</v>
       </c>
       <c r="O7">
-        <v>-0.1469901637461705</v>
+        <v>0.05686715317942567</v>
       </c>
       <c r="Q7">
-        <v>3.207027908044864e-16</v>
+        <v>4.344669041241487e-16</v>
       </c>
       <c r="R7">
-        <v>0.08269900451839834</v>
+        <v>-0.07056329520308711</v>
       </c>
       <c r="S7">
-        <v>-0.2122788154450698</v>
+        <v>0.5368144659355543</v>
       </c>
       <c r="T7">
-        <v>0.1279721568778777</v>
+        <v>0.1137821212413632</v>
       </c>
       <c r="U7">
-        <v>-0.3038958665051647</v>
+        <v>0.3149986221900413</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -876,61 +876,61 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.03251026699987748</v>
+        <v>0.003932712359607337</v>
       </c>
       <c r="C8">
-        <v>0.03464555403083762</v>
+        <v>0.1131570554671354</v>
       </c>
       <c r="D8">
-        <v>0.9869596445666107</v>
+        <v>0.2934969556344409</v>
       </c>
       <c r="E8">
-        <v>0.5878752036870768</v>
+        <v>0.6735708521826163</v>
       </c>
       <c r="F8">
-        <v>0.1665739116006598</v>
+        <v>0.6790844005770853</v>
       </c>
       <c r="G8">
-        <v>0.6790844005770853</v>
+        <v>-0.06193794630210222</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.7720280899487464</v>
+        <v>0.4261778898454034</v>
       </c>
       <c r="J8">
-        <v>0.6802336907754714</v>
+        <v>0.6778749392792621</v>
       </c>
       <c r="K8">
-        <v>0.2746299001602014</v>
+        <v>0.5393925801821926</v>
       </c>
       <c r="L8">
-        <v>0.4493724078540286</v>
+        <v>0.01219745069401997</v>
       </c>
       <c r="M8">
-        <v>0.6074752417321293</v>
+        <v>0.6530634112319517</v>
       </c>
       <c r="N8">
-        <v>1.84520271996319e-16</v>
+        <v>-4.581468440064092e-17</v>
       </c>
       <c r="O8">
-        <v>-0.1514037574916817</v>
+        <v>-0.1469901637461705</v>
       </c>
       <c r="Q8">
-        <v>2.039434585222473e-16</v>
+        <v>3.207027908044864e-16</v>
       </c>
       <c r="R8">
-        <v>-0.1157636184914509</v>
+        <v>0.08269900451839834</v>
       </c>
       <c r="S8">
-        <v>0.06543036595919888</v>
+        <v>-0.2122788154450698</v>
       </c>
       <c r="T8">
-        <v>0.2347531325952004</v>
+        <v>0.1279721568778777</v>
       </c>
       <c r="U8">
-        <v>-0.1384112729372551</v>
+        <v>-0.3038958665051647</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -938,25 +938,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1455275192583088</v>
+        <v>0.03110426779743944</v>
       </c>
       <c r="C9">
-        <v>-0.05464967430273746</v>
+        <v>-0.02353409310941642</v>
       </c>
       <c r="D9">
-        <v>0.7703047989162173</v>
+        <v>0.8734598310264916</v>
       </c>
       <c r="E9">
-        <v>0.5062998829755584</v>
+        <v>0.6657197040299973</v>
       </c>
       <c r="F9">
-        <v>0.05360390469665118</v>
+        <v>0.6802336907754714</v>
       </c>
       <c r="G9">
-        <v>0.6778749392792621</v>
+        <v>0.4975385861924605</v>
       </c>
       <c r="H9">
-        <v>0.7720280899487464</v>
+        <v>0.4261778898454034</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -965,34 +965,34 @@
         <v>0.6373355037709021</v>
       </c>
       <c r="K9">
-        <v>0.1313961368501537</v>
+        <v>0.5042955498907329</v>
       </c>
       <c r="L9">
-        <v>0.6854381694108397</v>
+        <v>0.5587315479149167</v>
       </c>
       <c r="M9">
-        <v>0.9453236016231191</v>
+        <v>0.3727721876074929</v>
       </c>
       <c r="N9">
-        <v>4.056173161152782e-15</v>
+        <v>6.897019909926239e-16</v>
       </c>
       <c r="O9">
-        <v>-0.2037178193153648</v>
+        <v>-0.0121249135178753</v>
       </c>
       <c r="Q9">
-        <v>4.069090910073651e-15</v>
+        <v>7.267827431965283e-16</v>
       </c>
       <c r="R9">
-        <v>-0.1838509992076941</v>
+        <v>-0.2253718962090097</v>
       </c>
       <c r="S9">
-        <v>-0.04724653416730241</v>
+        <v>0.376384401232258</v>
       </c>
       <c r="T9">
-        <v>0.1546249210996476</v>
+        <v>0.2665656676222631</v>
       </c>
       <c r="U9">
-        <v>-0.1572569478461058</v>
+        <v>0.1703258938105085</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1000,25 +1000,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.03110426779743944</v>
+        <v>0.1455275192583088</v>
       </c>
       <c r="C10">
-        <v>-0.02353409310941642</v>
+        <v>-0.05464967430273746</v>
       </c>
       <c r="D10">
-        <v>0.6657197040299973</v>
+        <v>0.5062998829755584</v>
       </c>
       <c r="E10">
-        <v>0.8734598310264916</v>
+        <v>0.7703047989162173</v>
       </c>
       <c r="F10">
-        <v>0.4975385861924605</v>
+        <v>0.7720280899487464</v>
       </c>
       <c r="G10">
-        <v>0.4261778898454034</v>
+        <v>0.05360390469665118</v>
       </c>
       <c r="H10">
-        <v>0.6802336907754714</v>
+        <v>0.6778749392792621</v>
       </c>
       <c r="I10">
         <v>0.6373355037709021</v>
@@ -1027,34 +1027,34 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.5587315479149167</v>
+        <v>0.9453236016231191</v>
       </c>
       <c r="L10">
-        <v>0.3727721876074929</v>
+        <v>0.1313961368501537</v>
       </c>
       <c r="M10">
-        <v>0.5042955498907329</v>
+        <v>0.6854381694108397</v>
       </c>
       <c r="N10">
-        <v>6.897019909926239e-16</v>
+        <v>4.056173161152782e-15</v>
       </c>
       <c r="O10">
-        <v>-0.0121249135178753</v>
+        <v>-0.2037178193153648</v>
       </c>
       <c r="Q10">
-        <v>7.267827431965283e-16</v>
+        <v>4.069090910073651e-15</v>
       </c>
       <c r="R10">
-        <v>-0.2253718962090097</v>
+        <v>-0.1838509992076941</v>
       </c>
       <c r="S10">
-        <v>0.376384401232258</v>
+        <v>-0.04724653416730241</v>
       </c>
       <c r="T10">
-        <v>0.2665656676222631</v>
+        <v>0.1546249210996476</v>
       </c>
       <c r="U10">
-        <v>0.1703258938105085</v>
+        <v>-0.1572569478461058</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1062,61 +1062,61 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.06786464654325448</v>
+        <v>0.1693593265268756</v>
       </c>
       <c r="C11">
-        <v>0.1086358250565714</v>
+        <v>-0.03672462593629056</v>
       </c>
       <c r="D11">
-        <v>0.2524737509893859</v>
+        <v>0.423299355223121</v>
       </c>
       <c r="E11">
-        <v>0.5076980556173233</v>
+        <v>0.6081882455058323</v>
       </c>
       <c r="F11">
-        <v>0.9245440272241831</v>
+        <v>0.6074752417321293</v>
       </c>
       <c r="G11">
-        <v>0.01219745069401997</v>
+        <v>0.04182405402050556</v>
       </c>
       <c r="H11">
-        <v>0.2746299001602014</v>
+        <v>0.5393925801821926</v>
       </c>
       <c r="I11">
-        <v>0.1313961368501537</v>
+        <v>0.5042955498907329</v>
       </c>
       <c r="J11">
-        <v>0.5587315479149167</v>
+        <v>0.9453236016231191</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>-0.0506349014461609</v>
+        <v>0.08617472307857331</v>
       </c>
       <c r="M11">
-        <v>0.08617472307857331</v>
+        <v>0.7095625596926839</v>
       </c>
       <c r="N11">
-        <v>-3.503331779890207e-16</v>
+        <v>2.198470513904755e-17</v>
       </c>
       <c r="O11">
-        <v>0.07611071914631848</v>
+        <v>-0.2125738933008336</v>
       </c>
       <c r="Q11">
-        <v>3.108590170888493e-16</v>
+        <v>-5.129764532444429e-17</v>
       </c>
       <c r="R11">
-        <v>-0.06345688522900998</v>
+        <v>-0.1875333398232258</v>
       </c>
       <c r="S11">
-        <v>0.4623819073833715</v>
+        <v>-0.05266050773362523</v>
       </c>
       <c r="T11">
-        <v>0.1399306648904478</v>
+        <v>0.0662380697599478</v>
       </c>
       <c r="U11">
-        <v>0.2210165422892613</v>
+        <v>-0.1156739560277123</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1124,61 +1124,61 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.09694398396020938</v>
+        <v>-0.06786464654325448</v>
       </c>
       <c r="C12">
-        <v>0.1136429820580396</v>
+        <v>0.1086358250565714</v>
       </c>
       <c r="D12">
-        <v>0.4706509334439072</v>
+        <v>0.5076980556173233</v>
       </c>
       <c r="E12">
-        <v>0.3233201649915313</v>
+        <v>0.2524737509893859</v>
       </c>
       <c r="F12">
-        <v>-0.01608048406506278</v>
+        <v>0.2746299001602014</v>
       </c>
       <c r="G12">
-        <v>0.6530634112319517</v>
+        <v>0.9245440272241831</v>
       </c>
       <c r="H12">
-        <v>0.4493724078540286</v>
+        <v>0.01219745069401997</v>
       </c>
       <c r="I12">
-        <v>0.6854381694108397</v>
+        <v>0.5587315479149167</v>
       </c>
       <c r="J12">
-        <v>0.3727721876074929</v>
+        <v>0.1313961368501537</v>
       </c>
       <c r="K12">
+        <v>0.08617472307857331</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
         <v>-0.0506349014461609</v>
       </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.7095625596926839</v>
-      </c>
       <c r="N12">
-        <v>3.926509632699553e-17</v>
+        <v>-3.503331779890207e-16</v>
       </c>
       <c r="O12">
-        <v>-0.07155333816120758</v>
+        <v>0.07611071914631848</v>
       </c>
       <c r="Q12">
-        <v>-1.570603853079821e-16</v>
+        <v>3.108590170888493e-16</v>
       </c>
       <c r="R12">
-        <v>-0.02872318328931278</v>
+        <v>-0.06345688522900998</v>
       </c>
       <c r="S12">
-        <v>-0.001769315014088405</v>
+        <v>0.4623819073833715</v>
       </c>
       <c r="T12">
-        <v>0.0491481588542904</v>
+        <v>0.1399306648904478</v>
       </c>
       <c r="U12">
-        <v>-0.08750535152529236</v>
+        <v>0.2210165422892613</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1186,61 +1186,61 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1693593265268756</v>
+        <v>0.09694398396020938</v>
       </c>
       <c r="C13">
-        <v>-0.03672462593629056</v>
+        <v>0.1136429820580396</v>
       </c>
       <c r="D13">
-        <v>0.6081882455058323</v>
+        <v>0.3233201649915313</v>
       </c>
       <c r="E13">
-        <v>0.423299355223121</v>
+        <v>0.4706509334439072</v>
       </c>
       <c r="F13">
-        <v>0.04182405402050556</v>
+        <v>0.4493724078540286</v>
       </c>
       <c r="G13">
-        <v>0.5393925801821926</v>
+        <v>-0.01608048406506278</v>
       </c>
       <c r="H13">
-        <v>0.6074752417321293</v>
+        <v>0.6530634112319517</v>
       </c>
       <c r="I13">
-        <v>0.9453236016231191</v>
+        <v>0.3727721876074929</v>
       </c>
       <c r="J13">
-        <v>0.5042955498907329</v>
+        <v>0.6854381694108397</v>
       </c>
       <c r="K13">
-        <v>0.08617472307857331</v>
+        <v>0.7095625596926839</v>
       </c>
       <c r="L13">
-        <v>0.7095625596926839</v>
+        <v>-0.0506349014461609</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>2.198470513904755e-17</v>
+        <v>3.926509632699553e-17</v>
       </c>
       <c r="O13">
-        <v>-0.2125738933008336</v>
+        <v>-0.07155333816120758</v>
       </c>
       <c r="Q13">
-        <v>-5.129764532444429e-17</v>
+        <v>-1.570603853079821e-16</v>
       </c>
       <c r="R13">
-        <v>-0.1875333398232258</v>
+        <v>-0.02872318328931278</v>
       </c>
       <c r="S13">
-        <v>-0.05266050773362523</v>
+        <v>-0.001769315014088405</v>
       </c>
       <c r="T13">
-        <v>0.0662380697599478</v>
+        <v>0.0491481588542904</v>
       </c>
       <c r="U13">
-        <v>-0.1156739560277123</v>
+        <v>-0.08750535152529236</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1254,34 +1254,34 @@
         <v>-1.351284330897043e-15</v>
       </c>
       <c r="D14">
+        <v>-6.50592752719859e-16</v>
+      </c>
+      <c r="E14">
         <v>3.566671208812168e-16</v>
       </c>
-      <c r="E14">
-        <v>-6.50592752719859e-16</v>
-      </c>
       <c r="F14">
+        <v>1.84520271996319e-16</v>
+      </c>
+      <c r="G14">
         <v>-2.086497594274027e-16</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-4.581468440064092e-17</v>
       </c>
-      <c r="H14">
-        <v>1.84520271996319e-16</v>
-      </c>
       <c r="I14">
+        <v>6.897019909926239e-16</v>
+      </c>
+      <c r="J14">
         <v>4.056173161152782e-15</v>
       </c>
-      <c r="J14">
-        <v>6.897019909926239e-16</v>
-      </c>
       <c r="K14">
+        <v>2.198470513904755e-17</v>
+      </c>
+      <c r="L14">
         <v>-3.503331779890207e-16</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>3.926509632699553e-17</v>
-      </c>
-      <c r="M14">
-        <v>2.198470513904755e-17</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1316,34 +1316,34 @@
         <v>0.01258556062345989</v>
       </c>
       <c r="D15">
+        <v>0.0193538137074701</v>
+      </c>
+      <c r="E15">
         <v>-0.1375382841619496</v>
       </c>
-      <c r="E15">
-        <v>0.0193538137074701</v>
-      </c>
       <c r="F15">
+        <v>-0.1514037574916817</v>
+      </c>
+      <c r="G15">
         <v>0.05686715317942567</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-0.1469901637461705</v>
       </c>
-      <c r="H15">
-        <v>-0.1514037574916817</v>
-      </c>
       <c r="I15">
+        <v>-0.0121249135178753</v>
+      </c>
+      <c r="J15">
         <v>-0.2037178193153648</v>
       </c>
-      <c r="J15">
-        <v>-0.0121249135178753</v>
-      </c>
       <c r="K15">
+        <v>-0.2125738933008336</v>
+      </c>
+      <c r="L15">
         <v>0.07611071914631848</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-0.07155333816120758</v>
-      </c>
-      <c r="M15">
-        <v>-0.2125738933008336</v>
       </c>
       <c r="N15">
         <v>1.632581470038348e-17</v>
@@ -1383,34 +1383,34 @@
         <v>-1.306241519867141e-15</v>
       </c>
       <c r="D17">
+        <v>-6.50592752719859e-16</v>
+      </c>
+      <c r="E17">
         <v>4.048653804597595e-16</v>
       </c>
-      <c r="E17">
-        <v>-6.50592752719859e-16</v>
-      </c>
       <c r="F17">
+        <v>2.039434585222473e-16</v>
+      </c>
+      <c r="G17">
         <v>4.344669041241487e-16</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>3.207027908044864e-16</v>
       </c>
-      <c r="H17">
-        <v>2.039434585222473e-16</v>
-      </c>
       <c r="I17">
+        <v>7.267827431965283e-16</v>
+      </c>
+      <c r="J17">
         <v>4.069090910073651e-15</v>
       </c>
-      <c r="J17">
-        <v>7.267827431965283e-16</v>
-      </c>
       <c r="K17">
+        <v>-5.129764532444429e-17</v>
+      </c>
+      <c r="L17">
         <v>3.108590170888493e-16</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>-1.570603853079821e-16</v>
-      </c>
-      <c r="M17">
-        <v>-5.129764532444429e-17</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1445,34 +1445,34 @@
         <v>0.1072221942112523</v>
       </c>
       <c r="D18">
+        <v>-0.2134026769921701</v>
+      </c>
+      <c r="E18">
         <v>-0.1123992994262411</v>
       </c>
-      <c r="E18">
-        <v>-0.2134026769921701</v>
-      </c>
       <c r="F18">
+        <v>-0.1157636184914509</v>
+      </c>
+      <c r="G18">
         <v>-0.07056329520308711</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.08269900451839834</v>
       </c>
-      <c r="H18">
-        <v>-0.1157636184914509</v>
-      </c>
       <c r="I18">
+        <v>-0.2253718962090097</v>
+      </c>
+      <c r="J18">
         <v>-0.1838509992076941</v>
       </c>
-      <c r="J18">
-        <v>-0.2253718962090097</v>
-      </c>
       <c r="K18">
+        <v>-0.1875333398232258</v>
+      </c>
+      <c r="L18">
         <v>-0.06345688522900998</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>-0.02872318328931278</v>
-      </c>
-      <c r="M18">
-        <v>-0.1875333398232258</v>
       </c>
       <c r="N18">
         <v>-4.557986870598185e-16</v>
@@ -1507,34 +1507,34 @@
         <v>-0.09342305512333833</v>
       </c>
       <c r="D19">
+        <v>0.4211971398087573</v>
+      </c>
+      <c r="E19">
         <v>0.07052404406482074</v>
       </c>
-      <c r="E19">
-        <v>0.4211971398087573</v>
-      </c>
       <c r="F19">
+        <v>0.06543036595919888</v>
+      </c>
+      <c r="G19">
         <v>0.5368144659355543</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-0.2122788154450698</v>
       </c>
-      <c r="H19">
-        <v>0.06543036595919888</v>
-      </c>
       <c r="I19">
+        <v>0.376384401232258</v>
+      </c>
+      <c r="J19">
         <v>-0.04724653416730241</v>
       </c>
-      <c r="J19">
-        <v>0.376384401232258</v>
-      </c>
       <c r="K19">
+        <v>-0.05266050773362523</v>
+      </c>
+      <c r="L19">
         <v>0.4623819073833715</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>-0.001769315014088405</v>
-      </c>
-      <c r="M19">
-        <v>-0.05266050773362523</v>
       </c>
       <c r="N19">
         <v>2.556518521088962e-15</v>
@@ -1569,34 +1569,34 @@
         <v>0.06012285306948947</v>
       </c>
       <c r="D20">
+        <v>0.2304209406059521</v>
+      </c>
+      <c r="E20">
         <v>0.2153517673687143</v>
       </c>
-      <c r="E20">
-        <v>0.2304209406059521</v>
-      </c>
       <c r="F20">
+        <v>0.2347531325952004</v>
+      </c>
+      <c r="G20">
         <v>0.1137821212413632</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.1279721568778777</v>
       </c>
-      <c r="H20">
-        <v>0.2347531325952004</v>
-      </c>
       <c r="I20">
+        <v>0.2665656676222631</v>
+      </c>
+      <c r="J20">
         <v>0.1546249210996476</v>
       </c>
-      <c r="J20">
-        <v>0.2665656676222631</v>
-      </c>
       <c r="K20">
+        <v>0.0662380697599478</v>
+      </c>
+      <c r="L20">
         <v>0.1399306648904478</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.0491481588542904</v>
-      </c>
-      <c r="M20">
-        <v>0.0662380697599478</v>
       </c>
       <c r="N20">
         <v>-1.292064513791213e-15</v>
@@ -1631,34 +1631,34 @@
         <v>-0.1025932136429224</v>
       </c>
       <c r="D21">
+        <v>0.2146730676965272</v>
+      </c>
+      <c r="E21">
         <v>-0.1390079924904912</v>
       </c>
-      <c r="E21">
-        <v>0.2146730676965272</v>
-      </c>
       <c r="F21">
+        <v>-0.1384112729372551</v>
+      </c>
+      <c r="G21">
         <v>0.3149986221900413</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-0.3038958665051647</v>
       </c>
-      <c r="H21">
-        <v>-0.1384112729372551</v>
-      </c>
       <c r="I21">
+        <v>0.1703258938105085</v>
+      </c>
+      <c r="J21">
         <v>-0.1572569478461058</v>
       </c>
-      <c r="J21">
-        <v>0.1703258938105085</v>
-      </c>
       <c r="K21">
+        <v>-0.1156739560277123</v>
+      </c>
+      <c r="L21">
         <v>0.2210165422892613</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>-0.08750535152529236</v>
-      </c>
-      <c r="M21">
-        <v>-0.1156739560277123</v>
       </c>
       <c r="N21">
         <v>7.064990977789627e-16</v>

--- a/WorkingFolder/Tables/corrM.xlsx
+++ b/WorkingFolder/Tables/corrM.xlsx
@@ -510,34 +510,34 @@
         <v>-0.4458282196891535</v>
       </c>
       <c r="D2">
-        <v>0.06052232935307845</v>
+        <v>0.06349258695500602</v>
       </c>
       <c r="E2">
-        <v>0.04250259628683546</v>
+        <v>0.03777348563721421</v>
       </c>
       <c r="F2">
-        <v>0.03251026699987748</v>
+        <v>0.0684526912477503</v>
       </c>
       <c r="G2">
-        <v>-0.03737587636125757</v>
+        <v>-0.03158809536073708</v>
       </c>
       <c r="H2">
-        <v>0.003932712359607337</v>
+        <v>0.003923958723663769</v>
       </c>
       <c r="I2">
-        <v>0.03110426779743944</v>
+        <v>0.03903941388948123</v>
       </c>
       <c r="J2">
-        <v>0.1455275192583088</v>
+        <v>0.1721239418668228</v>
       </c>
       <c r="K2">
-        <v>0.1693593265268756</v>
+        <v>0.198667186370348</v>
       </c>
       <c r="L2">
-        <v>-0.06786464654325448</v>
+        <v>-0.05612525113176752</v>
       </c>
       <c r="M2">
-        <v>0.09694398396020938</v>
+        <v>0.1130601880950822</v>
       </c>
       <c r="N2">
         <v>-3.605317083788505e-17</v>
@@ -572,34 +572,34 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.05405000766046579</v>
+        <v>0.04608398681596151</v>
       </c>
       <c r="E3">
-        <v>0.02090081364037645</v>
+        <v>0.02189183347268834</v>
       </c>
       <c r="F3">
-        <v>0.03464555403083762</v>
+        <v>0.02012647564497602</v>
       </c>
       <c r="G3">
-        <v>0.1691006458289873</v>
+        <v>0.1693011165915949</v>
       </c>
       <c r="H3">
-        <v>0.1131570554671354</v>
+        <v>0.08724973029280536</v>
       </c>
       <c r="I3">
-        <v>-0.02353409310941642</v>
+        <v>-0.05039689115876729</v>
       </c>
       <c r="J3">
-        <v>-0.05464967430273746</v>
+        <v>-0.08104252506935648</v>
       </c>
       <c r="K3">
-        <v>-0.03672462593629056</v>
+        <v>-0.05592584816530667</v>
       </c>
       <c r="L3">
-        <v>0.1086358250565714</v>
+        <v>0.09867565890553331</v>
       </c>
       <c r="M3">
-        <v>0.1136429820580396</v>
+        <v>0.1012401029327586</v>
       </c>
       <c r="N3">
         <v>-1.351284330897043e-15</v>
@@ -628,61 +628,61 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.06052232935307845</v>
+        <v>0.06349258695500602</v>
       </c>
       <c r="C4">
-        <v>0.05405000766046579</v>
+        <v>0.04608398681596151</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.5636986541578768</v>
+        <v>0.5261472653192818</v>
       </c>
       <c r="F4">
-        <v>0.5878752036870768</v>
+        <v>0.5543526031480206</v>
       </c>
       <c r="G4">
-        <v>0.5352774719538452</v>
+        <v>0.5482195976645435</v>
       </c>
       <c r="H4">
-        <v>0.2934969556344409</v>
+        <v>0.3021693211650757</v>
       </c>
       <c r="I4">
-        <v>0.8734598310264916</v>
+        <v>0.8662642689568739</v>
       </c>
       <c r="J4">
-        <v>0.5062998829755584</v>
+        <v>0.5044893085154387</v>
       </c>
       <c r="K4">
-        <v>0.423299355223121</v>
+        <v>0.4317035091799344</v>
       </c>
       <c r="L4">
-        <v>0.5076980556173233</v>
+        <v>0.5059907001350852</v>
       </c>
       <c r="M4">
-        <v>0.3233201649915313</v>
+        <v>0.3384409619207953</v>
       </c>
       <c r="N4">
-        <v>-6.50592752719859e-16</v>
+        <v>7.426571720754092e-16</v>
       </c>
       <c r="O4">
-        <v>0.0193538137074701</v>
+        <v>0.02970424846317648</v>
       </c>
       <c r="Q4">
-        <v>-6.50592752719859e-16</v>
+        <v>4.835907167002664e-16</v>
       </c>
       <c r="R4">
-        <v>-0.2134026769921701</v>
+        <v>-0.1987608672475611</v>
       </c>
       <c r="S4">
-        <v>0.4211971398087573</v>
+        <v>0.4302309024326345</v>
       </c>
       <c r="T4">
-        <v>0.2304209406059521</v>
+        <v>0.2205306032889259</v>
       </c>
       <c r="U4">
-        <v>0.2146730676965272</v>
+        <v>0.2244033592937769</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -690,61 +690,61 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.04250259628683546</v>
+        <v>0.03777348563721421</v>
       </c>
       <c r="C5">
-        <v>0.02090081364037645</v>
+        <v>0.02189183347268834</v>
       </c>
       <c r="D5">
-        <v>0.5636986541578768</v>
+        <v>0.5261472653192818</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.9869596445666107</v>
+        <v>0.9818426010967805</v>
       </c>
       <c r="G5">
-        <v>0.1553023117281974</v>
+        <v>0.1320648805310834</v>
       </c>
       <c r="H5">
-        <v>0.6735708521826163</v>
+        <v>0.6773768707777231</v>
       </c>
       <c r="I5">
-        <v>0.6657197040299973</v>
+        <v>0.6355324873451915</v>
       </c>
       <c r="J5">
-        <v>0.7703047989162173</v>
+        <v>0.7614718058408736</v>
       </c>
       <c r="K5">
-        <v>0.6081882455058323</v>
+        <v>0.6007500003764545</v>
       </c>
       <c r="L5">
-        <v>0.2524737509893859</v>
+        <v>0.2210786576314376</v>
       </c>
       <c r="M5">
-        <v>0.4706509334439072</v>
+        <v>0.4575882349190203</v>
       </c>
       <c r="N5">
-        <v>3.566671208812168e-16</v>
+        <v>-1.079523078758616e-15</v>
       </c>
       <c r="O5">
-        <v>-0.1375382841619496</v>
+        <v>-0.1382206747322256</v>
       </c>
       <c r="Q5">
-        <v>4.048653804597595e-16</v>
+        <v>-8.09642309068962e-16</v>
       </c>
       <c r="R5">
-        <v>-0.1123992994262411</v>
+        <v>-0.1237577023748392</v>
       </c>
       <c r="S5">
-        <v>0.07052404406482074</v>
+        <v>0.03078035019887206</v>
       </c>
       <c r="T5">
-        <v>0.2153517673687143</v>
+        <v>0.2052795968132872</v>
       </c>
       <c r="U5">
-        <v>-0.1390079924904912</v>
+        <v>-0.1686253156223198</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -752,61 +752,61 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03251026699987748</v>
+        <v>0.0684526912477503</v>
       </c>
       <c r="C6">
-        <v>0.03464555403083762</v>
+        <v>0.02012647564497602</v>
       </c>
       <c r="D6">
-        <v>0.5878752036870768</v>
+        <v>0.5543526031480206</v>
       </c>
       <c r="E6">
-        <v>0.9869596445666107</v>
+        <v>0.9818426010967805</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1665739116006598</v>
+        <v>0.1495776880695702</v>
       </c>
       <c r="H6">
-        <v>0.6790844005770853</v>
+        <v>0.695923559201002</v>
       </c>
       <c r="I6">
-        <v>0.6802336907754714</v>
+        <v>0.6536066037859465</v>
       </c>
       <c r="J6">
-        <v>0.7720280899487464</v>
+        <v>0.7760011132205292</v>
       </c>
       <c r="K6">
-        <v>0.6074752417321293</v>
+        <v>0.6158020315361707</v>
       </c>
       <c r="L6">
-        <v>0.2746299001602014</v>
+        <v>0.2450391849937274</v>
       </c>
       <c r="M6">
-        <v>0.4493724078540286</v>
+        <v>0.4535785045770876</v>
       </c>
       <c r="N6">
-        <v>1.84520271996319e-16</v>
+        <v>1.862429420962686e-16</v>
       </c>
       <c r="O6">
-        <v>-0.1514037574916817</v>
+        <v>-0.1468461572647997</v>
       </c>
       <c r="Q6">
-        <v>2.039434585222473e-16</v>
+        <v>2.058474623169284e-16</v>
       </c>
       <c r="R6">
-        <v>-0.1157636184914509</v>
+        <v>-0.1241251167351905</v>
       </c>
       <c r="S6">
-        <v>0.06543036595919888</v>
+        <v>0.03942617309147878</v>
       </c>
       <c r="T6">
-        <v>0.2347531325952004</v>
+        <v>0.2077386794830388</v>
       </c>
       <c r="U6">
-        <v>-0.1384112729372551</v>
+        <v>-0.1534767529571634</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -814,61 +814,61 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.03737587636125757</v>
+        <v>-0.03158809536073708</v>
       </c>
       <c r="C7">
-        <v>0.1691006458289873</v>
+        <v>0.1693011165915949</v>
       </c>
       <c r="D7">
-        <v>0.5352774719538452</v>
+        <v>0.5482195976645435</v>
       </c>
       <c r="E7">
-        <v>0.1553023117281974</v>
+        <v>0.1320648805310834</v>
       </c>
       <c r="F7">
-        <v>0.1665739116006598</v>
+        <v>0.1495776880695702</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>-0.06193794630210222</v>
+        <v>-0.0462145601951886</v>
       </c>
       <c r="I7">
-        <v>0.4975385861924605</v>
+        <v>0.4973878604985454</v>
       </c>
       <c r="J7">
-        <v>0.05360390469665118</v>
+        <v>0.05989144877916316</v>
       </c>
       <c r="K7">
-        <v>0.04182405402050556</v>
+        <v>0.06057495152870172</v>
       </c>
       <c r="L7">
-        <v>0.9245440272241831</v>
+        <v>0.925931183991245</v>
       </c>
       <c r="M7">
-        <v>-0.01608048406506278</v>
+        <v>0.01447525533394661</v>
       </c>
       <c r="N7">
-        <v>-2.086497594274027e-16</v>
+        <v>5.989274933711637e-16</v>
       </c>
       <c r="O7">
-        <v>0.05686715317942567</v>
+        <v>0.07084167482301552</v>
       </c>
       <c r="Q7">
-        <v>4.344669041241487e-16</v>
+        <v>6.316813406648991e-17</v>
       </c>
       <c r="R7">
-        <v>-0.07056329520308711</v>
+        <v>-0.07088220208111751</v>
       </c>
       <c r="S7">
-        <v>0.5368144659355543</v>
+        <v>0.5452259023589349</v>
       </c>
       <c r="T7">
-        <v>0.1137821212413632</v>
+        <v>0.1261931015454739</v>
       </c>
       <c r="U7">
-        <v>0.3149986221900413</v>
+        <v>0.3200150253660413</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -876,61 +876,61 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.003932712359607337</v>
+        <v>0.003923958723663769</v>
       </c>
       <c r="C8">
-        <v>0.1131570554671354</v>
+        <v>0.08724973029280536</v>
       </c>
       <c r="D8">
-        <v>0.2934969556344409</v>
+        <v>0.3021693211650757</v>
       </c>
       <c r="E8">
-        <v>0.6735708521826163</v>
+        <v>0.6773768707777231</v>
       </c>
       <c r="F8">
-        <v>0.6790844005770853</v>
+        <v>0.695923559201002</v>
       </c>
       <c r="G8">
-        <v>-0.06193794630210222</v>
+        <v>-0.0462145601951886</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.4261778898454034</v>
+        <v>0.4417259637869415</v>
       </c>
       <c r="J8">
-        <v>0.6778749392792621</v>
+        <v>0.6783259659647563</v>
       </c>
       <c r="K8">
-        <v>0.5393925801821926</v>
+        <v>0.5371519601751835</v>
       </c>
       <c r="L8">
-        <v>0.01219745069401997</v>
+        <v>0.01902999694893956</v>
       </c>
       <c r="M8">
-        <v>0.6530634112319517</v>
+        <v>0.6644594252512607</v>
       </c>
       <c r="N8">
-        <v>-4.581468440064092e-17</v>
+        <v>-6.393530636555416e-16</v>
       </c>
       <c r="O8">
-        <v>-0.1469901637461705</v>
+        <v>-0.1561372401110707</v>
       </c>
       <c r="Q8">
-        <v>3.207027908044864e-16</v>
+        <v>-8.47776529340608e-16</v>
       </c>
       <c r="R8">
-        <v>0.08269900451839834</v>
+        <v>0.07406909651085969</v>
       </c>
       <c r="S8">
-        <v>-0.2122788154450698</v>
+        <v>-0.1945245536176145</v>
       </c>
       <c r="T8">
-        <v>0.1279721568778777</v>
+        <v>0.0955755836976475</v>
       </c>
       <c r="U8">
-        <v>-0.3038958665051647</v>
+        <v>-0.2878741473018495</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -938,61 +938,61 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.03110426779743944</v>
+        <v>0.03903941388948123</v>
       </c>
       <c r="C9">
-        <v>-0.02353409310941642</v>
+        <v>-0.05039689115876729</v>
       </c>
       <c r="D9">
-        <v>0.8734598310264916</v>
+        <v>0.8662642689568739</v>
       </c>
       <c r="E9">
-        <v>0.6657197040299973</v>
+        <v>0.6355324873451915</v>
       </c>
       <c r="F9">
-        <v>0.6802336907754714</v>
+        <v>0.6536066037859465</v>
       </c>
       <c r="G9">
-        <v>0.4975385861924605</v>
+        <v>0.4973878604985454</v>
       </c>
       <c r="H9">
-        <v>0.4261778898454034</v>
+        <v>0.4417259637869415</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.6373355037709021</v>
+        <v>0.6480552706311556</v>
       </c>
       <c r="K9">
-        <v>0.5042955498907329</v>
+        <v>0.5231913527924974</v>
       </c>
       <c r="L9">
-        <v>0.5587315479149167</v>
+        <v>0.5388699913355584</v>
       </c>
       <c r="M9">
-        <v>0.3727721876074929</v>
+        <v>0.4011784428657405</v>
       </c>
       <c r="N9">
-        <v>6.897019909926239e-16</v>
+        <v>-3.701870849802112e-17</v>
       </c>
       <c r="O9">
-        <v>-0.0121249135178753</v>
+        <v>-0.01339290751790123</v>
       </c>
       <c r="Q9">
-        <v>7.267827431965283e-16</v>
+        <v>-5.182619189722956e-17</v>
       </c>
       <c r="R9">
-        <v>-0.2253718962090097</v>
+        <v>-0.2114340313067629</v>
       </c>
       <c r="S9">
-        <v>0.376384401232258</v>
+        <v>0.3863165654041744</v>
       </c>
       <c r="T9">
-        <v>0.2665656676222631</v>
+        <v>0.2625638264202566</v>
       </c>
       <c r="U9">
-        <v>0.1703258938105085</v>
+        <v>0.1777731337632806</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1000,61 +1000,61 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1455275192583088</v>
+        <v>0.1721239418668228</v>
       </c>
       <c r="C10">
-        <v>-0.05464967430273746</v>
+        <v>-0.08104252506935648</v>
       </c>
       <c r="D10">
-        <v>0.5062998829755584</v>
+        <v>0.5044893085154387</v>
       </c>
       <c r="E10">
-        <v>0.7703047989162173</v>
+        <v>0.7614718058408736</v>
       </c>
       <c r="F10">
-        <v>0.7720280899487464</v>
+        <v>0.7760011132205292</v>
       </c>
       <c r="G10">
-        <v>0.05360390469665118</v>
+        <v>0.05989144877916316</v>
       </c>
       <c r="H10">
-        <v>0.6778749392792621</v>
+        <v>0.6783259659647563</v>
       </c>
       <c r="I10">
-        <v>0.6373355037709021</v>
+        <v>0.6480552706311556</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.9453236016231191</v>
+        <v>0.9443823590156931</v>
       </c>
       <c r="L10">
-        <v>0.1313961368501537</v>
+        <v>0.129153649630667</v>
       </c>
       <c r="M10">
-        <v>0.6854381694108397</v>
+        <v>0.6756281915557604</v>
       </c>
       <c r="N10">
-        <v>4.056173161152782e-15</v>
+        <v>-1.701668213155127e-15</v>
       </c>
       <c r="O10">
-        <v>-0.2037178193153648</v>
+        <v>-0.1758183260735698</v>
       </c>
       <c r="Q10">
-        <v>4.069090910073651e-15</v>
+        <v>-1.727647880531541e-15</v>
       </c>
       <c r="R10">
-        <v>-0.1838509992076941</v>
+        <v>-0.1858152972750236</v>
       </c>
       <c r="S10">
-        <v>-0.04724653416730241</v>
+        <v>-0.03366534267093271</v>
       </c>
       <c r="T10">
-        <v>0.1546249210996476</v>
+        <v>0.1420392012739939</v>
       </c>
       <c r="U10">
-        <v>-0.1572569478461058</v>
+        <v>-0.1375284691121885</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1062,61 +1062,61 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1693593265268756</v>
+        <v>0.198667186370348</v>
       </c>
       <c r="C11">
-        <v>-0.03672462593629056</v>
+        <v>-0.05592584816530667</v>
       </c>
       <c r="D11">
-        <v>0.423299355223121</v>
+        <v>0.4317035091799344</v>
       </c>
       <c r="E11">
-        <v>0.6081882455058323</v>
+        <v>0.6007500003764545</v>
       </c>
       <c r="F11">
-        <v>0.6074752417321293</v>
+        <v>0.6158020315361707</v>
       </c>
       <c r="G11">
-        <v>0.04182405402050556</v>
+        <v>0.06057495152870172</v>
       </c>
       <c r="H11">
-        <v>0.5393925801821926</v>
+        <v>0.5371519601751835</v>
       </c>
       <c r="I11">
-        <v>0.5042955498907329</v>
+        <v>0.5231913527924974</v>
       </c>
       <c r="J11">
-        <v>0.9453236016231191</v>
+        <v>0.9443823590156931</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.08617472307857331</v>
+        <v>0.1016463147940526</v>
       </c>
       <c r="M11">
-        <v>0.7095625596926839</v>
+        <v>0.6966916537443587</v>
       </c>
       <c r="N11">
-        <v>2.198470513904755e-17</v>
+        <v>-1.081275398247217e-15</v>
       </c>
       <c r="O11">
-        <v>-0.2125738933008336</v>
+        <v>-0.167532634084244</v>
       </c>
       <c r="Q11">
-        <v>-5.129764532444429e-17</v>
+        <v>-1.081275398247217e-15</v>
       </c>
       <c r="R11">
-        <v>-0.1875333398232258</v>
+        <v>-0.1920470706759466</v>
       </c>
       <c r="S11">
-        <v>-0.05266050773362523</v>
+        <v>-0.02977837223206488</v>
       </c>
       <c r="T11">
-        <v>0.0662380697599478</v>
+        <v>0.06501534058395837</v>
       </c>
       <c r="U11">
-        <v>-0.1156739560277123</v>
+        <v>-0.09117699200325628</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1124,61 +1124,61 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.06786464654325448</v>
+        <v>-0.05612525113176752</v>
       </c>
       <c r="C12">
-        <v>0.1086358250565714</v>
+        <v>0.09867565890553331</v>
       </c>
       <c r="D12">
-        <v>0.5076980556173233</v>
+        <v>0.5059907001350852</v>
       </c>
       <c r="E12">
-        <v>0.2524737509893859</v>
+        <v>0.2210786576314376</v>
       </c>
       <c r="F12">
-        <v>0.2746299001602014</v>
+        <v>0.2450391849937274</v>
       </c>
       <c r="G12">
-        <v>0.9245440272241831</v>
+        <v>0.925931183991245</v>
       </c>
       <c r="H12">
-        <v>0.01219745069401997</v>
+        <v>0.01902999694893956</v>
       </c>
       <c r="I12">
-        <v>0.5587315479149167</v>
+        <v>0.5388699913355584</v>
       </c>
       <c r="J12">
-        <v>0.1313961368501537</v>
+        <v>0.129153649630667</v>
       </c>
       <c r="K12">
-        <v>0.08617472307857331</v>
+        <v>0.1016463147940526</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>-0.0506349014461609</v>
+        <v>-0.02959875824881635</v>
       </c>
       <c r="N12">
-        <v>-3.503331779890207e-16</v>
+        <v>2.278159390997511e-16</v>
       </c>
       <c r="O12">
-        <v>0.07611071914631848</v>
+        <v>0.08304810588742481</v>
       </c>
       <c r="Q12">
-        <v>3.108590170888493e-16</v>
+        <v>3.027143300366556e-16</v>
       </c>
       <c r="R12">
-        <v>-0.06345688522900998</v>
+        <v>-0.05417198617910895</v>
       </c>
       <c r="S12">
-        <v>0.4623819073833715</v>
+        <v>0.4639179598906222</v>
       </c>
       <c r="T12">
-        <v>0.1399306648904478</v>
+        <v>0.1508271710080992</v>
       </c>
       <c r="U12">
-        <v>0.2210165422892613</v>
+        <v>0.2192401947192325</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1186,61 +1186,61 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.09694398396020938</v>
+        <v>0.1130601880950822</v>
       </c>
       <c r="C13">
-        <v>0.1136429820580396</v>
+        <v>0.1012401029327586</v>
       </c>
       <c r="D13">
-        <v>0.3233201649915313</v>
+        <v>0.3384409619207953</v>
       </c>
       <c r="E13">
-        <v>0.4706509334439072</v>
+        <v>0.4575882349190203</v>
       </c>
       <c r="F13">
-        <v>0.4493724078540286</v>
+        <v>0.4535785045770876</v>
       </c>
       <c r="G13">
-        <v>-0.01608048406506278</v>
+        <v>0.01447525533394661</v>
       </c>
       <c r="H13">
-        <v>0.6530634112319517</v>
+        <v>0.6644594252512607</v>
       </c>
       <c r="I13">
-        <v>0.3727721876074929</v>
+        <v>0.4011784428657405</v>
       </c>
       <c r="J13">
-        <v>0.6854381694108397</v>
+        <v>0.6756281915557604</v>
       </c>
       <c r="K13">
-        <v>0.7095625596926839</v>
+        <v>0.6966916537443587</v>
       </c>
       <c r="L13">
-        <v>-0.0506349014461609</v>
+        <v>-0.02959875824881635</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>3.926509632699553e-17</v>
+        <v>6.223814001381406e-16</v>
       </c>
       <c r="O13">
-        <v>-0.07155333816120758</v>
+        <v>-0.04109472597421545</v>
       </c>
       <c r="Q13">
-        <v>-1.570603853079821e-16</v>
+        <v>6.223814001381406e-16</v>
       </c>
       <c r="R13">
-        <v>-0.02872318328931278</v>
+        <v>-0.03380373102892087</v>
       </c>
       <c r="S13">
-        <v>-0.001769315014088405</v>
+        <v>0.02337922207127505</v>
       </c>
       <c r="T13">
-        <v>0.0491481588542904</v>
+        <v>0.04573169243727224</v>
       </c>
       <c r="U13">
-        <v>-0.08750535152529236</v>
+        <v>-0.06029795865453617</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1254,34 +1254,34 @@
         <v>-1.351284330897043e-15</v>
       </c>
       <c r="D14">
-        <v>-6.50592752719859e-16</v>
+        <v>7.426571720754092e-16</v>
       </c>
       <c r="E14">
-        <v>3.566671208812168e-16</v>
+        <v>-1.079523078758616e-15</v>
       </c>
       <c r="F14">
-        <v>1.84520271996319e-16</v>
+        <v>1.862429420962686e-16</v>
       </c>
       <c r="G14">
-        <v>-2.086497594274027e-16</v>
+        <v>5.989274933711637e-16</v>
       </c>
       <c r="H14">
-        <v>-4.581468440064092e-17</v>
+        <v>-6.393530636555416e-16</v>
       </c>
       <c r="I14">
-        <v>6.897019909926239e-16</v>
+        <v>-3.701870849802112e-17</v>
       </c>
       <c r="J14">
-        <v>4.056173161152782e-15</v>
+        <v>-1.701668213155127e-15</v>
       </c>
       <c r="K14">
-        <v>2.198470513904755e-17</v>
+        <v>-1.081275398247217e-15</v>
       </c>
       <c r="L14">
-        <v>-3.503331779890207e-16</v>
+        <v>2.278159390997511e-16</v>
       </c>
       <c r="M14">
-        <v>3.926509632699553e-17</v>
+        <v>6.223814001381406e-16</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1316,34 +1316,34 @@
         <v>0.01258556062345989</v>
       </c>
       <c r="D15">
-        <v>0.0193538137074701</v>
+        <v>0.02970424846317648</v>
       </c>
       <c r="E15">
-        <v>-0.1375382841619496</v>
+        <v>-0.1382206747322256</v>
       </c>
       <c r="F15">
-        <v>-0.1514037574916817</v>
+        <v>-0.1468461572647997</v>
       </c>
       <c r="G15">
-        <v>0.05686715317942567</v>
+        <v>0.07084167482301552</v>
       </c>
       <c r="H15">
-        <v>-0.1469901637461705</v>
+        <v>-0.1561372401110707</v>
       </c>
       <c r="I15">
-        <v>-0.0121249135178753</v>
+        <v>-0.01339290751790123</v>
       </c>
       <c r="J15">
-        <v>-0.2037178193153648</v>
+        <v>-0.1758183260735698</v>
       </c>
       <c r="K15">
-        <v>-0.2125738933008336</v>
+        <v>-0.167532634084244</v>
       </c>
       <c r="L15">
-        <v>0.07611071914631848</v>
+        <v>0.08304810588742481</v>
       </c>
       <c r="M15">
-        <v>-0.07155333816120758</v>
+        <v>-0.04109472597421545</v>
       </c>
       <c r="N15">
         <v>1.632581470038348e-17</v>
@@ -1383,34 +1383,34 @@
         <v>-1.306241519867141e-15</v>
       </c>
       <c r="D17">
-        <v>-6.50592752719859e-16</v>
+        <v>4.835907167002664e-16</v>
       </c>
       <c r="E17">
-        <v>4.048653804597595e-16</v>
+        <v>-8.09642309068962e-16</v>
       </c>
       <c r="F17">
-        <v>2.039434585222473e-16</v>
+        <v>2.058474623169284e-16</v>
       </c>
       <c r="G17">
-        <v>4.344669041241487e-16</v>
+        <v>6.316813406648991e-17</v>
       </c>
       <c r="H17">
-        <v>3.207027908044864e-16</v>
+        <v>-8.47776529340608e-16</v>
       </c>
       <c r="I17">
-        <v>7.267827431965283e-16</v>
+        <v>-5.182619189722956e-17</v>
       </c>
       <c r="J17">
-        <v>4.069090910073651e-15</v>
+        <v>-1.727647880531541e-15</v>
       </c>
       <c r="K17">
-        <v>-5.129764532444429e-17</v>
+        <v>-1.081275398247217e-15</v>
       </c>
       <c r="L17">
-        <v>3.108590170888493e-16</v>
+        <v>3.027143300366556e-16</v>
       </c>
       <c r="M17">
-        <v>-1.570603853079821e-16</v>
+        <v>6.223814001381406e-16</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1445,34 +1445,34 @@
         <v>0.1072221942112523</v>
       </c>
       <c r="D18">
-        <v>-0.2134026769921701</v>
+        <v>-0.1987608672475611</v>
       </c>
       <c r="E18">
-        <v>-0.1123992994262411</v>
+        <v>-0.1237577023748392</v>
       </c>
       <c r="F18">
-        <v>-0.1157636184914509</v>
+        <v>-0.1241251167351905</v>
       </c>
       <c r="G18">
-        <v>-0.07056329520308711</v>
+        <v>-0.07088220208111751</v>
       </c>
       <c r="H18">
-        <v>0.08269900451839834</v>
+        <v>0.07406909651085969</v>
       </c>
       <c r="I18">
-        <v>-0.2253718962090097</v>
+        <v>-0.2114340313067629</v>
       </c>
       <c r="J18">
-        <v>-0.1838509992076941</v>
+        <v>-0.1858152972750236</v>
       </c>
       <c r="K18">
-        <v>-0.1875333398232258</v>
+        <v>-0.1920470706759466</v>
       </c>
       <c r="L18">
-        <v>-0.06345688522900998</v>
+        <v>-0.05417198617910895</v>
       </c>
       <c r="M18">
-        <v>-0.02872318328931278</v>
+        <v>-0.03380373102892087</v>
       </c>
       <c r="N18">
         <v>-4.557986870598185e-16</v>
@@ -1507,34 +1507,34 @@
         <v>-0.09342305512333833</v>
       </c>
       <c r="D19">
-        <v>0.4211971398087573</v>
+        <v>0.4302309024326345</v>
       </c>
       <c r="E19">
-        <v>0.07052404406482074</v>
+        <v>0.03078035019887206</v>
       </c>
       <c r="F19">
-        <v>0.06543036595919888</v>
+        <v>0.03942617309147878</v>
       </c>
       <c r="G19">
-        <v>0.5368144659355543</v>
+        <v>0.5452259023589349</v>
       </c>
       <c r="H19">
-        <v>-0.2122788154450698</v>
+        <v>-0.1945245536176145</v>
       </c>
       <c r="I19">
-        <v>0.376384401232258</v>
+        <v>0.3863165654041744</v>
       </c>
       <c r="J19">
-        <v>-0.04724653416730241</v>
+        <v>-0.03366534267093271</v>
       </c>
       <c r="K19">
-        <v>-0.05266050773362523</v>
+        <v>-0.02977837223206488</v>
       </c>
       <c r="L19">
-        <v>0.4623819073833715</v>
+        <v>0.4639179598906222</v>
       </c>
       <c r="M19">
-        <v>-0.001769315014088405</v>
+        <v>0.02337922207127505</v>
       </c>
       <c r="N19">
         <v>2.556518521088962e-15</v>
@@ -1569,34 +1569,34 @@
         <v>0.06012285306948947</v>
       </c>
       <c r="D20">
-        <v>0.2304209406059521</v>
+        <v>0.2205306032889259</v>
       </c>
       <c r="E20">
-        <v>0.2153517673687143</v>
+        <v>0.2052795968132872</v>
       </c>
       <c r="F20">
-        <v>0.2347531325952004</v>
+        <v>0.2077386794830388</v>
       </c>
       <c r="G20">
-        <v>0.1137821212413632</v>
+        <v>0.1261931015454739</v>
       </c>
       <c r="H20">
-        <v>0.1279721568778777</v>
+        <v>0.0955755836976475</v>
       </c>
       <c r="I20">
-        <v>0.2665656676222631</v>
+        <v>0.2625638264202566</v>
       </c>
       <c r="J20">
-        <v>0.1546249210996476</v>
+        <v>0.1420392012739939</v>
       </c>
       <c r="K20">
-        <v>0.0662380697599478</v>
+        <v>0.06501534058395837</v>
       </c>
       <c r="L20">
-        <v>0.1399306648904478</v>
+        <v>0.1508271710080992</v>
       </c>
       <c r="M20">
-        <v>0.0491481588542904</v>
+        <v>0.04573169243727224</v>
       </c>
       <c r="N20">
         <v>-1.292064513791213e-15</v>
@@ -1631,34 +1631,34 @@
         <v>-0.1025932136429224</v>
       </c>
       <c r="D21">
-        <v>0.2146730676965272</v>
+        <v>0.2244033592937769</v>
       </c>
       <c r="E21">
-        <v>-0.1390079924904912</v>
+        <v>-0.1686253156223198</v>
       </c>
       <c r="F21">
-        <v>-0.1384112729372551</v>
+        <v>-0.1534767529571634</v>
       </c>
       <c r="G21">
-        <v>0.3149986221900413</v>
+        <v>0.3200150253660413</v>
       </c>
       <c r="H21">
-        <v>-0.3038958665051647</v>
+        <v>-0.2878741473018495</v>
       </c>
       <c r="I21">
-        <v>0.1703258938105085</v>
+        <v>0.1777731337632806</v>
       </c>
       <c r="J21">
-        <v>-0.1572569478461058</v>
+        <v>-0.1375284691121885</v>
       </c>
       <c r="K21">
-        <v>-0.1156739560277123</v>
+        <v>-0.09117699200325628</v>
       </c>
       <c r="L21">
-        <v>0.2210165422892613</v>
+        <v>0.2192401947192325</v>
       </c>
       <c r="M21">
-        <v>-0.08750535152529236</v>
+        <v>-0.06029795865453617</v>
       </c>
       <c r="N21">
         <v>7.064990977789627e-16</v>

--- a/WorkingFolder/Tables/corrM.xlsx
+++ b/WorkingFolder/Tables/corrM.xlsx
@@ -507,58 +507,58 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.4458282196891535</v>
+        <v>-0.4739381494412931</v>
       </c>
       <c r="D2">
-        <v>0.06349258695500602</v>
+        <v>0.1308455975352934</v>
       </c>
       <c r="E2">
-        <v>0.03777348563721421</v>
+        <v>0.04848625439687088</v>
       </c>
       <c r="F2">
-        <v>0.0684526912477503</v>
+        <v>0.05964766778524085</v>
       </c>
       <c r="G2">
-        <v>-0.03158809536073708</v>
+        <v>0.02881000036275808</v>
       </c>
       <c r="H2">
-        <v>0.003923958723663769</v>
+        <v>-0.04454275974116035</v>
       </c>
       <c r="I2">
-        <v>0.03903941388948123</v>
+        <v>0.04225554129821177</v>
       </c>
       <c r="J2">
-        <v>0.1721239418668228</v>
+        <v>0.194583076772969</v>
       </c>
       <c r="K2">
-        <v>0.198667186370348</v>
+        <v>0.2218239652283995</v>
       </c>
       <c r="L2">
-        <v>-0.05612525113176752</v>
+        <v>-0.01100731070835902</v>
       </c>
       <c r="M2">
-        <v>0.1130601880950822</v>
+        <v>0.06929140341923701</v>
       </c>
       <c r="N2">
-        <v>-3.605317083788505e-17</v>
+        <v>3.053340904906959e-18</v>
       </c>
       <c r="O2">
-        <v>0.0130826914658021</v>
+        <v>-0.1304784091467252</v>
       </c>
       <c r="Q2">
-        <v>5.171561390680233e-18</v>
+        <v>-0.130934335088303</v>
       </c>
       <c r="R2">
-        <v>-0.0008024736171283922</v>
+        <v>-0.1114537605083881</v>
       </c>
       <c r="S2">
-        <v>-0.1270849872887459</v>
+        <v>-0.1128547079279827</v>
       </c>
       <c r="T2">
-        <v>-0.02213409327633181</v>
+        <v>-0.03829340725345455</v>
       </c>
       <c r="U2">
-        <v>-0.1183270549046993</v>
+        <v>-0.05464220475556097</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -566,61 +566,61 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.4458282196891535</v>
+        <v>-0.4739381494412931</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.04608398681596151</v>
+        <v>-0.0004237441647878328</v>
       </c>
       <c r="E3">
-        <v>0.02189183347268834</v>
+        <v>-0.04098222187132004</v>
       </c>
       <c r="F3">
-        <v>0.02012647564497602</v>
+        <v>-0.0442957566662422</v>
       </c>
       <c r="G3">
-        <v>0.1693011165915949</v>
+        <v>0.1488104891240748</v>
       </c>
       <c r="H3">
-        <v>0.08724973029280536</v>
+        <v>0.01980423235693674</v>
       </c>
       <c r="I3">
-        <v>-0.05039689115876729</v>
+        <v>-0.07336442042608458</v>
       </c>
       <c r="J3">
-        <v>-0.08104252506935648</v>
+        <v>-0.1288263386004899</v>
       </c>
       <c r="K3">
-        <v>-0.05592584816530667</v>
+        <v>-0.1026426529172897</v>
       </c>
       <c r="L3">
-        <v>0.09867565890553331</v>
+        <v>0.08880853072662605</v>
       </c>
       <c r="M3">
-        <v>0.1012401029327586</v>
+        <v>0.06768282369931473</v>
       </c>
       <c r="N3">
-        <v>-1.351284330897043e-15</v>
+        <v>-1.988172177218218e-15</v>
       </c>
       <c r="O3">
-        <v>0.01258556062345989</v>
+        <v>0.1617437232269958</v>
       </c>
       <c r="Q3">
-        <v>-1.306241519867141e-15</v>
+        <v>-0.02255453282749834</v>
       </c>
       <c r="R3">
-        <v>0.1072221942112523</v>
+        <v>0.08224266398407445</v>
       </c>
       <c r="S3">
-        <v>-0.09342305512333833</v>
+        <v>-0.03942541929240963</v>
       </c>
       <c r="T3">
-        <v>0.06012285306948947</v>
+        <v>0.1010479737323868</v>
       </c>
       <c r="U3">
-        <v>-0.1025932136429224</v>
+        <v>-0.07866408292170977</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -628,61 +628,61 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.06349258695500602</v>
+        <v>0.1308455975352934</v>
       </c>
       <c r="C4">
-        <v>0.04608398681596151</v>
+        <v>-0.0004237441647878328</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.5261472653192818</v>
+        <v>0.3829265265241944</v>
       </c>
       <c r="F4">
-        <v>0.5543526031480206</v>
+        <v>0.3964775615853453</v>
       </c>
       <c r="G4">
-        <v>0.5482195976645435</v>
+        <v>0.5426005372166527</v>
       </c>
       <c r="H4">
-        <v>0.3021693211650757</v>
+        <v>0.03883654919269791</v>
       </c>
       <c r="I4">
-        <v>0.8662642689568739</v>
+        <v>0.8436299198409695</v>
       </c>
       <c r="J4">
-        <v>0.5044893085154387</v>
+        <v>0.2822557365755728</v>
       </c>
       <c r="K4">
-        <v>0.4317035091799344</v>
+        <v>0.2566164959803811</v>
       </c>
       <c r="L4">
-        <v>0.5059907001350852</v>
+        <v>0.4920052062256395</v>
       </c>
       <c r="M4">
-        <v>0.3384409619207953</v>
+        <v>0.1461873020119334</v>
       </c>
       <c r="N4">
-        <v>7.426571720754092e-16</v>
+        <v>1.031682175668555e-15</v>
       </c>
       <c r="O4">
-        <v>0.02970424846317648</v>
+        <v>0.1242211930845684</v>
       </c>
       <c r="Q4">
-        <v>4.835907167002664e-16</v>
+        <v>-0.1963470380592244</v>
       </c>
       <c r="R4">
-        <v>-0.1987608672475611</v>
+        <v>-0.2371432955736366</v>
       </c>
       <c r="S4">
-        <v>0.4302309024326345</v>
+        <v>0.4958650338690376</v>
       </c>
       <c r="T4">
-        <v>0.2205306032889259</v>
+        <v>0.2960390312498241</v>
       </c>
       <c r="U4">
-        <v>0.2244033592937769</v>
+        <v>0.2842706679057667</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -690,61 +690,61 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.03777348563721421</v>
+        <v>0.04848625439687088</v>
       </c>
       <c r="C5">
-        <v>0.02189183347268834</v>
+        <v>-0.04098222187132004</v>
       </c>
       <c r="D5">
-        <v>0.5261472653192818</v>
+        <v>0.3829265265241944</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.9818426010967805</v>
+        <v>0.9825034718821438</v>
       </c>
       <c r="G5">
-        <v>0.1320648805310834</v>
+        <v>0.1057777036028041</v>
       </c>
       <c r="H5">
-        <v>0.6773768707777231</v>
+        <v>0.6791608287278524</v>
       </c>
       <c r="I5">
-        <v>0.6355324873451915</v>
+        <v>0.5712926866280114</v>
       </c>
       <c r="J5">
-        <v>0.7614718058408736</v>
+        <v>0.7707785661254325</v>
       </c>
       <c r="K5">
-        <v>0.6007500003764545</v>
+        <v>0.6232177664713112</v>
       </c>
       <c r="L5">
-        <v>0.2210786576314376</v>
+        <v>0.1955003235201203</v>
       </c>
       <c r="M5">
-        <v>0.4575882349190203</v>
+        <v>0.4935883522494072</v>
       </c>
       <c r="N5">
-        <v>-1.079523078758616e-15</v>
+        <v>2.326522172475084e-16</v>
       </c>
       <c r="O5">
-        <v>-0.1382206747322256</v>
+        <v>-0.4508359589131484</v>
       </c>
       <c r="Q5">
-        <v>-8.09642309068962e-16</v>
+        <v>-0.4284295613719176</v>
       </c>
       <c r="R5">
-        <v>-0.1237577023748392</v>
+        <v>-0.03891069910195983</v>
       </c>
       <c r="S5">
-        <v>0.03078035019887206</v>
+        <v>-0.07148273364970664</v>
       </c>
       <c r="T5">
-        <v>0.2052795968132872</v>
+        <v>0.1170074631316691</v>
       </c>
       <c r="U5">
-        <v>-0.1686253156223198</v>
+        <v>-0.2149960866891581</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -752,61 +752,61 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0684526912477503</v>
+        <v>0.05964766778524085</v>
       </c>
       <c r="C6">
-        <v>0.02012647564497602</v>
+        <v>-0.0442957566662422</v>
       </c>
       <c r="D6">
-        <v>0.5543526031480206</v>
+        <v>0.3964775615853453</v>
       </c>
       <c r="E6">
-        <v>0.9818426010967805</v>
+        <v>0.9825034718821438</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1495776880695702</v>
+        <v>0.1128383330382438</v>
       </c>
       <c r="H6">
-        <v>0.695923559201002</v>
+        <v>0.7008420885354881</v>
       </c>
       <c r="I6">
-        <v>0.6536066037859465</v>
+        <v>0.585258661971006</v>
       </c>
       <c r="J6">
-        <v>0.7760011132205292</v>
+        <v>0.785463908377308</v>
       </c>
       <c r="K6">
-        <v>0.6158020315361707</v>
+        <v>0.6376824729647866</v>
       </c>
       <c r="L6">
-        <v>0.2450391849937274</v>
+        <v>0.209483613083133</v>
       </c>
       <c r="M6">
-        <v>0.4535785045770876</v>
+        <v>0.4992666769735666</v>
       </c>
       <c r="N6">
-        <v>1.862429420962686e-16</v>
+        <v>3.10942580582841e-16</v>
       </c>
       <c r="O6">
-        <v>-0.1468461572647997</v>
+        <v>-0.4910369326145241</v>
       </c>
       <c r="Q6">
-        <v>2.058474623169284e-16</v>
+        <v>-0.4568413141789193</v>
       </c>
       <c r="R6">
-        <v>-0.1241251167351905</v>
+        <v>-0.04076409635642334</v>
       </c>
       <c r="S6">
-        <v>0.03942617309147878</v>
+        <v>-0.07598707354569091</v>
       </c>
       <c r="T6">
-        <v>0.2077386794830388</v>
+        <v>0.1143559130931801</v>
       </c>
       <c r="U6">
-        <v>-0.1534767529571634</v>
+        <v>-0.220897691712773</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -814,61 +814,61 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.03158809536073708</v>
+        <v>0.02881000036275808</v>
       </c>
       <c r="C7">
-        <v>0.1693011165915949</v>
+        <v>0.1488104891240748</v>
       </c>
       <c r="D7">
-        <v>0.5482195976645435</v>
+        <v>0.5426005372166527</v>
       </c>
       <c r="E7">
-        <v>0.1320648805310834</v>
+        <v>0.1057777036028041</v>
       </c>
       <c r="F7">
-        <v>0.1495776880695702</v>
+        <v>0.1128383330382438</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>-0.0462145601951886</v>
+        <v>-0.1007603117545785</v>
       </c>
       <c r="I7">
-        <v>0.4973878604985454</v>
+        <v>0.4870740073028018</v>
       </c>
       <c r="J7">
-        <v>0.05989144877916316</v>
+        <v>0.03411096625778293</v>
       </c>
       <c r="K7">
-        <v>0.06057495152870172</v>
+        <v>0.04881504390191301</v>
       </c>
       <c r="L7">
-        <v>0.925931183991245</v>
+        <v>0.9161118651325024</v>
       </c>
       <c r="M7">
-        <v>0.01447525533394661</v>
+        <v>0.003818730543337991</v>
       </c>
       <c r="N7">
-        <v>5.989274933711637e-16</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.07084167482301552</v>
+        <v>0.298665855344763</v>
       </c>
       <c r="Q7">
-        <v>6.316813406648991e-17</v>
+        <v>-0.1107130866537622</v>
       </c>
       <c r="R7">
-        <v>-0.07088220208111751</v>
+        <v>-0.1163644676078252</v>
       </c>
       <c r="S7">
-        <v>0.5452259023589349</v>
+        <v>0.5160544149266305</v>
       </c>
       <c r="T7">
-        <v>0.1261931015454739</v>
+        <v>0.1366952925195993</v>
       </c>
       <c r="U7">
-        <v>0.3200150253660413</v>
+        <v>0.3172463603897102</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -876,61 +876,61 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.003923958723663769</v>
+        <v>-0.04454275974116035</v>
       </c>
       <c r="C8">
-        <v>0.08724973029280536</v>
+        <v>0.01980423235693674</v>
       </c>
       <c r="D8">
-        <v>0.3021693211650757</v>
+        <v>0.03883654919269791</v>
       </c>
       <c r="E8">
-        <v>0.6773768707777231</v>
+        <v>0.6791608287278524</v>
       </c>
       <c r="F8">
-        <v>0.695923559201002</v>
+        <v>0.7008420885354881</v>
       </c>
       <c r="G8">
-        <v>-0.0462145601951886</v>
+        <v>-0.1007603117545785</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.4417259637869415</v>
+        <v>0.2723139521913757</v>
       </c>
       <c r="J8">
-        <v>0.6783259659647563</v>
+        <v>0.7273375786050795</v>
       </c>
       <c r="K8">
-        <v>0.5371519601751835</v>
+        <v>0.5928154191268116</v>
       </c>
       <c r="L8">
-        <v>0.01902999694893956</v>
+        <v>-0.02502068732293725</v>
       </c>
       <c r="M8">
-        <v>0.6644594252512607</v>
+        <v>0.705084981252488</v>
       </c>
       <c r="N8">
-        <v>-6.393530636555416e-16</v>
+        <v>4.09547151612268e-16</v>
       </c>
       <c r="O8">
-        <v>-0.1561372401110707</v>
+        <v>-0.6435048047062633</v>
       </c>
       <c r="Q8">
-        <v>-8.47776529340608e-16</v>
+        <v>-0.4460847462369685</v>
       </c>
       <c r="R8">
-        <v>0.07406909651085969</v>
+        <v>0.1799965914803214</v>
       </c>
       <c r="S8">
-        <v>-0.1945245536176145</v>
+        <v>-0.3226274024997198</v>
       </c>
       <c r="T8">
-        <v>0.0955755836976475</v>
+        <v>-0.05814674675661118</v>
       </c>
       <c r="U8">
-        <v>-0.2878741473018495</v>
+        <v>-0.3561638768729115</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -938,61 +938,61 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.03903941388948123</v>
+        <v>0.04225554129821177</v>
       </c>
       <c r="C9">
-        <v>-0.05039689115876729</v>
+        <v>-0.07336442042608458</v>
       </c>
       <c r="D9">
-        <v>0.8662642689568739</v>
+        <v>0.8436299198409695</v>
       </c>
       <c r="E9">
-        <v>0.6355324873451915</v>
+        <v>0.5712926866280114</v>
       </c>
       <c r="F9">
-        <v>0.6536066037859465</v>
+        <v>0.585258661971006</v>
       </c>
       <c r="G9">
-        <v>0.4973878604985454</v>
+        <v>0.4870740073028018</v>
       </c>
       <c r="H9">
-        <v>0.4417259637869415</v>
+        <v>0.2723139521913757</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.6480552706311556</v>
+        <v>0.4890865230442228</v>
       </c>
       <c r="K9">
-        <v>0.5231913527924974</v>
+        <v>0.3946342072633912</v>
       </c>
       <c r="L9">
-        <v>0.5388699913355584</v>
+        <v>0.5269797520426593</v>
       </c>
       <c r="M9">
-        <v>0.4011784428657405</v>
+        <v>0.2716966318726132</v>
       </c>
       <c r="N9">
-        <v>-3.701870849802112e-17</v>
+        <v>-1.920324686418166e-15</v>
       </c>
       <c r="O9">
-        <v>-0.01339290751790123</v>
+        <v>-0.05372879348108035</v>
       </c>
       <c r="Q9">
-        <v>-5.182619189722956e-17</v>
+        <v>-0.3020664974879312</v>
       </c>
       <c r="R9">
-        <v>-0.2114340313067629</v>
+        <v>-0.1803344050355496</v>
       </c>
       <c r="S9">
-        <v>0.3863165654041744</v>
+        <v>0.3992796635215473</v>
       </c>
       <c r="T9">
-        <v>0.2625638264202566</v>
+        <v>0.2797438749057534</v>
       </c>
       <c r="U9">
-        <v>0.1777731337632806</v>
+        <v>0.1678928521828628</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1000,61 +1000,61 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1721239418668228</v>
+        <v>0.194583076772969</v>
       </c>
       <c r="C10">
-        <v>-0.08104252506935648</v>
+        <v>-0.1288263386004899</v>
       </c>
       <c r="D10">
-        <v>0.5044893085154387</v>
+        <v>0.2822557365755728</v>
       </c>
       <c r="E10">
-        <v>0.7614718058408736</v>
+        <v>0.7707785661254325</v>
       </c>
       <c r="F10">
-        <v>0.7760011132205292</v>
+        <v>0.785463908377308</v>
       </c>
       <c r="G10">
-        <v>0.05989144877916316</v>
+        <v>0.03411096625778293</v>
       </c>
       <c r="H10">
-        <v>0.6783259659647563</v>
+        <v>0.7273375786050795</v>
       </c>
       <c r="I10">
-        <v>0.6480552706311556</v>
+        <v>0.4890865230442228</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.9443823590156931</v>
+        <v>0.9465610280351479</v>
       </c>
       <c r="L10">
-        <v>0.129153649630667</v>
+        <v>0.09604779121078597</v>
       </c>
       <c r="M10">
-        <v>0.6756281915557604</v>
+        <v>0.7271621532373955</v>
       </c>
       <c r="N10">
-        <v>-1.701668213155127e-15</v>
+        <v>-2.747876956835749e-15</v>
       </c>
       <c r="O10">
-        <v>-0.1758183260735698</v>
+        <v>-0.5626583697790384</v>
       </c>
       <c r="Q10">
-        <v>-1.727647880531541e-15</v>
+        <v>-0.4098328662372379</v>
       </c>
       <c r="R10">
-        <v>-0.1858152972750236</v>
+        <v>-0.08858076825641306</v>
       </c>
       <c r="S10">
-        <v>-0.03366534267093271</v>
+        <v>-0.1542355649498775</v>
       </c>
       <c r="T10">
-        <v>0.1420392012739939</v>
+        <v>0.02295982203460837</v>
       </c>
       <c r="U10">
-        <v>-0.1375284691121885</v>
+        <v>-0.1945120370681267</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1062,61 +1062,61 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.198667186370348</v>
+        <v>0.2218239652283995</v>
       </c>
       <c r="C11">
-        <v>-0.05592584816530667</v>
+        <v>-0.1026426529172897</v>
       </c>
       <c r="D11">
-        <v>0.4317035091799344</v>
+        <v>0.2566164959803811</v>
       </c>
       <c r="E11">
-        <v>0.6007500003764545</v>
+        <v>0.6232177664713112</v>
       </c>
       <c r="F11">
-        <v>0.6158020315361707</v>
+        <v>0.6376824729647866</v>
       </c>
       <c r="G11">
-        <v>0.06057495152870172</v>
+        <v>0.04881504390191301</v>
       </c>
       <c r="H11">
-        <v>0.5371519601751835</v>
+        <v>0.5928154191268116</v>
       </c>
       <c r="I11">
-        <v>0.5231913527924974</v>
+        <v>0.3946342072633912</v>
       </c>
       <c r="J11">
-        <v>0.9443823590156931</v>
+        <v>0.9465610280351479</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.1016463147940526</v>
+        <v>0.08026755433279498</v>
       </c>
       <c r="M11">
-        <v>0.6966916537443587</v>
+        <v>0.7439654596093767</v>
       </c>
       <c r="N11">
-        <v>-1.081275398247217e-15</v>
+        <v>-1.221934462106383e-15</v>
       </c>
       <c r="O11">
-        <v>-0.167532634084244</v>
+        <v>-0.4715842849033123</v>
       </c>
       <c r="Q11">
-        <v>-1.081275398247217e-15</v>
+        <v>-0.3390301476534712</v>
       </c>
       <c r="R11">
-        <v>-0.1920470706759466</v>
+        <v>-0.09716970635385452</v>
       </c>
       <c r="S11">
-        <v>-0.02977837223206488</v>
+        <v>-0.1106038032797376</v>
       </c>
       <c r="T11">
-        <v>0.06501534058395837</v>
+        <v>0.007257789115420164</v>
       </c>
       <c r="U11">
-        <v>-0.09117699200325628</v>
+        <v>-0.12254608510636</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1124,61 +1124,61 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.05612525113176752</v>
+        <v>-0.01100731070835902</v>
       </c>
       <c r="C12">
-        <v>0.09867565890553331</v>
+        <v>0.08880853072662605</v>
       </c>
       <c r="D12">
-        <v>0.5059907001350852</v>
+        <v>0.4920052062256395</v>
       </c>
       <c r="E12">
-        <v>0.2210786576314376</v>
+        <v>0.1955003235201203</v>
       </c>
       <c r="F12">
-        <v>0.2450391849937274</v>
+        <v>0.209483613083133</v>
       </c>
       <c r="G12">
-        <v>0.925931183991245</v>
+        <v>0.9161118651325024</v>
       </c>
       <c r="H12">
-        <v>0.01902999694893956</v>
+        <v>-0.02502068732293725</v>
       </c>
       <c r="I12">
-        <v>0.5388699913355584</v>
+        <v>0.5269797520426593</v>
       </c>
       <c r="J12">
-        <v>0.129153649630667</v>
+        <v>0.09604779121078597</v>
       </c>
       <c r="K12">
-        <v>0.1016463147940526</v>
+        <v>0.08026755433279498</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>-0.02959875824881635</v>
+        <v>-0.04229739618513693</v>
       </c>
       <c r="N12">
-        <v>2.278159390997511e-16</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.08304810588742481</v>
+        <v>0.2042364052156154</v>
       </c>
       <c r="Q12">
-        <v>3.027143300366556e-16</v>
+        <v>-0.1511965184957759</v>
       </c>
       <c r="R12">
-        <v>-0.05417198617910895</v>
+        <v>-0.1084915587281903</v>
       </c>
       <c r="S12">
-        <v>0.4639179598906222</v>
+        <v>0.4318522034717445</v>
       </c>
       <c r="T12">
-        <v>0.1508271710080992</v>
+        <v>0.1298979859056975</v>
       </c>
       <c r="U12">
-        <v>0.2192401947192325</v>
+        <v>0.2273908720257006</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1186,61 +1186,61 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1130601880950822</v>
+        <v>0.06929140341923701</v>
       </c>
       <c r="C13">
-        <v>0.1012401029327586</v>
+        <v>0.06768282369931473</v>
       </c>
       <c r="D13">
-        <v>0.3384409619207953</v>
+        <v>0.1461873020119334</v>
       </c>
       <c r="E13">
-        <v>0.4575882349190203</v>
+        <v>0.4935883522494072</v>
       </c>
       <c r="F13">
-        <v>0.4535785045770876</v>
+        <v>0.4992666769735666</v>
       </c>
       <c r="G13">
-        <v>0.01447525533394661</v>
+        <v>0.003818730543337991</v>
       </c>
       <c r="H13">
-        <v>0.6644594252512607</v>
+        <v>0.705084981252488</v>
       </c>
       <c r="I13">
-        <v>0.4011784428657405</v>
+        <v>0.2716966318726132</v>
       </c>
       <c r="J13">
-        <v>0.6756281915557604</v>
+        <v>0.7271621532373955</v>
       </c>
       <c r="K13">
-        <v>0.6966916537443587</v>
+        <v>0.7439654596093767</v>
       </c>
       <c r="L13">
-        <v>-0.02959875824881635</v>
+        <v>-0.04229739618513693</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>6.223814001381406e-16</v>
+        <v>-7.520554740488377e-16</v>
       </c>
       <c r="O13">
-        <v>-0.04109472597421545</v>
+        <v>-0.415275394321668</v>
       </c>
       <c r="Q13">
-        <v>6.223814001381406e-16</v>
+        <v>-0.2410051652055647</v>
       </c>
       <c r="R13">
-        <v>-0.03380373102892087</v>
+        <v>0.02904089087227619</v>
       </c>
       <c r="S13">
-        <v>0.02337922207127505</v>
+        <v>-0.07098732792908796</v>
       </c>
       <c r="T13">
-        <v>0.04573169243727224</v>
+        <v>-0.05129542129878868</v>
       </c>
       <c r="U13">
-        <v>-0.06029795865453617</v>
+        <v>-0.1069244997141555</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1248,61 +1248,61 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-3.605317083788505e-17</v>
+        <v>3.053340904906959e-18</v>
       </c>
       <c r="C14">
-        <v>-1.351284330897043e-15</v>
+        <v>-1.988172177218218e-15</v>
       </c>
       <c r="D14">
-        <v>7.426571720754092e-16</v>
+        <v>1.031682175668555e-15</v>
       </c>
       <c r="E14">
-        <v>-1.079523078758616e-15</v>
+        <v>2.326522172475084e-16</v>
       </c>
       <c r="F14">
-        <v>1.862429420962686e-16</v>
+        <v>3.10942580582841e-16</v>
       </c>
       <c r="G14">
-        <v>5.989274933711637e-16</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>-6.393530636555416e-16</v>
+        <v>4.09547151612268e-16</v>
       </c>
       <c r="I14">
-        <v>-3.701870849802112e-17</v>
+        <v>-1.920324686418166e-15</v>
       </c>
       <c r="J14">
-        <v>-1.701668213155127e-15</v>
+        <v>-2.747876956835749e-15</v>
       </c>
       <c r="K14">
-        <v>-1.081275398247217e-15</v>
+        <v>-1.221934462106383e-15</v>
       </c>
       <c r="L14">
-        <v>2.278159390997511e-16</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>6.223814001381406e-16</v>
+        <v>-7.520554740488377e-16</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
-        <v>1.632581470038348e-17</v>
+        <v>-5.036567062581525e-16</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>4.321880142978462e-15</v>
       </c>
       <c r="R14">
-        <v>-4.557986870598185e-16</v>
+        <v>-1.37542540556487e-15</v>
       </c>
       <c r="S14">
-        <v>2.556518521088962e-15</v>
+        <v>-5.941284070687595e-16</v>
       </c>
       <c r="T14">
-        <v>-1.292064513791213e-15</v>
+        <v>2.987356690764087e-16</v>
       </c>
       <c r="U14">
-        <v>7.064990977789627e-16</v>
+        <v>-4.817082538910241e-17</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1310,61 +1310,61 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.0130826914658021</v>
+        <v>-0.1304784091467252</v>
       </c>
       <c r="C15">
-        <v>0.01258556062345989</v>
+        <v>0.1617437232269958</v>
       </c>
       <c r="D15">
-        <v>0.02970424846317648</v>
+        <v>0.1242211930845684</v>
       </c>
       <c r="E15">
-        <v>-0.1382206747322256</v>
+        <v>-0.4508359589131484</v>
       </c>
       <c r="F15">
-        <v>-0.1468461572647997</v>
+        <v>-0.4910369326145241</v>
       </c>
       <c r="G15">
-        <v>0.07084167482301552</v>
+        <v>0.298665855344763</v>
       </c>
       <c r="H15">
-        <v>-0.1561372401110707</v>
+        <v>-0.6435048047062633</v>
       </c>
       <c r="I15">
-        <v>-0.01339290751790123</v>
+        <v>-0.05372879348108035</v>
       </c>
       <c r="J15">
-        <v>-0.1758183260735698</v>
+        <v>-0.5626583697790384</v>
       </c>
       <c r="K15">
-        <v>-0.167532634084244</v>
+        <v>-0.4715842849033123</v>
       </c>
       <c r="L15">
-        <v>0.08304810588742481</v>
+        <v>0.2042364052156154</v>
       </c>
       <c r="M15">
-        <v>-0.04109472597421545</v>
+        <v>-0.415275394321668</v>
       </c>
       <c r="N15">
-        <v>1.632581470038348e-17</v>
+        <v>-5.036567062581525e-16</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>1.523742705369125e-16</v>
+        <v>0.2037406224681721</v>
       </c>
       <c r="R15">
-        <v>0.1029500719623566</v>
+        <v>-0.1620844367508403</v>
       </c>
       <c r="S15">
-        <v>0.2351728441743047</v>
+        <v>0.5419865510777579</v>
       </c>
       <c r="T15">
-        <v>0.09152439825371425</v>
+        <v>0.02321176328231816</v>
       </c>
       <c r="U15">
-        <v>0.1986374714833062</v>
+        <v>0.5158635428959312</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1377,61 +1377,61 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.171561390680233e-18</v>
+        <v>-0.130934335088303</v>
       </c>
       <c r="C17">
-        <v>-1.306241519867141e-15</v>
+        <v>-0.02255453282749834</v>
       </c>
       <c r="D17">
-        <v>4.835907167002664e-16</v>
+        <v>-0.1963470380592244</v>
       </c>
       <c r="E17">
-        <v>-8.09642309068962e-16</v>
+        <v>-0.4284295613719176</v>
       </c>
       <c r="F17">
-        <v>2.058474623169284e-16</v>
+        <v>-0.4568413141789193</v>
       </c>
       <c r="G17">
-        <v>6.316813406648991e-17</v>
+        <v>-0.1107130866537622</v>
       </c>
       <c r="H17">
-        <v>-8.47776529340608e-16</v>
+        <v>-0.4460847462369685</v>
       </c>
       <c r="I17">
-        <v>-5.182619189722956e-17</v>
+        <v>-0.3020664974879312</v>
       </c>
       <c r="J17">
-        <v>-1.727647880531541e-15</v>
+        <v>-0.4098328662372379</v>
       </c>
       <c r="K17">
-        <v>-1.081275398247217e-15</v>
+        <v>-0.3390301476534712</v>
       </c>
       <c r="L17">
-        <v>3.027143300366556e-16</v>
+        <v>-0.1511965184957759</v>
       </c>
       <c r="M17">
-        <v>6.223814001381406e-16</v>
+        <v>-0.2410051652055647</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>4.321880142978462e-15</v>
       </c>
       <c r="O17">
-        <v>1.523742705369125e-16</v>
+        <v>0.2037406224681721</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
       <c r="R17">
-        <v>-4.805106640690858e-16</v>
+        <v>0.05186540983517422</v>
       </c>
       <c r="S17">
-        <v>2.508733128171411e-15</v>
+        <v>0.152227377207014</v>
       </c>
       <c r="T17">
-        <v>-1.268225685123479e-15</v>
+        <v>0.05464593307791641</v>
       </c>
       <c r="U17">
-        <v>6.031089859088705e-16</v>
+        <v>0.2008893626058878</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1439,61 +1439,61 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.0008024736171283922</v>
+        <v>-0.1114537605083881</v>
       </c>
       <c r="C18">
-        <v>0.1072221942112523</v>
+        <v>0.08224266398407445</v>
       </c>
       <c r="D18">
-        <v>-0.1987608672475611</v>
+        <v>-0.2371432955736366</v>
       </c>
       <c r="E18">
-        <v>-0.1237577023748392</v>
+        <v>-0.03891069910195983</v>
       </c>
       <c r="F18">
-        <v>-0.1241251167351905</v>
+        <v>-0.04076409635642334</v>
       </c>
       <c r="G18">
-        <v>-0.07088220208111751</v>
+        <v>-0.1163644676078252</v>
       </c>
       <c r="H18">
-        <v>0.07406909651085969</v>
+        <v>0.1799965914803214</v>
       </c>
       <c r="I18">
-        <v>-0.2114340313067629</v>
+        <v>-0.1803344050355496</v>
       </c>
       <c r="J18">
-        <v>-0.1858152972750236</v>
+        <v>-0.08858076825641306</v>
       </c>
       <c r="K18">
-        <v>-0.1920470706759466</v>
+        <v>-0.09716970635385452</v>
       </c>
       <c r="L18">
-        <v>-0.05417198617910895</v>
+        <v>-0.1084915587281903</v>
       </c>
       <c r="M18">
-        <v>-0.03380373102892087</v>
+        <v>0.02904089087227619</v>
       </c>
       <c r="N18">
-        <v>-4.557986870598185e-16</v>
+        <v>-1.37542540556487e-15</v>
       </c>
       <c r="O18">
-        <v>0.1029500719623566</v>
+        <v>-0.1620844367508403</v>
       </c>
       <c r="Q18">
-        <v>-4.805106640690858e-16</v>
+        <v>0.05186540983517422</v>
       </c>
       <c r="R18">
         <v>1</v>
       </c>
       <c r="S18">
-        <v>-0.1346253357174245</v>
+        <v>-0.1745314468276107</v>
       </c>
       <c r="T18">
-        <v>0.1917376337038413</v>
+        <v>0.2062684036710634</v>
       </c>
       <c r="U18">
-        <v>-0.1504973988878999</v>
+        <v>-0.195410707102844</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1501,61 +1501,61 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.1270849872887459</v>
+        <v>-0.1128547079279827</v>
       </c>
       <c r="C19">
-        <v>-0.09342305512333833</v>
+        <v>-0.03942541929240963</v>
       </c>
       <c r="D19">
-        <v>0.4302309024326345</v>
+        <v>0.4958650338690376</v>
       </c>
       <c r="E19">
-        <v>0.03078035019887206</v>
+        <v>-0.07148273364970664</v>
       </c>
       <c r="F19">
-        <v>0.03942617309147878</v>
+        <v>-0.07598707354569091</v>
       </c>
       <c r="G19">
-        <v>0.5452259023589349</v>
+        <v>0.5160544149266305</v>
       </c>
       <c r="H19">
-        <v>-0.1945245536176145</v>
+        <v>-0.3226274024997198</v>
       </c>
       <c r="I19">
-        <v>0.3863165654041744</v>
+        <v>0.3992796635215473</v>
       </c>
       <c r="J19">
-        <v>-0.03366534267093271</v>
+        <v>-0.1542355649498775</v>
       </c>
       <c r="K19">
-        <v>-0.02977837223206488</v>
+        <v>-0.1106038032797376</v>
       </c>
       <c r="L19">
-        <v>0.4639179598906222</v>
+        <v>0.4318522034717445</v>
       </c>
       <c r="M19">
-        <v>0.02337922207127505</v>
+        <v>-0.07098732792908796</v>
       </c>
       <c r="N19">
-        <v>2.556518521088962e-15</v>
+        <v>-5.941284070687595e-16</v>
       </c>
       <c r="O19">
-        <v>0.2351728441743047</v>
+        <v>0.5419865510777579</v>
       </c>
       <c r="Q19">
-        <v>2.508733128171411e-15</v>
+        <v>0.152227377207014</v>
       </c>
       <c r="R19">
-        <v>-0.1346253357174245</v>
+        <v>-0.1745314468276107</v>
       </c>
       <c r="S19">
         <v>1</v>
       </c>
       <c r="T19">
-        <v>0.1208304344892702</v>
+        <v>0.2211279950689438</v>
       </c>
       <c r="U19">
-        <v>0.8800112611249851</v>
+        <v>0.869501850286764</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1563,61 +1563,61 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.02213409327633181</v>
+        <v>-0.03829340725345455</v>
       </c>
       <c r="C20">
-        <v>0.06012285306948947</v>
+        <v>0.1010479737323868</v>
       </c>
       <c r="D20">
-        <v>0.2205306032889259</v>
+        <v>0.2960390312498241</v>
       </c>
       <c r="E20">
-        <v>0.2052795968132872</v>
+        <v>0.1170074631316691</v>
       </c>
       <c r="F20">
-        <v>0.2077386794830388</v>
+        <v>0.1143559130931801</v>
       </c>
       <c r="G20">
-        <v>0.1261931015454739</v>
+        <v>0.1366952925195993</v>
       </c>
       <c r="H20">
-        <v>0.0955755836976475</v>
+        <v>-0.05814674675661118</v>
       </c>
       <c r="I20">
-        <v>0.2625638264202566</v>
+        <v>0.2797438749057534</v>
       </c>
       <c r="J20">
-        <v>0.1420392012739939</v>
+        <v>0.02295982203460837</v>
       </c>
       <c r="K20">
-        <v>0.06501534058395837</v>
+        <v>0.007257789115420164</v>
       </c>
       <c r="L20">
-        <v>0.1508271710080992</v>
+        <v>0.1298979859056975</v>
       </c>
       <c r="M20">
-        <v>0.04573169243727224</v>
+        <v>-0.05129542129878868</v>
       </c>
       <c r="N20">
-        <v>-1.292064513791213e-15</v>
+        <v>2.987356690764087e-16</v>
       </c>
       <c r="O20">
-        <v>0.09152439825371425</v>
+        <v>0.02321176328231816</v>
       </c>
       <c r="Q20">
-        <v>-1.268225685123479e-15</v>
+        <v>0.05464593307791641</v>
       </c>
       <c r="R20">
-        <v>0.1917376337038413</v>
+        <v>0.2062684036710634</v>
       </c>
       <c r="S20">
-        <v>0.1208304344892702</v>
+        <v>0.2211279950689438</v>
       </c>
       <c r="T20">
         <v>1</v>
       </c>
       <c r="U20">
-        <v>0.01463345688581298</v>
+        <v>0.07637325514253136</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1625,58 +1625,58 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.1183270549046993</v>
+        <v>-0.05464220475556097</v>
       </c>
       <c r="C21">
-        <v>-0.1025932136429224</v>
+        <v>-0.07866408292170977</v>
       </c>
       <c r="D21">
-        <v>0.2244033592937769</v>
+        <v>0.2842706679057667</v>
       </c>
       <c r="E21">
-        <v>-0.1686253156223198</v>
+        <v>-0.2149960866891581</v>
       </c>
       <c r="F21">
-        <v>-0.1534767529571634</v>
+        <v>-0.220897691712773</v>
       </c>
       <c r="G21">
-        <v>0.3200150253660413</v>
+        <v>0.3172463603897102</v>
       </c>
       <c r="H21">
-        <v>-0.2878741473018495</v>
+        <v>-0.3561638768729115</v>
       </c>
       <c r="I21">
-        <v>0.1777731337632806</v>
+        <v>0.1678928521828628</v>
       </c>
       <c r="J21">
-        <v>-0.1375284691121885</v>
+        <v>-0.1945120370681267</v>
       </c>
       <c r="K21">
-        <v>-0.09117699200325628</v>
+        <v>-0.12254608510636</v>
       </c>
       <c r="L21">
-        <v>0.2192401947192325</v>
+        <v>0.2273908720257006</v>
       </c>
       <c r="M21">
-        <v>-0.06029795865453617</v>
+        <v>-0.1069244997141555</v>
       </c>
       <c r="N21">
-        <v>7.064990977789627e-16</v>
+        <v>-4.817082538910241e-17</v>
       </c>
       <c r="O21">
-        <v>0.1986374714833062</v>
+        <v>0.5158635428959312</v>
       </c>
       <c r="Q21">
-        <v>6.031089859088705e-16</v>
+        <v>0.2008893626058878</v>
       </c>
       <c r="R21">
-        <v>-0.1504973988878999</v>
+        <v>-0.195410707102844</v>
       </c>
       <c r="S21">
-        <v>0.8800112611249851</v>
+        <v>0.869501850286764</v>
       </c>
       <c r="T21">
-        <v>0.01463345688581298</v>
+        <v>0.07637325514253136</v>
       </c>
       <c r="U21">
         <v>1</v>

--- a/WorkingFolder/Tables/corrM.xlsx
+++ b/WorkingFolder/Tables/corrM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>sp500</t>
   </si>
@@ -55,25 +55,13 @@
     <t>kurtEstMed</t>
   </si>
   <si>
-    <t>meanEstMed</t>
-  </si>
-  <si>
     <t>skewEstMed</t>
   </si>
   <si>
-    <t>varEstMed</t>
-  </si>
-  <si>
     <t>kurtEstMean</t>
   </si>
   <si>
-    <t>meanEstMean</t>
-  </si>
-  <si>
     <t>skewEstMean</t>
-  </si>
-  <si>
-    <t>varEstMean</t>
   </si>
 </sst>
 </file>
@@ -431,13 +419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,20 +474,8 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,66 +483,54 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.4739381494412931</v>
+        <v>-0.6308995147500133</v>
       </c>
       <c r="D2">
-        <v>0.1308455975352934</v>
+        <v>-0.05600641982748685</v>
       </c>
       <c r="E2">
-        <v>0.04848625439687088</v>
+        <v>0.03701834790522502</v>
       </c>
       <c r="F2">
-        <v>0.05964766778524085</v>
+        <v>0.06185495654371313</v>
       </c>
       <c r="G2">
-        <v>0.02881000036275808</v>
+        <v>-0.485137366035724</v>
       </c>
       <c r="H2">
-        <v>-0.04454275974116035</v>
+        <v>0.07740337770914071</v>
       </c>
       <c r="I2">
-        <v>0.04225554129821177</v>
+        <v>0.02220999094667352</v>
       </c>
       <c r="J2">
-        <v>0.194583076772969</v>
+        <v>0.2036398917150032</v>
       </c>
       <c r="K2">
-        <v>0.2218239652283995</v>
+        <v>0.1729400969618131</v>
       </c>
       <c r="L2">
-        <v>-0.01100731070835902</v>
+        <v>-0.5069410141378025</v>
       </c>
       <c r="M2">
-        <v>0.06929140341923701</v>
+        <v>0.05623020394109077</v>
       </c>
       <c r="N2">
-        <v>3.053340904906959e-18</v>
-      </c>
-      <c r="O2">
-        <v>-0.1304784091467252</v>
+        <v>-2.248823268318503e-16</v>
+      </c>
+      <c r="P2">
+        <v>-0.01383649325970331</v>
       </c>
       <c r="Q2">
-        <v>-0.130934335088303</v>
-      </c>
-      <c r="R2">
-        <v>-0.1114537605083881</v>
-      </c>
-      <c r="S2">
-        <v>-0.1128547079279827</v>
-      </c>
-      <c r="T2">
-        <v>-0.03829340725345455</v>
-      </c>
-      <c r="U2">
-        <v>-0.05464220475556097</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+        <v>-0.08858953101314251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.4739381494412931</v>
+        <v>-0.6308995147500133</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -604,31 +568,19 @@
       <c r="N3">
         <v>-1.988172177218218e-15</v>
       </c>
-      <c r="O3">
-        <v>0.1617437232269958</v>
+      <c r="P3">
+        <v>0.08224266398407445</v>
       </c>
       <c r="Q3">
-        <v>-0.02255453282749834</v>
-      </c>
-      <c r="R3">
-        <v>0.08224266398407445</v>
-      </c>
-      <c r="S3">
-        <v>-0.03942541929240963</v>
-      </c>
-      <c r="T3">
         <v>0.1010479737323868</v>
       </c>
-      <c r="U3">
-        <v>-0.07866408292170977</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1308455975352934</v>
+        <v>-0.05600641982748685</v>
       </c>
       <c r="C4">
         <v>-0.0004237441647878328</v>
@@ -666,31 +618,19 @@
       <c r="N4">
         <v>1.031682175668555e-15</v>
       </c>
-      <c r="O4">
-        <v>0.1242211930845684</v>
+      <c r="P4">
+        <v>-0.2371432955736366</v>
       </c>
       <c r="Q4">
-        <v>-0.1963470380592244</v>
-      </c>
-      <c r="R4">
-        <v>-0.2371432955736366</v>
-      </c>
-      <c r="S4">
-        <v>0.4958650338690376</v>
-      </c>
-      <c r="T4">
         <v>0.2960390312498241</v>
       </c>
-      <c r="U4">
-        <v>0.2842706679057667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.04848625439687088</v>
+        <v>0.03701834790522502</v>
       </c>
       <c r="C5">
         <v>-0.04098222187132004</v>
@@ -728,31 +668,19 @@
       <c r="N5">
         <v>2.326522172475084e-16</v>
       </c>
-      <c r="O5">
-        <v>-0.4508359589131484</v>
+      <c r="P5">
+        <v>-0.03891069910195983</v>
       </c>
       <c r="Q5">
-        <v>-0.4284295613719176</v>
-      </c>
-      <c r="R5">
-        <v>-0.03891069910195983</v>
-      </c>
-      <c r="S5">
-        <v>-0.07148273364970664</v>
-      </c>
-      <c r="T5">
         <v>0.1170074631316691</v>
       </c>
-      <c r="U5">
-        <v>-0.2149960866891581</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05964766778524085</v>
+        <v>0.06185495654371313</v>
       </c>
       <c r="C6">
         <v>-0.0442957566662422</v>
@@ -790,31 +718,19 @@
       <c r="N6">
         <v>3.10942580582841e-16</v>
       </c>
-      <c r="O6">
-        <v>-0.4910369326145241</v>
+      <c r="P6">
+        <v>-0.04076409635642334</v>
       </c>
       <c r="Q6">
-        <v>-0.4568413141789193</v>
-      </c>
-      <c r="R6">
-        <v>-0.04076409635642334</v>
-      </c>
-      <c r="S6">
-        <v>-0.07598707354569091</v>
-      </c>
-      <c r="T6">
         <v>0.1143559130931801</v>
       </c>
-      <c r="U6">
-        <v>-0.220897691712773</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.02881000036275808</v>
+        <v>-0.485137366035724</v>
       </c>
       <c r="C7">
         <v>0.1488104891240748</v>
@@ -852,31 +768,19 @@
       <c r="N7">
         <v>0</v>
       </c>
-      <c r="O7">
-        <v>0.298665855344763</v>
+      <c r="P7">
+        <v>-0.1163644676078252</v>
       </c>
       <c r="Q7">
-        <v>-0.1107130866537622</v>
-      </c>
-      <c r="R7">
-        <v>-0.1163644676078252</v>
-      </c>
-      <c r="S7">
-        <v>0.5160544149266305</v>
-      </c>
-      <c r="T7">
         <v>0.1366952925195993</v>
       </c>
-      <c r="U7">
-        <v>0.3172463603897102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.04454275974116035</v>
+        <v>0.07740337770914071</v>
       </c>
       <c r="C8">
         <v>0.01980423235693674</v>
@@ -914,31 +818,19 @@
       <c r="N8">
         <v>4.09547151612268e-16</v>
       </c>
-      <c r="O8">
-        <v>-0.6435048047062633</v>
+      <c r="P8">
+        <v>0.1799965914803214</v>
       </c>
       <c r="Q8">
-        <v>-0.4460847462369685</v>
-      </c>
-      <c r="R8">
-        <v>0.1799965914803214</v>
-      </c>
-      <c r="S8">
-        <v>-0.3226274024997198</v>
-      </c>
-      <c r="T8">
         <v>-0.05814674675661118</v>
       </c>
-      <c r="U8">
-        <v>-0.3561638768729115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.04225554129821177</v>
+        <v>0.02220999094667352</v>
       </c>
       <c r="C9">
         <v>-0.07336442042608458</v>
@@ -976,31 +868,19 @@
       <c r="N9">
         <v>-1.920324686418166e-15</v>
       </c>
-      <c r="O9">
-        <v>-0.05372879348108035</v>
+      <c r="P9">
+        <v>-0.1803344050355496</v>
       </c>
       <c r="Q9">
-        <v>-0.3020664974879312</v>
-      </c>
-      <c r="R9">
-        <v>-0.1803344050355496</v>
-      </c>
-      <c r="S9">
-        <v>0.3992796635215473</v>
-      </c>
-      <c r="T9">
         <v>0.2797438749057534</v>
       </c>
-      <c r="U9">
-        <v>0.1678928521828628</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.194583076772969</v>
+        <v>0.2036398917150032</v>
       </c>
       <c r="C10">
         <v>-0.1288263386004899</v>
@@ -1038,31 +918,19 @@
       <c r="N10">
         <v>-2.747876956835749e-15</v>
       </c>
-      <c r="O10">
-        <v>-0.5626583697790384</v>
+      <c r="P10">
+        <v>-0.08858076825641306</v>
       </c>
       <c r="Q10">
-        <v>-0.4098328662372379</v>
-      </c>
-      <c r="R10">
-        <v>-0.08858076825641306</v>
-      </c>
-      <c r="S10">
-        <v>-0.1542355649498775</v>
-      </c>
-      <c r="T10">
         <v>0.02295982203460837</v>
       </c>
-      <c r="U10">
-        <v>-0.1945120370681267</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2218239652283995</v>
+        <v>0.1729400969618131</v>
       </c>
       <c r="C11">
         <v>-0.1026426529172897</v>
@@ -1100,31 +968,19 @@
       <c r="N11">
         <v>-1.221934462106383e-15</v>
       </c>
-      <c r="O11">
-        <v>-0.4715842849033123</v>
+      <c r="P11">
+        <v>-0.09716970635385452</v>
       </c>
       <c r="Q11">
-        <v>-0.3390301476534712</v>
-      </c>
-      <c r="R11">
-        <v>-0.09716970635385452</v>
-      </c>
-      <c r="S11">
-        <v>-0.1106038032797376</v>
-      </c>
-      <c r="T11">
         <v>0.007257789115420164</v>
       </c>
-      <c r="U11">
-        <v>-0.12254608510636</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.01100731070835902</v>
+        <v>-0.5069410141378025</v>
       </c>
       <c r="C12">
         <v>0.08880853072662605</v>
@@ -1162,31 +1018,19 @@
       <c r="N12">
         <v>0</v>
       </c>
-      <c r="O12">
-        <v>0.2042364052156154</v>
+      <c r="P12">
+        <v>-0.1084915587281903</v>
       </c>
       <c r="Q12">
-        <v>-0.1511965184957759</v>
-      </c>
-      <c r="R12">
-        <v>-0.1084915587281903</v>
-      </c>
-      <c r="S12">
-        <v>0.4318522034717445</v>
-      </c>
-      <c r="T12">
         <v>0.1298979859056975</v>
       </c>
-      <c r="U12">
-        <v>0.2273908720257006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.06929140341923701</v>
+        <v>0.05623020394109077</v>
       </c>
       <c r="C13">
         <v>0.06768282369931473</v>
@@ -1224,31 +1068,19 @@
       <c r="N13">
         <v>-7.520554740488377e-16</v>
       </c>
-      <c r="O13">
-        <v>-0.415275394321668</v>
+      <c r="P13">
+        <v>0.02904089087227619</v>
       </c>
       <c r="Q13">
-        <v>-0.2410051652055647</v>
-      </c>
-      <c r="R13">
-        <v>0.02904089087227619</v>
-      </c>
-      <c r="S13">
-        <v>-0.07098732792908796</v>
-      </c>
-      <c r="T13">
         <v>-0.05129542129878868</v>
       </c>
-      <c r="U13">
-        <v>-0.1069244997141555</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.053340904906959e-18</v>
+        <v>-2.248823268318503e-16</v>
       </c>
       <c r="C14">
         <v>-1.988172177218218e-15</v>
@@ -1286,399 +1118,115 @@
       <c r="N14">
         <v>1</v>
       </c>
-      <c r="O14">
-        <v>-5.036567062581525e-16</v>
+      <c r="P14">
+        <v>-1.37542540556487e-15</v>
       </c>
       <c r="Q14">
-        <v>4.321880142978462e-15</v>
-      </c>
-      <c r="R14">
-        <v>-1.37542540556487e-15</v>
-      </c>
-      <c r="S14">
-        <v>-5.941284070687595e-16</v>
-      </c>
-      <c r="T14">
         <v>2.987356690764087e-16</v>
       </c>
-      <c r="U14">
-        <v>-4.817082538910241e-17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>-0.1304784091467252</v>
-      </c>
-      <c r="C15">
-        <v>0.1617437232269958</v>
-      </c>
-      <c r="D15">
-        <v>0.1242211930845684</v>
-      </c>
-      <c r="E15">
-        <v>-0.4508359589131484</v>
-      </c>
-      <c r="F15">
-        <v>-0.4910369326145241</v>
-      </c>
-      <c r="G15">
-        <v>0.298665855344763</v>
-      </c>
-      <c r="H15">
-        <v>-0.6435048047062633</v>
-      </c>
-      <c r="I15">
-        <v>-0.05372879348108035</v>
-      </c>
-      <c r="J15">
-        <v>-0.5626583697790384</v>
-      </c>
-      <c r="K15">
-        <v>-0.4715842849033123</v>
-      </c>
-      <c r="L15">
-        <v>0.2042364052156154</v>
-      </c>
-      <c r="M15">
-        <v>-0.415275394321668</v>
-      </c>
-      <c r="N15">
-        <v>-5.036567062581525e-16</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <v>0.2037406224681721</v>
-      </c>
-      <c r="R15">
-        <v>-0.1620844367508403</v>
-      </c>
-      <c r="S15">
-        <v>0.5419865510777579</v>
-      </c>
-      <c r="T15">
-        <v>0.02321176328231816</v>
-      </c>
-      <c r="U15">
-        <v>0.5158635428959312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="B16">
+        <v>-0.01383649325970331</v>
+      </c>
+      <c r="C16">
+        <v>0.08224266398407445</v>
+      </c>
+      <c r="D16">
+        <v>-0.2371432955736366</v>
+      </c>
+      <c r="E16">
+        <v>-0.03891069910195983</v>
+      </c>
+      <c r="F16">
+        <v>-0.04076409635642334</v>
+      </c>
+      <c r="G16">
+        <v>-0.1163644676078252</v>
+      </c>
+      <c r="H16">
+        <v>0.1799965914803214</v>
+      </c>
+      <c r="I16">
+        <v>-0.1803344050355496</v>
+      </c>
+      <c r="J16">
+        <v>-0.08858076825641306</v>
+      </c>
+      <c r="K16">
+        <v>-0.09716970635385452</v>
+      </c>
+      <c r="L16">
+        <v>-0.1084915587281903</v>
+      </c>
+      <c r="M16">
+        <v>0.02904089087227619</v>
+      </c>
+      <c r="N16">
+        <v>-1.37542540556487e-15</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>0.2062684036710634</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.130934335088303</v>
+        <v>-0.08858953101314251</v>
       </c>
       <c r="C17">
-        <v>-0.02255453282749834</v>
+        <v>0.1010479737323868</v>
       </c>
       <c r="D17">
-        <v>-0.1963470380592244</v>
+        <v>0.2960390312498241</v>
       </c>
       <c r="E17">
-        <v>-0.4284295613719176</v>
+        <v>0.1170074631316691</v>
       </c>
       <c r="F17">
-        <v>-0.4568413141789193</v>
+        <v>0.1143559130931801</v>
       </c>
       <c r="G17">
-        <v>-0.1107130866537622</v>
+        <v>0.1366952925195993</v>
       </c>
       <c r="H17">
-        <v>-0.4460847462369685</v>
+        <v>-0.05814674675661118</v>
       </c>
       <c r="I17">
-        <v>-0.3020664974879312</v>
+        <v>0.2797438749057534</v>
       </c>
       <c r="J17">
-        <v>-0.4098328662372379</v>
+        <v>0.02295982203460837</v>
       </c>
       <c r="K17">
-        <v>-0.3390301476534712</v>
+        <v>0.007257789115420164</v>
       </c>
       <c r="L17">
-        <v>-0.1511965184957759</v>
+        <v>0.1298979859056975</v>
       </c>
       <c r="M17">
-        <v>-0.2410051652055647</v>
+        <v>-0.05129542129878868</v>
       </c>
       <c r="N17">
-        <v>4.321880142978462e-15</v>
-      </c>
-      <c r="O17">
-        <v>0.2037406224681721</v>
+        <v>2.987356690764087e-16</v>
+      </c>
+      <c r="P17">
+        <v>0.2062684036710634</v>
       </c>
       <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17">
-        <v>0.05186540983517422</v>
-      </c>
-      <c r="S17">
-        <v>0.152227377207014</v>
-      </c>
-      <c r="T17">
-        <v>0.05464593307791641</v>
-      </c>
-      <c r="U17">
-        <v>0.2008893626058878</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>-0.1114537605083881</v>
-      </c>
-      <c r="C18">
-        <v>0.08224266398407445</v>
-      </c>
-      <c r="D18">
-        <v>-0.2371432955736366</v>
-      </c>
-      <c r="E18">
-        <v>-0.03891069910195983</v>
-      </c>
-      <c r="F18">
-        <v>-0.04076409635642334</v>
-      </c>
-      <c r="G18">
-        <v>-0.1163644676078252</v>
-      </c>
-      <c r="H18">
-        <v>0.1799965914803214</v>
-      </c>
-      <c r="I18">
-        <v>-0.1803344050355496</v>
-      </c>
-      <c r="J18">
-        <v>-0.08858076825641306</v>
-      </c>
-      <c r="K18">
-        <v>-0.09716970635385452</v>
-      </c>
-      <c r="L18">
-        <v>-0.1084915587281903</v>
-      </c>
-      <c r="M18">
-        <v>0.02904089087227619</v>
-      </c>
-      <c r="N18">
-        <v>-1.37542540556487e-15</v>
-      </c>
-      <c r="O18">
-        <v>-0.1620844367508403</v>
-      </c>
-      <c r="Q18">
-        <v>0.05186540983517422</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="S18">
-        <v>-0.1745314468276107</v>
-      </c>
-      <c r="T18">
-        <v>0.2062684036710634</v>
-      </c>
-      <c r="U18">
-        <v>-0.195410707102844</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>-0.1128547079279827</v>
-      </c>
-      <c r="C19">
-        <v>-0.03942541929240963</v>
-      </c>
-      <c r="D19">
-        <v>0.4958650338690376</v>
-      </c>
-      <c r="E19">
-        <v>-0.07148273364970664</v>
-      </c>
-      <c r="F19">
-        <v>-0.07598707354569091</v>
-      </c>
-      <c r="G19">
-        <v>0.5160544149266305</v>
-      </c>
-      <c r="H19">
-        <v>-0.3226274024997198</v>
-      </c>
-      <c r="I19">
-        <v>0.3992796635215473</v>
-      </c>
-      <c r="J19">
-        <v>-0.1542355649498775</v>
-      </c>
-      <c r="K19">
-        <v>-0.1106038032797376</v>
-      </c>
-      <c r="L19">
-        <v>0.4318522034717445</v>
-      </c>
-      <c r="M19">
-        <v>-0.07098732792908796</v>
-      </c>
-      <c r="N19">
-        <v>-5.941284070687595e-16</v>
-      </c>
-      <c r="O19">
-        <v>0.5419865510777579</v>
-      </c>
-      <c r="Q19">
-        <v>0.152227377207014</v>
-      </c>
-      <c r="R19">
-        <v>-0.1745314468276107</v>
-      </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19">
-        <v>0.2211279950689438</v>
-      </c>
-      <c r="U19">
-        <v>0.869501850286764</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>-0.03829340725345455</v>
-      </c>
-      <c r="C20">
-        <v>0.1010479737323868</v>
-      </c>
-      <c r="D20">
-        <v>0.2960390312498241</v>
-      </c>
-      <c r="E20">
-        <v>0.1170074631316691</v>
-      </c>
-      <c r="F20">
-        <v>0.1143559130931801</v>
-      </c>
-      <c r="G20">
-        <v>0.1366952925195993</v>
-      </c>
-      <c r="H20">
-        <v>-0.05814674675661118</v>
-      </c>
-      <c r="I20">
-        <v>0.2797438749057534</v>
-      </c>
-      <c r="J20">
-        <v>0.02295982203460837</v>
-      </c>
-      <c r="K20">
-        <v>0.007257789115420164</v>
-      </c>
-      <c r="L20">
-        <v>0.1298979859056975</v>
-      </c>
-      <c r="M20">
-        <v>-0.05129542129878868</v>
-      </c>
-      <c r="N20">
-        <v>2.987356690764087e-16</v>
-      </c>
-      <c r="O20">
-        <v>0.02321176328231816</v>
-      </c>
-      <c r="Q20">
-        <v>0.05464593307791641</v>
-      </c>
-      <c r="R20">
-        <v>0.2062684036710634</v>
-      </c>
-      <c r="S20">
-        <v>0.2211279950689438</v>
-      </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="U20">
-        <v>0.07637325514253136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>-0.05464220475556097</v>
-      </c>
-      <c r="C21">
-        <v>-0.07866408292170977</v>
-      </c>
-      <c r="D21">
-        <v>0.2842706679057667</v>
-      </c>
-      <c r="E21">
-        <v>-0.2149960866891581</v>
-      </c>
-      <c r="F21">
-        <v>-0.220897691712773</v>
-      </c>
-      <c r="G21">
-        <v>0.3172463603897102</v>
-      </c>
-      <c r="H21">
-        <v>-0.3561638768729115</v>
-      </c>
-      <c r="I21">
-        <v>0.1678928521828628</v>
-      </c>
-      <c r="J21">
-        <v>-0.1945120370681267</v>
-      </c>
-      <c r="K21">
-        <v>-0.12254608510636</v>
-      </c>
-      <c r="L21">
-        <v>0.2273908720257006</v>
-      </c>
-      <c r="M21">
-        <v>-0.1069244997141555</v>
-      </c>
-      <c r="N21">
-        <v>-4.817082538910241e-17</v>
-      </c>
-      <c r="O21">
-        <v>0.5158635428959312</v>
-      </c>
-      <c r="Q21">
-        <v>0.2008893626058878</v>
-      </c>
-      <c r="R21">
-        <v>-0.195410707102844</v>
-      </c>
-      <c r="S21">
-        <v>0.869501850286764</v>
-      </c>
-      <c r="T21">
-        <v>0.07637325514253136</v>
-      </c>
-      <c r="U21">
         <v>1</v>
       </c>
     </row>

--- a/WorkingFolder/Tables/corrM.xlsx
+++ b/WorkingFolder/Tables/corrM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>sp500</t>
   </si>
@@ -22,46 +22,40 @@
     <t>VIXCLS</t>
   </si>
   <si>
-    <t>meanMed</t>
+    <t>expMed</t>
   </si>
   <si>
     <t>iqrMed</t>
   </si>
   <si>
+    <t>skewMed</t>
+  </si>
+  <si>
     <t>varMed</t>
   </si>
   <si>
-    <t>rmeanMed</t>
+    <t>rexpMed</t>
   </si>
   <si>
     <t>rvarMed</t>
   </si>
   <si>
-    <t>meanMean</t>
+    <t>expMean</t>
   </si>
   <si>
     <t>iqrMean</t>
   </si>
   <si>
+    <t>skewMean</t>
+  </si>
+  <si>
     <t>varMean</t>
   </si>
   <si>
-    <t>rmeanMean</t>
+    <t>rexpMean</t>
   </si>
   <si>
     <t>rvarMean</t>
-  </si>
-  <si>
-    <t>kurtEstMed</t>
-  </si>
-  <si>
-    <t>skewEstMed</t>
-  </si>
-  <si>
-    <t>kurtEstMean</t>
-  </si>
-  <si>
-    <t>skewEstMean</t>
   </si>
 </sst>
 </file>
@@ -419,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,14 +462,8 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,46 +474,40 @@
         <v>-0.6308995147500133</v>
       </c>
       <c r="D2">
-        <v>-0.05600641982748685</v>
+        <v>0.009262429175671837</v>
       </c>
       <c r="E2">
-        <v>0.03701834790522502</v>
-      </c>
-      <c r="F2">
-        <v>0.06185495654371313</v>
+        <v>0.03909911308846689</v>
       </c>
       <c r="G2">
-        <v>-0.485137366035724</v>
+        <v>-0.0272495615874394</v>
       </c>
       <c r="H2">
-        <v>0.07740337770914071</v>
+        <v>-0.3907610993612261</v>
       </c>
       <c r="I2">
-        <v>0.02220999094667352</v>
+        <v>0.08096266493471405</v>
       </c>
       <c r="J2">
-        <v>0.2036398917150032</v>
+        <v>0.07723008918389183</v>
       </c>
       <c r="K2">
-        <v>0.1729400969618131</v>
+        <v>0.1510477846896381</v>
       </c>
       <c r="L2">
-        <v>-0.5069410141378025</v>
+        <v>0.06790307946415082</v>
       </c>
       <c r="M2">
-        <v>0.05623020394109077</v>
+        <v>0.07350566084732679</v>
       </c>
       <c r="N2">
-        <v>-2.248823268318503e-16</v>
-      </c>
-      <c r="P2">
-        <v>-0.01383649325970331</v>
-      </c>
-      <c r="Q2">
-        <v>-0.08858953101314251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>-0.3952229613793843</v>
+      </c>
+      <c r="O2">
+        <v>0.133508310383175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -536,697 +518,525 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>-0.0004237441647878328</v>
+        <v>0.05832643982846182</v>
       </c>
       <c r="E3">
-        <v>-0.04098222187132004</v>
-      </c>
-      <c r="F3">
-        <v>-0.0442957566662422</v>
+        <v>-0.0754838018301929</v>
       </c>
       <c r="G3">
-        <v>0.1488104891240748</v>
+        <v>-0.0631266661179027</v>
       </c>
       <c r="H3">
-        <v>0.01980423235693674</v>
+        <v>0.1050650681005624</v>
       </c>
       <c r="I3">
-        <v>-0.07336442042608458</v>
+        <v>0.09657169854192199</v>
       </c>
       <c r="J3">
-        <v>-0.1288263386004899</v>
+        <v>-0.02109617420717148</v>
       </c>
       <c r="K3">
-        <v>-0.1026426529172897</v>
+        <v>-0.03779534862855197</v>
       </c>
       <c r="L3">
-        <v>0.08880853072662605</v>
+        <v>0.04802500255917358</v>
       </c>
       <c r="M3">
-        <v>0.06768282369931473</v>
+        <v>0.006474357331293395</v>
       </c>
       <c r="N3">
-        <v>-1.988172177218218e-15</v>
-      </c>
-      <c r="P3">
-        <v>0.08224266398407445</v>
-      </c>
-      <c r="Q3">
-        <v>0.1010479737323868</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.06839736194028714</v>
+      </c>
+      <c r="O3">
+        <v>0.05532713645521843</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.05600641982748685</v>
+        <v>0.009262429175671837</v>
       </c>
       <c r="C4">
-        <v>-0.0004237441647878328</v>
+        <v>0.05832643982846182</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.3829265265241944</v>
-      </c>
-      <c r="F4">
-        <v>0.3964775615853453</v>
+        <v>0.3431555244853599</v>
       </c>
       <c r="G4">
-        <v>0.5426005372166527</v>
+        <v>0.3276373550778249</v>
       </c>
       <c r="H4">
-        <v>0.03883654919269791</v>
+        <v>0.4213200995525801</v>
       </c>
       <c r="I4">
-        <v>0.8436299198409695</v>
+        <v>0.04141815857952905</v>
       </c>
       <c r="J4">
-        <v>0.2822557365755728</v>
+        <v>0.8103823631104983</v>
       </c>
       <c r="K4">
-        <v>0.2566164959803811</v>
+        <v>0.1476349960339937</v>
       </c>
       <c r="L4">
-        <v>0.4920052062256395</v>
+        <v>0.0131102444467642</v>
       </c>
       <c r="M4">
-        <v>0.1461873020119334</v>
+        <v>0.06497831731307652</v>
       </c>
       <c r="N4">
-        <v>1.031682175668555e-15</v>
-      </c>
-      <c r="P4">
-        <v>-0.2371432955736366</v>
-      </c>
-      <c r="Q4">
-        <v>0.2960390312498241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3885129802655883</v>
+      </c>
+      <c r="O4">
+        <v>0.04475623143502646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.03701834790522502</v>
+        <v>0.03909911308846689</v>
       </c>
       <c r="C5">
-        <v>-0.04098222187132004</v>
+        <v>-0.0754838018301929</v>
       </c>
       <c r="D5">
-        <v>0.3829265265241944</v>
+        <v>0.3431555244853599</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>0.9825034718821438</v>
-      </c>
       <c r="G5">
-        <v>0.1057777036028041</v>
+        <v>0.9523688076327922</v>
       </c>
       <c r="H5">
-        <v>0.6791608287278524</v>
+        <v>0.3625581107585766</v>
       </c>
       <c r="I5">
-        <v>0.5712926866280114</v>
+        <v>0.3059900599582341</v>
       </c>
       <c r="J5">
-        <v>0.7707785661254325</v>
+        <v>0.6233179895144512</v>
       </c>
       <c r="K5">
-        <v>0.6232177664713112</v>
+        <v>0.05492273934537402</v>
       </c>
       <c r="L5">
-        <v>0.1955003235201203</v>
+        <v>-0.1023778155428589</v>
       </c>
       <c r="M5">
-        <v>0.4935883522494072</v>
+        <v>-0.2063547022948433</v>
       </c>
       <c r="N5">
-        <v>2.326522172475084e-16</v>
-      </c>
-      <c r="P5">
-        <v>-0.03891069910195983</v>
-      </c>
-      <c r="Q5">
-        <v>0.1170074631316691</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4092185232362692</v>
+      </c>
+      <c r="O5">
+        <v>0.08503639172920516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0.06185495654371313</v>
-      </c>
-      <c r="C6">
-        <v>-0.0442957566662422</v>
-      </c>
-      <c r="D6">
-        <v>0.3964775615853453</v>
-      </c>
-      <c r="E6">
-        <v>0.9825034718821438</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.1128383330382438</v>
-      </c>
-      <c r="H6">
-        <v>0.7008420885354881</v>
-      </c>
-      <c r="I6">
-        <v>0.585258661971006</v>
-      </c>
-      <c r="J6">
-        <v>0.785463908377308</v>
-      </c>
-      <c r="K6">
-        <v>0.6376824729647866</v>
-      </c>
-      <c r="L6">
-        <v>0.209483613083133</v>
-      </c>
-      <c r="M6">
-        <v>0.4992666769735666</v>
-      </c>
-      <c r="N6">
-        <v>3.10942580582841e-16</v>
-      </c>
-      <c r="P6">
-        <v>-0.04076409635642334</v>
-      </c>
-      <c r="Q6">
-        <v>0.1143559130931801</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.485137366035724</v>
+        <v>-0.0272495615874394</v>
       </c>
       <c r="C7">
-        <v>0.1488104891240748</v>
+        <v>-0.0631266661179027</v>
       </c>
       <c r="D7">
-        <v>0.5426005372166527</v>
+        <v>0.3276373550778249</v>
       </c>
       <c r="E7">
-        <v>0.1057777036028041</v>
-      </c>
-      <c r="F7">
-        <v>0.1128383330382438</v>
+        <v>0.9523688076327922</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>-0.1007603117545785</v>
+        <v>0.3136523878511234</v>
       </c>
       <c r="I7">
-        <v>0.4870740073028018</v>
+        <v>0.3752829254073948</v>
       </c>
       <c r="J7">
-        <v>0.03411096625778293</v>
+        <v>0.5930922341227344</v>
       </c>
       <c r="K7">
-        <v>0.04881504390191301</v>
+        <v>0.1794893739428917</v>
       </c>
       <c r="L7">
-        <v>0.9161118651325024</v>
+        <v>-0.04343003116922679</v>
       </c>
       <c r="M7">
-        <v>0.003818730543337991</v>
+        <v>-0.07525518461398059</v>
       </c>
       <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>-0.1163644676078252</v>
-      </c>
-      <c r="Q7">
-        <v>0.1366952925195993</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3865441861114098</v>
+      </c>
+      <c r="O7">
+        <v>0.1480886288471302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07740337770914071</v>
+        <v>-0.3907610993612261</v>
       </c>
       <c r="C8">
-        <v>0.01980423235693674</v>
+        <v>0.1050650681005624</v>
       </c>
       <c r="D8">
-        <v>0.03883654919269791</v>
+        <v>0.4213200995525801</v>
       </c>
       <c r="E8">
-        <v>0.6791608287278524</v>
-      </c>
-      <c r="F8">
-        <v>0.7008420885354881</v>
+        <v>0.3625581107585766</v>
       </c>
       <c r="G8">
-        <v>-0.1007603117545785</v>
+        <v>0.3136523878511234</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.2723139521913757</v>
+        <v>-0.1948249654242328</v>
       </c>
       <c r="J8">
-        <v>0.7273375786050795</v>
+        <v>0.467504143717361</v>
       </c>
       <c r="K8">
-        <v>0.5928154191268116</v>
+        <v>-0.1364285340708209</v>
       </c>
       <c r="L8">
-        <v>-0.02502068732293725</v>
+        <v>-0.3168890332429894</v>
       </c>
       <c r="M8">
-        <v>0.705084981252488</v>
+        <v>-0.209750275801892</v>
       </c>
       <c r="N8">
-        <v>4.09547151612268e-16</v>
-      </c>
-      <c r="P8">
-        <v>0.1799965914803214</v>
-      </c>
-      <c r="Q8">
-        <v>-0.05814674675661118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.9107161713345043</v>
+      </c>
+      <c r="O8">
+        <v>-0.1549097937416665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.02220999094667352</v>
+        <v>0.08096266493471405</v>
       </c>
       <c r="C9">
-        <v>-0.07336442042608458</v>
+        <v>0.09657169854192199</v>
       </c>
       <c r="D9">
-        <v>0.8436299198409695</v>
+        <v>0.04141815857952905</v>
       </c>
       <c r="E9">
-        <v>0.5712926866280114</v>
-      </c>
-      <c r="F9">
-        <v>0.585258661971006</v>
+        <v>0.3059900599582341</v>
       </c>
       <c r="G9">
-        <v>0.4870740073028018</v>
+        <v>0.3752829254073948</v>
       </c>
       <c r="H9">
-        <v>0.2723139521913757</v>
+        <v>-0.1948249654242328</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.4890865230442228</v>
+        <v>0.2010322454598295</v>
       </c>
       <c r="K9">
-        <v>0.3946342072633912</v>
+        <v>0.6540495935210239</v>
       </c>
       <c r="L9">
-        <v>0.5269797520426593</v>
+        <v>0.1159182946744949</v>
       </c>
       <c r="M9">
-        <v>0.2716966318726132</v>
+        <v>0.4980504153333022</v>
       </c>
       <c r="N9">
-        <v>-1.920324686418166e-15</v>
-      </c>
-      <c r="P9">
-        <v>-0.1803344050355496</v>
-      </c>
-      <c r="Q9">
-        <v>0.2797438749057534</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>-0.1590082426307712</v>
+      </c>
+      <c r="O9">
+        <v>0.7372261010869084</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2036398917150032</v>
+        <v>0.07723008918389183</v>
       </c>
       <c r="C10">
-        <v>-0.1288263386004899</v>
+        <v>-0.02109617420717148</v>
       </c>
       <c r="D10">
-        <v>0.2822557365755728</v>
+        <v>0.8103823631104983</v>
       </c>
       <c r="E10">
-        <v>0.7707785661254325</v>
-      </c>
-      <c r="F10">
-        <v>0.785463908377308</v>
+        <v>0.6233179895144512</v>
       </c>
       <c r="G10">
-        <v>0.03411096625778293</v>
+        <v>0.5930922341227344</v>
       </c>
       <c r="H10">
-        <v>0.7273375786050795</v>
+        <v>0.467504143717361</v>
       </c>
       <c r="I10">
-        <v>0.4890865230442228</v>
+        <v>0.2010322454598295</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.9465610280351479</v>
+        <v>0.2563566228924163</v>
       </c>
       <c r="L10">
-        <v>0.09604779121078597</v>
+        <v>-0.1162855927218849</v>
       </c>
       <c r="M10">
-        <v>0.7271621532373955</v>
+        <v>0.06405451996643971</v>
       </c>
       <c r="N10">
-        <v>-2.747876956835749e-15</v>
-      </c>
-      <c r="P10">
-        <v>-0.08858076825641306</v>
-      </c>
-      <c r="Q10">
-        <v>0.02295982203460837</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.5323853416555185</v>
+      </c>
+      <c r="O10">
+        <v>0.1879624126458286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1729400969618131</v>
+        <v>0.1510477846896381</v>
       </c>
       <c r="C11">
-        <v>-0.1026426529172897</v>
+        <v>-0.03779534862855197</v>
       </c>
       <c r="D11">
-        <v>0.2566164959803811</v>
+        <v>0.1476349960339937</v>
       </c>
       <c r="E11">
-        <v>0.6232177664713112</v>
-      </c>
-      <c r="F11">
-        <v>0.6376824729647866</v>
+        <v>0.05492273934537402</v>
       </c>
       <c r="G11">
-        <v>0.04881504390191301</v>
+        <v>0.1794893739428917</v>
       </c>
       <c r="H11">
-        <v>0.5928154191268116</v>
+        <v>-0.1364285340708209</v>
       </c>
       <c r="I11">
-        <v>0.3946342072633912</v>
+        <v>0.6540495935210239</v>
       </c>
       <c r="J11">
-        <v>0.9465610280351479</v>
+        <v>0.2563566228924163</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.08026755433279498</v>
+        <v>0.132869753539076</v>
       </c>
       <c r="M11">
-        <v>0.7439654596093767</v>
+        <v>0.9367570843187291</v>
       </c>
       <c r="N11">
-        <v>-1.221934462106383e-15</v>
-      </c>
-      <c r="P11">
-        <v>-0.09716970635385452</v>
-      </c>
-      <c r="Q11">
-        <v>0.007257789115420164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>-0.07426094774725336</v>
+      </c>
+      <c r="O11">
+        <v>0.7481932337625007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.5069410141378025</v>
+        <v>0.06790307946415082</v>
       </c>
       <c r="C12">
-        <v>0.08880853072662605</v>
+        <v>0.04802500255917358</v>
       </c>
       <c r="D12">
-        <v>0.4920052062256395</v>
+        <v>0.0131102444467642</v>
       </c>
       <c r="E12">
-        <v>0.1955003235201203</v>
-      </c>
-      <c r="F12">
-        <v>0.209483613083133</v>
+        <v>-0.1023778155428589</v>
       </c>
       <c r="G12">
-        <v>0.9161118651325024</v>
+        <v>-0.04343003116922679</v>
       </c>
       <c r="H12">
-        <v>-0.02502068732293725</v>
+        <v>-0.3168890332429894</v>
       </c>
       <c r="I12">
-        <v>0.5269797520426593</v>
+        <v>0.1159182946744949</v>
       </c>
       <c r="J12">
-        <v>0.09604779121078597</v>
+        <v>-0.1162855927218849</v>
       </c>
       <c r="K12">
-        <v>0.08026755433279498</v>
+        <v>0.132869753539076</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>-0.04229739618513693</v>
+        <v>0.1481919603200007</v>
       </c>
       <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>-0.1084915587281903</v>
-      </c>
-      <c r="Q12">
-        <v>0.1298979859056975</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>-0.2881926473568948</v>
+      </c>
+      <c r="O12">
+        <v>-0.01382495288800734</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.05623020394109077</v>
+        <v>0.07350566084732679</v>
       </c>
       <c r="C13">
-        <v>0.06768282369931473</v>
+        <v>0.006474357331293395</v>
       </c>
       <c r="D13">
-        <v>0.1461873020119334</v>
+        <v>0.06497831731307652</v>
       </c>
       <c r="E13">
-        <v>0.4935883522494072</v>
-      </c>
-      <c r="F13">
-        <v>0.4992666769735666</v>
+        <v>-0.2063547022948433</v>
       </c>
       <c r="G13">
-        <v>0.003818730543337991</v>
+        <v>-0.07525518461398059</v>
       </c>
       <c r="H13">
-        <v>0.705084981252488</v>
+        <v>-0.209750275801892</v>
       </c>
       <c r="I13">
-        <v>0.2716966318726132</v>
+        <v>0.4980504153333022</v>
       </c>
       <c r="J13">
-        <v>0.7271621532373955</v>
+        <v>0.06405451996643971</v>
       </c>
       <c r="K13">
-        <v>0.7439654596093767</v>
+        <v>0.9367570843187291</v>
       </c>
       <c r="L13">
-        <v>-0.04229739618513693</v>
+        <v>0.1481919603200007</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>-7.520554740488377e-16</v>
-      </c>
-      <c r="P13">
-        <v>0.02904089087227619</v>
-      </c>
-      <c r="Q13">
-        <v>-0.05129542129878868</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>-0.1757327523856179</v>
+      </c>
+      <c r="O13">
+        <v>0.6963261965790885</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-2.248823268318503e-16</v>
+        <v>-0.3952229613793843</v>
       </c>
       <c r="C14">
-        <v>-1.988172177218218e-15</v>
+        <v>0.06839736194028714</v>
       </c>
       <c r="D14">
-        <v>1.031682175668555e-15</v>
+        <v>0.3885129802655883</v>
       </c>
       <c r="E14">
-        <v>2.326522172475084e-16</v>
-      </c>
-      <c r="F14">
-        <v>3.10942580582841e-16</v>
+        <v>0.4092185232362692</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.3865441861114098</v>
       </c>
       <c r="H14">
-        <v>4.09547151612268e-16</v>
+        <v>0.9107161713345043</v>
       </c>
       <c r="I14">
-        <v>-1.920324686418166e-15</v>
+        <v>-0.1590082426307712</v>
       </c>
       <c r="J14">
-        <v>-2.747876956835749e-15</v>
+        <v>0.5323853416555185</v>
       </c>
       <c r="K14">
-        <v>-1.221934462106383e-15</v>
+        <v>-0.07426094774725336</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>-0.2881926473568948</v>
       </c>
       <c r="M14">
-        <v>-7.520554740488377e-16</v>
+        <v>-0.1757327523856179</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
-      <c r="P14">
-        <v>-1.37542540556487e-15</v>
-      </c>
-      <c r="Q14">
-        <v>2.987356690764087e-16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="O14">
+        <v>-0.1777835146856097</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>-0.01383649325970331</v>
-      </c>
-      <c r="C16">
-        <v>0.08224266398407445</v>
-      </c>
-      <c r="D16">
-        <v>-0.2371432955736366</v>
-      </c>
-      <c r="E16">
-        <v>-0.03891069910195983</v>
-      </c>
-      <c r="F16">
-        <v>-0.04076409635642334</v>
-      </c>
-      <c r="G16">
-        <v>-0.1163644676078252</v>
-      </c>
-      <c r="H16">
-        <v>0.1799965914803214</v>
-      </c>
-      <c r="I16">
-        <v>-0.1803344050355496</v>
-      </c>
-      <c r="J16">
-        <v>-0.08858076825641306</v>
-      </c>
-      <c r="K16">
-        <v>-0.09716970635385452</v>
-      </c>
-      <c r="L16">
-        <v>-0.1084915587281903</v>
-      </c>
-      <c r="M16">
-        <v>0.02904089087227619</v>
-      </c>
-      <c r="N16">
-        <v>-1.37542540556487e-15</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <v>0.2062684036710634</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>-0.08858953101314251</v>
-      </c>
-      <c r="C17">
-        <v>0.1010479737323868</v>
-      </c>
-      <c r="D17">
-        <v>0.2960390312498241</v>
-      </c>
-      <c r="E17">
-        <v>0.1170074631316691</v>
-      </c>
-      <c r="F17">
-        <v>0.1143559130931801</v>
-      </c>
-      <c r="G17">
-        <v>0.1366952925195993</v>
-      </c>
-      <c r="H17">
-        <v>-0.05814674675661118</v>
-      </c>
-      <c r="I17">
-        <v>0.2797438749057534</v>
-      </c>
-      <c r="J17">
-        <v>0.02295982203460837</v>
-      </c>
-      <c r="K17">
-        <v>0.007257789115420164</v>
-      </c>
-      <c r="L17">
-        <v>0.1298979859056975</v>
-      </c>
-      <c r="M17">
-        <v>-0.05129542129878868</v>
-      </c>
-      <c r="N17">
-        <v>2.987356690764087e-16</v>
-      </c>
-      <c r="P17">
-        <v>0.2062684036710634</v>
-      </c>
-      <c r="Q17">
+      <c r="B15">
+        <v>0.133508310383175</v>
+      </c>
+      <c r="C15">
+        <v>0.05532713645521843</v>
+      </c>
+      <c r="D15">
+        <v>0.04475623143502646</v>
+      </c>
+      <c r="E15">
+        <v>0.08503639172920516</v>
+      </c>
+      <c r="G15">
+        <v>0.1480886288471302</v>
+      </c>
+      <c r="H15">
+        <v>-0.1549097937416665</v>
+      </c>
+      <c r="I15">
+        <v>0.7372261010869084</v>
+      </c>
+      <c r="J15">
+        <v>0.1879624126458286</v>
+      </c>
+      <c r="K15">
+        <v>0.7481932337625007</v>
+      </c>
+      <c r="L15">
+        <v>-0.01382495288800734</v>
+      </c>
+      <c r="M15">
+        <v>0.6963261965790885</v>
+      </c>
+      <c r="N15">
+        <v>-0.1777835146856097</v>
+      </c>
+      <c r="O15">
         <v>1</v>
       </c>
     </row>

--- a/WorkingFolder/Tables/corrM.xlsx
+++ b/WorkingFolder/Tables/corrM.xlsx
@@ -471,40 +471,40 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.6308995147500133</v>
+        <v>-0.4739381494412931</v>
       </c>
       <c r="D2">
-        <v>0.009262429175671837</v>
+        <v>0.1382547059950641</v>
       </c>
       <c r="E2">
-        <v>0.03909911308846689</v>
+        <v>0.09155845137439581</v>
       </c>
       <c r="G2">
-        <v>-0.0272495615874394</v>
+        <v>0.03335360499461792</v>
       </c>
       <c r="H2">
-        <v>-0.3907610993612261</v>
+        <v>0.1328582935888218</v>
       </c>
       <c r="I2">
-        <v>0.08096266493471405</v>
+        <v>-0.07028726428208364</v>
       </c>
       <c r="J2">
-        <v>0.07723008918389183</v>
+        <v>0.06559350788852032</v>
       </c>
       <c r="K2">
-        <v>0.1510477846896381</v>
+        <v>0.07359892647541673</v>
       </c>
       <c r="L2">
-        <v>0.06790307946415082</v>
+        <v>-0.06826462012334182</v>
       </c>
       <c r="M2">
-        <v>0.07350566084732679</v>
+        <v>0.03826994240463905</v>
       </c>
       <c r="N2">
-        <v>-0.3952229613793843</v>
+        <v>0.05534716907154695</v>
       </c>
       <c r="O2">
-        <v>0.133508310383175</v>
+        <v>-0.008456246078771197</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -512,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.6308995147500133</v>
+        <v>-0.4739381494412931</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -556,7 +556,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.009262429175671837</v>
+        <v>0.1382547059950641</v>
       </c>
       <c r="C4">
         <v>0.05832643982846182</v>
@@ -600,7 +600,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.03909911308846689</v>
+        <v>0.09155845137439581</v>
       </c>
       <c r="C5">
         <v>-0.0754838018301929</v>
@@ -649,7 +649,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.0272495615874394</v>
+        <v>0.03335360499461792</v>
       </c>
       <c r="C7">
         <v>-0.0631266661179027</v>
@@ -693,7 +693,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.3907610993612261</v>
+        <v>0.1328582935888218</v>
       </c>
       <c r="C8">
         <v>0.1050650681005624</v>
@@ -737,7 +737,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08096266493471405</v>
+        <v>-0.07028726428208364</v>
       </c>
       <c r="C9">
         <v>0.09657169854192199</v>
@@ -781,7 +781,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.07723008918389183</v>
+        <v>0.06559350788852032</v>
       </c>
       <c r="C10">
         <v>-0.02109617420717148</v>
@@ -825,7 +825,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1510477846896381</v>
+        <v>0.07359892647541673</v>
       </c>
       <c r="C11">
         <v>-0.03779534862855197</v>
@@ -869,7 +869,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.06790307946415082</v>
+        <v>-0.06826462012334182</v>
       </c>
       <c r="C12">
         <v>0.04802500255917358</v>
@@ -913,7 +913,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.07350566084732679</v>
+        <v>0.03826994240463905</v>
       </c>
       <c r="C13">
         <v>0.006474357331293395</v>
@@ -957,7 +957,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.3952229613793843</v>
+        <v>0.05534716907154695</v>
       </c>
       <c r="C14">
         <v>0.06839736194028714</v>
@@ -1001,7 +1001,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.133508310383175</v>
+        <v>-0.008456246078771197</v>
       </c>
       <c r="C15">
         <v>0.05532713645521843</v>

--- a/WorkingFolder/Tables/corrM.xlsx
+++ b/WorkingFolder/Tables/corrM.xlsx
@@ -471,40 +471,40 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.4739381494412931</v>
+        <v>-0.6308995147500133</v>
       </c>
       <c r="D2">
-        <v>0.1382547059950641</v>
+        <v>0.0347600473387599</v>
       </c>
       <c r="E2">
-        <v>0.09155845137439581</v>
+        <v>0.03431866192840193</v>
       </c>
       <c r="G2">
-        <v>0.03335360499461792</v>
+        <v>-0.02527535427880465</v>
       </c>
       <c r="H2">
-        <v>0.1328582935888218</v>
+        <v>-0.3848572087141396</v>
       </c>
       <c r="I2">
-        <v>-0.07028726428208364</v>
+        <v>0.07613113137254446</v>
       </c>
       <c r="J2">
-        <v>0.06559350788852032</v>
+        <v>0.09692859617640064</v>
       </c>
       <c r="K2">
-        <v>0.07359892647541673</v>
+        <v>0.1457023439347263</v>
       </c>
       <c r="L2">
-        <v>-0.06826462012334182</v>
+        <v>0.06131781591624236</v>
       </c>
       <c r="M2">
-        <v>0.03826994240463905</v>
+        <v>0.06612057560974671</v>
       </c>
       <c r="N2">
-        <v>0.05534716907154695</v>
+        <v>-0.3919766247436938</v>
       </c>
       <c r="O2">
-        <v>-0.008456246078771197</v>
+        <v>0.1208259260153849</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -512,43 +512,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.4739381494412931</v>
+        <v>-0.6308995147500133</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.05832643982846182</v>
+        <v>0.07440478395551647</v>
       </c>
       <c r="E3">
-        <v>-0.0754838018301929</v>
+        <v>-0.06986646035450562</v>
       </c>
       <c r="G3">
-        <v>-0.0631266661179027</v>
+        <v>-0.06051795811232875</v>
       </c>
       <c r="H3">
-        <v>0.1050650681005624</v>
+        <v>0.1143498427673656</v>
       </c>
       <c r="I3">
-        <v>0.09657169854192199</v>
+        <v>0.09527665589281313</v>
       </c>
       <c r="J3">
-        <v>-0.02109617420717148</v>
+        <v>-0.01151755191354742</v>
       </c>
       <c r="K3">
-        <v>-0.03779534862855197</v>
+        <v>-0.02914244125909981</v>
       </c>
       <c r="L3">
-        <v>0.04802500255917358</v>
+        <v>0.04876962339280161</v>
       </c>
       <c r="M3">
-        <v>0.006474357331293395</v>
+        <v>0.01742559811962423</v>
       </c>
       <c r="N3">
-        <v>0.06839736194028714</v>
+        <v>0.06934592894886464</v>
       </c>
       <c r="O3">
-        <v>0.05532713645521843</v>
+        <v>0.06306186227928907</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -556,43 +556,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1382547059950641</v>
+        <v>0.0347600473387599</v>
       </c>
       <c r="C4">
-        <v>0.05832643982846182</v>
+        <v>0.07440478395551647</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.3431555244853599</v>
+        <v>0.3456618958283406</v>
       </c>
       <c r="G4">
-        <v>0.3276373550778249</v>
+        <v>0.3269328383725711</v>
       </c>
       <c r="H4">
-        <v>0.4213200995525801</v>
+        <v>0.3958692142618715</v>
       </c>
       <c r="I4">
-        <v>0.04141815857952905</v>
+        <v>0.03844707986648056</v>
       </c>
       <c r="J4">
-        <v>0.8103823631104983</v>
+        <v>0.8041894500608463</v>
       </c>
       <c r="K4">
-        <v>0.1476349960339937</v>
+        <v>0.1418704476126033</v>
       </c>
       <c r="L4">
-        <v>0.0131102444467642</v>
+        <v>-0.01463024890903251</v>
       </c>
       <c r="M4">
-        <v>0.06497831731307652</v>
+        <v>0.05679644052597838</v>
       </c>
       <c r="N4">
-        <v>0.3885129802655883</v>
+        <v>0.3661331865400339</v>
       </c>
       <c r="O4">
-        <v>0.04475623143502646</v>
+        <v>0.04245051279411372</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -600,43 +600,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.09155845137439581</v>
+        <v>0.03431866192840193</v>
       </c>
       <c r="C5">
-        <v>-0.0754838018301929</v>
+        <v>-0.06986646035450562</v>
       </c>
       <c r="D5">
-        <v>0.3431555244853599</v>
+        <v>0.3456618958283406</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9523688076327922</v>
+        <v>0.952956949937701</v>
       </c>
       <c r="H5">
-        <v>0.3625581107585766</v>
+        <v>0.3616315137833193</v>
       </c>
       <c r="I5">
-        <v>0.3059900599582341</v>
+        <v>0.3244402953268535</v>
       </c>
       <c r="J5">
-        <v>0.6233179895144512</v>
+        <v>0.6315695168996384</v>
       </c>
       <c r="K5">
-        <v>0.05492273934537402</v>
+        <v>0.06432798670309411</v>
       </c>
       <c r="L5">
-        <v>-0.1023778155428589</v>
+        <v>-0.09781173102871583</v>
       </c>
       <c r="M5">
-        <v>-0.2063547022948433</v>
+        <v>-0.1980138146036305</v>
       </c>
       <c r="N5">
-        <v>0.4092185232362692</v>
+        <v>0.4101233346279459</v>
       </c>
       <c r="O5">
-        <v>0.08503639172920516</v>
+        <v>0.09082176799679093</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -649,43 +649,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.03335360499461792</v>
+        <v>-0.02527535427880465</v>
       </c>
       <c r="C7">
-        <v>-0.0631266661179027</v>
+        <v>-0.06051795811232875</v>
       </c>
       <c r="D7">
-        <v>0.3276373550778249</v>
+        <v>0.3269328383725711</v>
       </c>
       <c r="E7">
-        <v>0.9523688076327922</v>
+        <v>0.952956949937701</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.3136523878511234</v>
+        <v>0.3122748691730542</v>
       </c>
       <c r="I7">
-        <v>0.3752829254073948</v>
+        <v>0.3819806403851467</v>
       </c>
       <c r="J7">
-        <v>0.5930922341227344</v>
+        <v>0.6010659765620737</v>
       </c>
       <c r="K7">
-        <v>0.1794893739428917</v>
+        <v>0.1802842195832685</v>
       </c>
       <c r="L7">
-        <v>-0.04343003116922679</v>
+        <v>-0.0427452430127298</v>
       </c>
       <c r="M7">
-        <v>-0.07525518461398059</v>
+        <v>-0.07627511032712242</v>
       </c>
       <c r="N7">
-        <v>0.3865441861114098</v>
+        <v>0.3858841094161588</v>
       </c>
       <c r="O7">
-        <v>0.1480886288471302</v>
+        <v>0.1521262490988143</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -693,43 +693,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1328582935888218</v>
+        <v>-0.3848572087141396</v>
       </c>
       <c r="C8">
-        <v>0.1050650681005624</v>
+        <v>0.1143498427673656</v>
       </c>
       <c r="D8">
-        <v>0.4213200995525801</v>
+        <v>0.3958692142618715</v>
       </c>
       <c r="E8">
-        <v>0.3625581107585766</v>
+        <v>0.3616315137833193</v>
       </c>
       <c r="G8">
-        <v>0.3136523878511234</v>
+        <v>0.3122748691730542</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>-0.1948249654242328</v>
+        <v>-0.2083907738613129</v>
       </c>
       <c r="J8">
-        <v>0.467504143717361</v>
+        <v>0.445985760966529</v>
       </c>
       <c r="K8">
-        <v>-0.1364285340708209</v>
+        <v>-0.1506489769386493</v>
       </c>
       <c r="L8">
-        <v>-0.3168890332429894</v>
+        <v>-0.3230280538554612</v>
       </c>
       <c r="M8">
-        <v>-0.209750275801892</v>
+        <v>-0.225486848726541</v>
       </c>
       <c r="N8">
-        <v>0.9107161713345043</v>
+        <v>0.9082083413765707</v>
       </c>
       <c r="O8">
-        <v>-0.1549097937416665</v>
+        <v>-0.1723749541018063</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -737,43 +737,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.07028726428208364</v>
+        <v>0.07613113137254446</v>
       </c>
       <c r="C9">
-        <v>0.09657169854192199</v>
+        <v>0.09527665589281313</v>
       </c>
       <c r="D9">
-        <v>0.04141815857952905</v>
+        <v>0.03844707986648056</v>
       </c>
       <c r="E9">
-        <v>0.3059900599582341</v>
+        <v>0.3244402953268535</v>
       </c>
       <c r="G9">
-        <v>0.3752829254073948</v>
+        <v>0.3819806403851467</v>
       </c>
       <c r="H9">
-        <v>-0.1948249654242328</v>
+        <v>-0.2083907738613129</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.2010322454598295</v>
+        <v>0.1987560697275382</v>
       </c>
       <c r="K9">
-        <v>0.6540495935210239</v>
+        <v>0.6522674128189277</v>
       </c>
       <c r="L9">
-        <v>0.1159182946744949</v>
+        <v>0.114092003527871</v>
       </c>
       <c r="M9">
-        <v>0.4980504153333022</v>
+        <v>0.4944986209532007</v>
       </c>
       <c r="N9">
-        <v>-0.1590082426307712</v>
+        <v>-0.1579486423221279</v>
       </c>
       <c r="O9">
-        <v>0.7372261010869084</v>
+        <v>0.7403132706269152</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -781,43 +781,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.06559350788852032</v>
+        <v>0.09692859617640064</v>
       </c>
       <c r="C10">
-        <v>-0.02109617420717148</v>
+        <v>-0.01151755191354742</v>
       </c>
       <c r="D10">
-        <v>0.8103823631104983</v>
+        <v>0.8041894500608463</v>
       </c>
       <c r="E10">
-        <v>0.6233179895144512</v>
+        <v>0.6315695168996384</v>
       </c>
       <c r="G10">
-        <v>0.5930922341227344</v>
+        <v>0.6010659765620737</v>
       </c>
       <c r="H10">
-        <v>0.467504143717361</v>
+        <v>0.445985760966529</v>
       </c>
       <c r="I10">
-        <v>0.2010322454598295</v>
+        <v>0.1987560697275382</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.2563566228924163</v>
+        <v>0.2525430715716202</v>
       </c>
       <c r="L10">
-        <v>-0.1162855927218849</v>
+        <v>-0.1349869902559086</v>
       </c>
       <c r="M10">
-        <v>0.06405451996643971</v>
+        <v>0.05601955201777537</v>
       </c>
       <c r="N10">
-        <v>0.5323853416555185</v>
+        <v>0.5188514403663723</v>
       </c>
       <c r="O10">
-        <v>0.1879624126458286</v>
+        <v>0.1893413854013475</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -825,43 +825,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.07359892647541673</v>
+        <v>0.1457023439347263</v>
       </c>
       <c r="C11">
-        <v>-0.03779534862855197</v>
+        <v>-0.02914244125909981</v>
       </c>
       <c r="D11">
-        <v>0.1476349960339937</v>
+        <v>0.1418704476126033</v>
       </c>
       <c r="E11">
-        <v>0.05492273934537402</v>
+        <v>0.06432798670309411</v>
       </c>
       <c r="G11">
-        <v>0.1794893739428917</v>
+        <v>0.1802842195832685</v>
       </c>
       <c r="H11">
-        <v>-0.1364285340708209</v>
+        <v>-0.1506489769386493</v>
       </c>
       <c r="I11">
-        <v>0.6540495935210239</v>
+        <v>0.6522674128189277</v>
       </c>
       <c r="J11">
-        <v>0.2563566228924163</v>
+        <v>0.2525430715716202</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.132869753539076</v>
+        <v>0.1177035147288679</v>
       </c>
       <c r="M11">
-        <v>0.9367570843187291</v>
+        <v>0.9363545332786369</v>
       </c>
       <c r="N11">
-        <v>-0.07426094774725336</v>
+        <v>-0.07480865452710381</v>
       </c>
       <c r="O11">
-        <v>0.7481932337625007</v>
+        <v>0.7459856900792554</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -869,43 +869,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.06826462012334182</v>
+        <v>0.06131781591624236</v>
       </c>
       <c r="C12">
-        <v>0.04802500255917358</v>
+        <v>0.04876962339280161</v>
       </c>
       <c r="D12">
-        <v>0.0131102444467642</v>
+        <v>-0.01463024890903251</v>
       </c>
       <c r="E12">
-        <v>-0.1023778155428589</v>
+        <v>-0.09781173102871583</v>
       </c>
       <c r="G12">
-        <v>-0.04343003116922679</v>
+        <v>-0.0427452430127298</v>
       </c>
       <c r="H12">
-        <v>-0.3168890332429894</v>
+        <v>-0.3230280538554612</v>
       </c>
       <c r="I12">
-        <v>0.1159182946744949</v>
+        <v>0.114092003527871</v>
       </c>
       <c r="J12">
-        <v>-0.1162855927218849</v>
+        <v>-0.1349869902559086</v>
       </c>
       <c r="K12">
-        <v>0.132869753539076</v>
+        <v>0.1177035147288679</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1481919603200007</v>
+        <v>0.1285181598510687</v>
       </c>
       <c r="N12">
-        <v>-0.2881926473568948</v>
+        <v>-0.2839976291441505</v>
       </c>
       <c r="O12">
-        <v>-0.01382495288800734</v>
+        <v>-0.02349543624334667</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -913,43 +913,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.03826994240463905</v>
+        <v>0.06612057560974671</v>
       </c>
       <c r="C13">
-        <v>0.006474357331293395</v>
+        <v>0.01742559811962423</v>
       </c>
       <c r="D13">
-        <v>0.06497831731307652</v>
+        <v>0.05679644052597838</v>
       </c>
       <c r="E13">
-        <v>-0.2063547022948433</v>
+        <v>-0.1980138146036305</v>
       </c>
       <c r="G13">
-        <v>-0.07525518461398059</v>
+        <v>-0.07627511032712242</v>
       </c>
       <c r="H13">
-        <v>-0.209750275801892</v>
+        <v>-0.225486848726541</v>
       </c>
       <c r="I13">
-        <v>0.4980504153333022</v>
+        <v>0.4944986209532007</v>
       </c>
       <c r="J13">
-        <v>0.06405451996643971</v>
+        <v>0.05601955201777537</v>
       </c>
       <c r="K13">
-        <v>0.9367570843187291</v>
+        <v>0.9363545332786369</v>
       </c>
       <c r="L13">
-        <v>0.1481919603200007</v>
+        <v>0.1285181598510687</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>-0.1757327523856179</v>
+        <v>-0.1775736450325868</v>
       </c>
       <c r="O13">
-        <v>0.6963261965790885</v>
+        <v>0.6916111360249111</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -957,43 +957,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.05534716907154695</v>
+        <v>-0.3919766247436938</v>
       </c>
       <c r="C14">
-        <v>0.06839736194028714</v>
+        <v>0.06934592894886464</v>
       </c>
       <c r="D14">
-        <v>0.3885129802655883</v>
+        <v>0.3661331865400339</v>
       </c>
       <c r="E14">
-        <v>0.4092185232362692</v>
+        <v>0.4101233346279459</v>
       </c>
       <c r="G14">
-        <v>0.3865441861114098</v>
+        <v>0.3858841094161588</v>
       </c>
       <c r="H14">
-        <v>0.9107161713345043</v>
+        <v>0.9082083413765707</v>
       </c>
       <c r="I14">
-        <v>-0.1590082426307712</v>
+        <v>-0.1579486423221279</v>
       </c>
       <c r="J14">
-        <v>0.5323853416555185</v>
+        <v>0.5188514403663723</v>
       </c>
       <c r="K14">
-        <v>-0.07426094774725336</v>
+        <v>-0.07480865452710381</v>
       </c>
       <c r="L14">
-        <v>-0.2881926473568948</v>
+        <v>-0.2839976291441505</v>
       </c>
       <c r="M14">
-        <v>-0.1757327523856179</v>
+        <v>-0.1775736450325868</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
-        <v>-0.1777835146856097</v>
+        <v>-0.1765699855808679</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1001,40 +1001,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.008456246078771197</v>
+        <v>0.1208259260153849</v>
       </c>
       <c r="C15">
-        <v>0.05532713645521843</v>
+        <v>0.06306186227928907</v>
       </c>
       <c r="D15">
-        <v>0.04475623143502646</v>
+        <v>0.04245051279411372</v>
       </c>
       <c r="E15">
-        <v>0.08503639172920516</v>
+        <v>0.09082176799679093</v>
       </c>
       <c r="G15">
-        <v>0.1480886288471302</v>
+        <v>0.1521262490988143</v>
       </c>
       <c r="H15">
-        <v>-0.1549097937416665</v>
+        <v>-0.1723749541018063</v>
       </c>
       <c r="I15">
-        <v>0.7372261010869084</v>
+        <v>0.7403132706269152</v>
       </c>
       <c r="J15">
-        <v>0.1879624126458286</v>
+        <v>0.1893413854013475</v>
       </c>
       <c r="K15">
-        <v>0.7481932337625007</v>
+        <v>0.7459856900792554</v>
       </c>
       <c r="L15">
-        <v>-0.01382495288800734</v>
+        <v>-0.02349543624334667</v>
       </c>
       <c r="M15">
-        <v>0.6963261965790885</v>
+        <v>0.6916111360249111</v>
       </c>
       <c r="N15">
-        <v>-0.1777835146856097</v>
+        <v>-0.1765699855808679</v>
       </c>
       <c r="O15">
         <v>1</v>

--- a/WorkingFolder/Tables/corrM.xlsx
+++ b/WorkingFolder/Tables/corrM.xlsx
@@ -471,40 +471,40 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.6308995147500133</v>
+        <v>-0.7047556261015829</v>
       </c>
       <c r="D2">
-        <v>0.0347600473387599</v>
+        <v>-0.04743437747629582</v>
       </c>
       <c r="E2">
-        <v>0.03431866192840193</v>
+        <v>0.02275530254629318</v>
       </c>
       <c r="G2">
-        <v>-0.02527535427880465</v>
+        <v>0.01984950350403698</v>
       </c>
       <c r="H2">
-        <v>-0.3848572087141396</v>
+        <v>-0.07735816559944704</v>
       </c>
       <c r="I2">
-        <v>0.07613113137254446</v>
+        <v>-0.1403061574535686</v>
       </c>
       <c r="J2">
-        <v>0.09692859617640064</v>
+        <v>-0.04671663250852448</v>
       </c>
       <c r="K2">
-        <v>0.1457023439347263</v>
+        <v>0.02676678503401862</v>
       </c>
       <c r="L2">
-        <v>0.06131781591624236</v>
+        <v>-0.07828834604569371</v>
       </c>
       <c r="M2">
-        <v>0.06612057560974671</v>
+        <v>0.004732017893733165</v>
       </c>
       <c r="N2">
-        <v>-0.3919766247436938</v>
+        <v>-0.08118141911519945</v>
       </c>
       <c r="O2">
-        <v>0.1208259260153849</v>
+        <v>-0.02673676715644199</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -512,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.6308995147500133</v>
+        <v>-0.7047556261015829</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -556,7 +556,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0347600473387599</v>
+        <v>-0.04743437747629582</v>
       </c>
       <c r="C4">
         <v>0.07440478395551647</v>
@@ -600,7 +600,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.03431866192840193</v>
+        <v>0.02275530254629318</v>
       </c>
       <c r="C5">
         <v>-0.06986646035450562</v>
@@ -649,7 +649,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.02527535427880465</v>
+        <v>0.01984950350403698</v>
       </c>
       <c r="C7">
         <v>-0.06051795811232875</v>
@@ -693,7 +693,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.3848572087141396</v>
+        <v>-0.07735816559944704</v>
       </c>
       <c r="C8">
         <v>0.1143498427673656</v>
@@ -737,7 +737,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07613113137254446</v>
+        <v>-0.1403061574535686</v>
       </c>
       <c r="C9">
         <v>0.09527665589281313</v>
@@ -781,7 +781,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09692859617640064</v>
+        <v>-0.04671663250852448</v>
       </c>
       <c r="C10">
         <v>-0.01151755191354742</v>
@@ -825,7 +825,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1457023439347263</v>
+        <v>0.02676678503401862</v>
       </c>
       <c r="C11">
         <v>-0.02914244125909981</v>
@@ -869,7 +869,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.06131781591624236</v>
+        <v>-0.07828834604569371</v>
       </c>
       <c r="C12">
         <v>0.04876962339280161</v>
@@ -913,7 +913,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.06612057560974671</v>
+        <v>0.004732017893733165</v>
       </c>
       <c r="C13">
         <v>0.01742559811962423</v>
@@ -957,7 +957,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.3919766247436938</v>
+        <v>-0.08118141911519945</v>
       </c>
       <c r="C14">
         <v>0.06934592894886464</v>
@@ -1001,7 +1001,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1208259260153849</v>
+        <v>-0.02673676715644199</v>
       </c>
       <c r="C15">
         <v>0.06306186227928907</v>

--- a/WorkingFolder/Tables/corrM.xlsx
+++ b/WorkingFolder/Tables/corrM.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>sp500</t>
   </si>
   <si>
     <t>VIXCLS</t>
+  </si>
+  <si>
+    <t>he</t>
   </si>
   <si>
     <t>expMed</t>
@@ -413,13 +416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,8 +465,11 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,572 +477,658 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.7047556261015829</v>
+        <v>-0.4739381494412931</v>
       </c>
       <c r="D2">
-        <v>-0.04743437747629582</v>
+        <v>0.01919449350673576</v>
       </c>
       <c r="E2">
-        <v>0.02275530254629318</v>
-      </c>
-      <c r="G2">
-        <v>0.01984950350403698</v>
+        <v>0.1353018484758965</v>
+      </c>
+      <c r="F2">
+        <v>0.09068930835106143</v>
       </c>
       <c r="H2">
-        <v>-0.07735816559944704</v>
+        <v>0.03676615276217467</v>
       </c>
       <c r="I2">
-        <v>-0.1403061574535686</v>
+        <v>0.1295600575368288</v>
       </c>
       <c r="J2">
-        <v>-0.04671663250852448</v>
+        <v>-0.0639152332538617</v>
       </c>
       <c r="K2">
-        <v>0.02676678503401862</v>
+        <v>0.05640457747579858</v>
       </c>
       <c r="L2">
-        <v>-0.07828834604569371</v>
+        <v>0.07053265861265146</v>
       </c>
       <c r="M2">
-        <v>0.004732017893733165</v>
+        <v>-0.07450578906792989</v>
       </c>
       <c r="N2">
-        <v>-0.08118141911519945</v>
+        <v>0.03265917347778867</v>
       </c>
       <c r="O2">
-        <v>-0.02673676715644199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.05382833303964853</v>
+      </c>
+      <c r="P2">
+        <v>-0.009843459895422251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.7047556261015829</v>
+        <v>-0.4739381494412931</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
+        <v>0.1023066948649261</v>
+      </c>
+      <c r="E3">
         <v>0.07440478395551647</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-0.06986646035450562</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-0.06051795811232875</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.1143498427673656</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.09527665589281313</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.01151755191354742</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-0.02914244125909981</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.04876962339280161</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.01742559811962423</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.06934592894886464</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.06306186227928907</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.04743437747629582</v>
+        <v>0.01919449350673576</v>
       </c>
       <c r="C4">
-        <v>0.07440478395551647</v>
+        <v>0.1023066948649261</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.3456618958283406</v>
-      </c>
-      <c r="G4">
-        <v>0.3269328383725711</v>
+        <v>0.0664357926112886</v>
+      </c>
+      <c r="F4">
+        <v>-0.1564425234255272</v>
       </c>
       <c r="H4">
-        <v>0.3958692142618715</v>
+        <v>-0.2202972830706263</v>
       </c>
       <c r="I4">
-        <v>0.03844707986648056</v>
+        <v>0.1483430455084005</v>
       </c>
       <c r="J4">
-        <v>0.8041894500608463</v>
+        <v>-0.2082208012276153</v>
       </c>
       <c r="K4">
-        <v>0.1418704476126033</v>
+        <v>-0.02102817223964968</v>
       </c>
       <c r="L4">
-        <v>-0.01463024890903251</v>
+        <v>-0.142443795964709</v>
       </c>
       <c r="M4">
-        <v>0.05679644052597838</v>
+        <v>0.1077856607014213</v>
       </c>
       <c r="N4">
-        <v>0.3661331865400339</v>
+        <v>-0.06144998064813029</v>
       </c>
       <c r="O4">
-        <v>0.04245051279411372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1362113189276979</v>
+      </c>
+      <c r="P4">
+        <v>-0.1364125383050702</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.02275530254629318</v>
+        <v>0.1353018484758965</v>
       </c>
       <c r="C5">
-        <v>-0.06986646035450562</v>
+        <v>0.07440478395551647</v>
       </c>
       <c r="D5">
+        <v>0.0664357926112886</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>0.3456618958283406</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.952956949937701</v>
-      </c>
       <c r="H5">
-        <v>0.3616315137833193</v>
+        <v>0.3269328383725711</v>
       </c>
       <c r="I5">
-        <v>0.3244402953268535</v>
+        <v>0.3958692142618715</v>
       </c>
       <c r="J5">
-        <v>0.6315695168996384</v>
+        <v>0.03844707986648056</v>
       </c>
       <c r="K5">
-        <v>0.06432798670309411</v>
+        <v>0.8041894500608463</v>
       </c>
       <c r="L5">
-        <v>-0.09781173102871583</v>
+        <v>0.1418704476126033</v>
       </c>
       <c r="M5">
-        <v>-0.1980138146036305</v>
+        <v>-0.01463024890903251</v>
       </c>
       <c r="N5">
-        <v>0.4101233346279459</v>
+        <v>0.05679644052597838</v>
       </c>
       <c r="O5">
-        <v>0.09082176799679093</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3661331865400339</v>
+      </c>
+      <c r="P5">
+        <v>0.04245051279411372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="B6">
+        <v>0.09068930835106143</v>
+      </c>
+      <c r="C6">
+        <v>-0.06986646035450562</v>
+      </c>
+      <c r="D6">
+        <v>-0.1564425234255272</v>
+      </c>
+      <c r="E6">
+        <v>0.3456618958283406</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0.952956949937701</v>
+      </c>
+      <c r="I6">
+        <v>0.3616315137833193</v>
+      </c>
+      <c r="J6">
+        <v>0.3244402953268535</v>
+      </c>
+      <c r="K6">
+        <v>0.6315695168996384</v>
+      </c>
+      <c r="L6">
+        <v>0.06432798670309411</v>
+      </c>
+      <c r="M6">
+        <v>-0.09781173102871583</v>
+      </c>
+      <c r="N6">
+        <v>-0.1980138146036305</v>
+      </c>
+      <c r="O6">
+        <v>0.4101233346279459</v>
+      </c>
+      <c r="P6">
+        <v>0.09082176799679093</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.01984950350403698</v>
-      </c>
-      <c r="C7">
-        <v>-0.06051795811232875</v>
-      </c>
-      <c r="D7">
-        <v>0.3269328383725711</v>
-      </c>
-      <c r="E7">
-        <v>0.952956949937701</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0.3122748691730542</v>
-      </c>
-      <c r="I7">
-        <v>0.3819806403851467</v>
-      </c>
-      <c r="J7">
-        <v>0.6010659765620737</v>
-      </c>
-      <c r="K7">
-        <v>0.1802842195832685</v>
-      </c>
-      <c r="L7">
-        <v>-0.0427452430127298</v>
-      </c>
-      <c r="M7">
-        <v>-0.07627511032712242</v>
-      </c>
-      <c r="N7">
-        <v>0.3858841094161588</v>
-      </c>
-      <c r="O7">
-        <v>0.1521262490988143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.07735816559944704</v>
+        <v>0.03676615276217467</v>
       </c>
       <c r="C8">
-        <v>0.1143498427673656</v>
+        <v>-0.06051795811232875</v>
       </c>
       <c r="D8">
-        <v>0.3958692142618715</v>
+        <v>-0.2202972830706263</v>
       </c>
       <c r="E8">
-        <v>0.3616315137833193</v>
-      </c>
-      <c r="G8">
+        <v>0.3269328383725711</v>
+      </c>
+      <c r="F8">
+        <v>0.952956949937701</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>0.3122748691730542</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>-0.2083907738613129</v>
-      </c>
       <c r="J8">
-        <v>0.445985760966529</v>
+        <v>0.3819806403851467</v>
       </c>
       <c r="K8">
-        <v>-0.1506489769386493</v>
+        <v>0.6010659765620737</v>
       </c>
       <c r="L8">
-        <v>-0.3230280538554612</v>
+        <v>0.1802842195832685</v>
       </c>
       <c r="M8">
-        <v>-0.225486848726541</v>
+        <v>-0.0427452430127298</v>
       </c>
       <c r="N8">
-        <v>0.9082083413765707</v>
+        <v>-0.07627511032712242</v>
       </c>
       <c r="O8">
-        <v>-0.1723749541018063</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.3858841094161588</v>
+      </c>
+      <c r="P8">
+        <v>0.1521262490988143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.1403061574535686</v>
+        <v>0.1295600575368288</v>
       </c>
       <c r="C9">
-        <v>0.09527665589281313</v>
+        <v>0.1143498427673656</v>
       </c>
       <c r="D9">
-        <v>0.03844707986648056</v>
+        <v>0.1483430455084005</v>
       </c>
       <c r="E9">
-        <v>0.3244402953268535</v>
-      </c>
-      <c r="G9">
-        <v>0.3819806403851467</v>
+        <v>0.3958692142618715</v>
+      </c>
+      <c r="F9">
+        <v>0.3616315137833193</v>
       </c>
       <c r="H9">
+        <v>0.3122748691730542</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
         <v>-0.2083907738613129</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0.1987560697275382</v>
-      </c>
       <c r="K9">
-        <v>0.6522674128189277</v>
+        <v>0.445985760966529</v>
       </c>
       <c r="L9">
-        <v>0.114092003527871</v>
+        <v>-0.1506489769386493</v>
       </c>
       <c r="M9">
-        <v>0.4944986209532007</v>
+        <v>-0.3230280538554612</v>
       </c>
       <c r="N9">
-        <v>-0.1579486423221279</v>
+        <v>-0.225486848726541</v>
       </c>
       <c r="O9">
-        <v>0.7403132706269152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.9082083413765707</v>
+      </c>
+      <c r="P9">
+        <v>-0.1723749541018063</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.04671663250852448</v>
+        <v>-0.0639152332538617</v>
       </c>
       <c r="C10">
-        <v>-0.01151755191354742</v>
+        <v>0.09527665589281313</v>
       </c>
       <c r="D10">
-        <v>0.8041894500608463</v>
+        <v>-0.2082208012276153</v>
       </c>
       <c r="E10">
-        <v>0.6315695168996384</v>
-      </c>
-      <c r="G10">
-        <v>0.6010659765620737</v>
+        <v>0.03844707986648056</v>
+      </c>
+      <c r="F10">
+        <v>0.3244402953268535</v>
       </c>
       <c r="H10">
-        <v>0.445985760966529</v>
+        <v>0.3819806403851467</v>
       </c>
       <c r="I10">
+        <v>-0.2083907738613129</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
         <v>0.1987560697275382</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>0.2525430715716202</v>
-      </c>
       <c r="L10">
-        <v>-0.1349869902559086</v>
+        <v>0.6522674128189277</v>
       </c>
       <c r="M10">
-        <v>0.05601955201777537</v>
+        <v>0.114092003527871</v>
       </c>
       <c r="N10">
-        <v>0.5188514403663723</v>
+        <v>0.4944986209532007</v>
       </c>
       <c r="O10">
-        <v>0.1893413854013475</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>-0.1579486423221279</v>
+      </c>
+      <c r="P10">
+        <v>0.7403132706269152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.02676678503401862</v>
+        <v>0.05640457747579858</v>
       </c>
       <c r="C11">
-        <v>-0.02914244125909981</v>
+        <v>-0.01151755191354742</v>
       </c>
       <c r="D11">
-        <v>0.1418704476126033</v>
+        <v>-0.02102817223964968</v>
       </c>
       <c r="E11">
-        <v>0.06432798670309411</v>
-      </c>
-      <c r="G11">
-        <v>0.1802842195832685</v>
+        <v>0.8041894500608463</v>
+      </c>
+      <c r="F11">
+        <v>0.6315695168996384</v>
       </c>
       <c r="H11">
-        <v>-0.1506489769386493</v>
+        <v>0.6010659765620737</v>
       </c>
       <c r="I11">
-        <v>0.6522674128189277</v>
+        <v>0.445985760966529</v>
       </c>
       <c r="J11">
+        <v>0.1987560697275382</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>0.2525430715716202</v>
       </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.1177035147288679</v>
-      </c>
       <c r="M11">
-        <v>0.9363545332786369</v>
+        <v>-0.1349869902559086</v>
       </c>
       <c r="N11">
-        <v>-0.07480865452710381</v>
+        <v>0.05601955201777537</v>
       </c>
       <c r="O11">
-        <v>0.7459856900792554</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.5188514403663723</v>
+      </c>
+      <c r="P11">
+        <v>0.1893413854013475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.07828834604569371</v>
+        <v>0.07053265861265146</v>
       </c>
       <c r="C12">
-        <v>0.04876962339280161</v>
+        <v>-0.02914244125909981</v>
       </c>
       <c r="D12">
-        <v>-0.01463024890903251</v>
+        <v>-0.142443795964709</v>
       </c>
       <c r="E12">
-        <v>-0.09781173102871583</v>
-      </c>
-      <c r="G12">
-        <v>-0.0427452430127298</v>
+        <v>0.1418704476126033</v>
+      </c>
+      <c r="F12">
+        <v>0.06432798670309411</v>
       </c>
       <c r="H12">
-        <v>-0.3230280538554612</v>
+        <v>0.1802842195832685</v>
       </c>
       <c r="I12">
-        <v>0.114092003527871</v>
+        <v>-0.1506489769386493</v>
       </c>
       <c r="J12">
-        <v>-0.1349869902559086</v>
+        <v>0.6522674128189277</v>
       </c>
       <c r="K12">
+        <v>0.2525430715716202</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
         <v>0.1177035147288679</v>
       </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.1285181598510687</v>
-      </c>
       <c r="N12">
-        <v>-0.2839976291441505</v>
+        <v>0.9363545332786369</v>
       </c>
       <c r="O12">
-        <v>-0.02349543624334667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>-0.07480865452710381</v>
+      </c>
+      <c r="P12">
+        <v>0.7459856900792554</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.004732017893733165</v>
+        <v>-0.07450578906792989</v>
       </c>
       <c r="C13">
-        <v>0.01742559811962423</v>
+        <v>0.04876962339280161</v>
       </c>
       <c r="D13">
-        <v>0.05679644052597838</v>
+        <v>0.1077856607014213</v>
       </c>
       <c r="E13">
-        <v>-0.1980138146036305</v>
-      </c>
-      <c r="G13">
-        <v>-0.07627511032712242</v>
+        <v>-0.01463024890903251</v>
+      </c>
+      <c r="F13">
+        <v>-0.09781173102871583</v>
       </c>
       <c r="H13">
-        <v>-0.225486848726541</v>
+        <v>-0.0427452430127298</v>
       </c>
       <c r="I13">
-        <v>0.4944986209532007</v>
+        <v>-0.3230280538554612</v>
       </c>
       <c r="J13">
-        <v>0.05601955201777537</v>
+        <v>0.114092003527871</v>
       </c>
       <c r="K13">
-        <v>0.9363545332786369</v>
+        <v>-0.1349869902559086</v>
       </c>
       <c r="L13">
+        <v>0.1177035147288679</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
         <v>0.1285181598510687</v>
       </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>-0.1775736450325868</v>
-      </c>
       <c r="O13">
-        <v>0.6916111360249111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>-0.2839976291441505</v>
+      </c>
+      <c r="P13">
+        <v>-0.02349543624334667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.08118141911519945</v>
+        <v>0.03265917347778867</v>
       </c>
       <c r="C14">
-        <v>0.06934592894886464</v>
+        <v>0.01742559811962423</v>
       </c>
       <c r="D14">
-        <v>0.3661331865400339</v>
+        <v>-0.06144998064813029</v>
       </c>
       <c r="E14">
-        <v>0.4101233346279459</v>
-      </c>
-      <c r="G14">
-        <v>0.3858841094161588</v>
+        <v>0.05679644052597838</v>
+      </c>
+      <c r="F14">
+        <v>-0.1980138146036305</v>
       </c>
       <c r="H14">
-        <v>0.9082083413765707</v>
+        <v>-0.07627511032712242</v>
       </c>
       <c r="I14">
-        <v>-0.1579486423221279</v>
+        <v>-0.225486848726541</v>
       </c>
       <c r="J14">
-        <v>0.5188514403663723</v>
+        <v>0.4944986209532007</v>
       </c>
       <c r="K14">
-        <v>-0.07480865452710381</v>
+        <v>0.05601955201777537</v>
       </c>
       <c r="L14">
-        <v>-0.2839976291441505</v>
+        <v>0.9363545332786369</v>
       </c>
       <c r="M14">
+        <v>0.1285181598510687</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
         <v>-0.1775736450325868</v>
       </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>-0.1765699855808679</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.6916111360249111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.02673676715644199</v>
+        <v>0.05382833303964853</v>
       </c>
       <c r="C15">
+        <v>0.06934592894886464</v>
+      </c>
+      <c r="D15">
+        <v>0.1362113189276979</v>
+      </c>
+      <c r="E15">
+        <v>0.3661331865400339</v>
+      </c>
+      <c r="F15">
+        <v>0.4101233346279459</v>
+      </c>
+      <c r="H15">
+        <v>0.3858841094161588</v>
+      </c>
+      <c r="I15">
+        <v>0.9082083413765707</v>
+      </c>
+      <c r="J15">
+        <v>-0.1579486423221279</v>
+      </c>
+      <c r="K15">
+        <v>0.5188514403663723</v>
+      </c>
+      <c r="L15">
+        <v>-0.07480865452710381</v>
+      </c>
+      <c r="M15">
+        <v>-0.2839976291441505</v>
+      </c>
+      <c r="N15">
+        <v>-0.1775736450325868</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>-0.1765699855808679</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>-0.009843459895422251</v>
+      </c>
+      <c r="C16">
         <v>0.06306186227928907</v>
       </c>
-      <c r="D15">
+      <c r="D16">
+        <v>-0.1364125383050702</v>
+      </c>
+      <c r="E16">
         <v>0.04245051279411372</v>
       </c>
-      <c r="E15">
+      <c r="F16">
         <v>0.09082176799679093</v>
       </c>
-      <c r="G15">
+      <c r="H16">
         <v>0.1521262490988143</v>
       </c>
-      <c r="H15">
+      <c r="I16">
         <v>-0.1723749541018063</v>
       </c>
-      <c r="I15">
+      <c r="J16">
         <v>0.7403132706269152</v>
       </c>
-      <c r="J15">
+      <c r="K16">
         <v>0.1893413854013475</v>
       </c>
-      <c r="K15">
+      <c r="L16">
         <v>0.7459856900792554</v>
       </c>
-      <c r="L15">
+      <c r="M16">
         <v>-0.02349543624334667</v>
       </c>
-      <c r="M15">
+      <c r="N16">
         <v>0.6916111360249111</v>
       </c>
-      <c r="N15">
+      <c r="O16">
         <v>-0.1765699855808679</v>
       </c>
-      <c r="O15">
+      <c r="P16">
         <v>1</v>
       </c>
     </row>

--- a/WorkingFolder/Tables/corrM.xlsx
+++ b/WorkingFolder/Tables/corrM.xlsx
@@ -477,43 +477,43 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.4739381494412931</v>
+        <v>-0.7047556261015829</v>
       </c>
       <c r="D2">
-        <v>0.01919449350673576</v>
+        <v>-0.1005524227762842</v>
       </c>
       <c r="E2">
-        <v>0.1353018484758965</v>
+        <v>-0.04743437747629582</v>
       </c>
       <c r="F2">
-        <v>0.09068930835106143</v>
+        <v>0.02275530254629318</v>
       </c>
       <c r="H2">
-        <v>0.03676615276217467</v>
+        <v>0.01984950350403698</v>
       </c>
       <c r="I2">
-        <v>0.1295600575368288</v>
+        <v>-0.07735816559944704</v>
       </c>
       <c r="J2">
-        <v>-0.0639152332538617</v>
+        <v>-0.1403061574535686</v>
       </c>
       <c r="K2">
-        <v>0.05640457747579858</v>
+        <v>-0.04671663250852448</v>
       </c>
       <c r="L2">
-        <v>0.07053265861265146</v>
+        <v>0.02676678503401862</v>
       </c>
       <c r="M2">
-        <v>-0.07450578906792989</v>
+        <v>-0.07828834604569371</v>
       </c>
       <c r="N2">
-        <v>0.03265917347778867</v>
+        <v>0.004732017893733165</v>
       </c>
       <c r="O2">
-        <v>0.05382833303964853</v>
+        <v>-0.08118141911519945</v>
       </c>
       <c r="P2">
-        <v>-0.009843459895422251</v>
+        <v>-0.02673676715644199</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -521,13 +521,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.4739381494412931</v>
+        <v>-0.7047556261015829</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.1023066948649261</v>
+        <v>0.140323046109499</v>
       </c>
       <c r="E3">
         <v>0.07440478395551647</v>
@@ -568,46 +568,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01919449350673576</v>
+        <v>-0.1005524227762842</v>
       </c>
       <c r="C4">
-        <v>0.1023066948649261</v>
+        <v>0.140323046109499</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.0664357926112886</v>
+        <v>0.2912621032440872</v>
       </c>
       <c r="F4">
-        <v>-0.1564425234255272</v>
+        <v>-0.1478776120475858</v>
       </c>
       <c r="H4">
-        <v>-0.2202972830706263</v>
+        <v>-0.1909117508911267</v>
       </c>
       <c r="I4">
-        <v>0.1483430455084005</v>
+        <v>0.3510319043220564</v>
       </c>
       <c r="J4">
-        <v>-0.2082208012276153</v>
+        <v>-0.4814546273730555</v>
       </c>
       <c r="K4">
-        <v>-0.02102817223964968</v>
+        <v>0.03448084153235571</v>
       </c>
       <c r="L4">
-        <v>-0.142443795964709</v>
+        <v>-0.3926606960539389</v>
       </c>
       <c r="M4">
-        <v>0.1077856607014213</v>
+        <v>0.0682481025881473</v>
       </c>
       <c r="N4">
-        <v>-0.06144998064813029</v>
+        <v>-0.2865747988606426</v>
       </c>
       <c r="O4">
-        <v>0.1362113189276979</v>
+        <v>0.2750477972531822</v>
       </c>
       <c r="P4">
-        <v>-0.1364125383050702</v>
+        <v>-0.4368722050314565</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -615,13 +615,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1353018484758965</v>
+        <v>-0.04743437747629582</v>
       </c>
       <c r="C5">
         <v>0.07440478395551647</v>
       </c>
       <c r="D5">
-        <v>0.0664357926112886</v>
+        <v>0.2912621032440872</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -662,13 +662,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09068930835106143</v>
+        <v>0.02275530254629318</v>
       </c>
       <c r="C6">
         <v>-0.06986646035450562</v>
       </c>
       <c r="D6">
-        <v>-0.1564425234255272</v>
+        <v>-0.1478776120475858</v>
       </c>
       <c r="E6">
         <v>0.3456618958283406</v>
@@ -714,13 +714,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.03676615276217467</v>
+        <v>0.01984950350403698</v>
       </c>
       <c r="C8">
         <v>-0.06051795811232875</v>
       </c>
       <c r="D8">
-        <v>-0.2202972830706263</v>
+        <v>-0.1909117508911267</v>
       </c>
       <c r="E8">
         <v>0.3269328383725711</v>
@@ -761,13 +761,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1295600575368288</v>
+        <v>-0.07735816559944704</v>
       </c>
       <c r="C9">
         <v>0.1143498427673656</v>
       </c>
       <c r="D9">
-        <v>0.1483430455084005</v>
+        <v>0.3510319043220564</v>
       </c>
       <c r="E9">
         <v>0.3958692142618715</v>
@@ -808,13 +808,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.0639152332538617</v>
+        <v>-0.1403061574535686</v>
       </c>
       <c r="C10">
         <v>0.09527665589281313</v>
       </c>
       <c r="D10">
-        <v>-0.2082208012276153</v>
+        <v>-0.4814546273730555</v>
       </c>
       <c r="E10">
         <v>0.03844707986648056</v>
@@ -855,13 +855,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.05640457747579858</v>
+        <v>-0.04671663250852448</v>
       </c>
       <c r="C11">
         <v>-0.01151755191354742</v>
       </c>
       <c r="D11">
-        <v>-0.02102817223964968</v>
+        <v>0.03448084153235571</v>
       </c>
       <c r="E11">
         <v>0.8041894500608463</v>
@@ -902,13 +902,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.07053265861265146</v>
+        <v>0.02676678503401862</v>
       </c>
       <c r="C12">
         <v>-0.02914244125909981</v>
       </c>
       <c r="D12">
-        <v>-0.142443795964709</v>
+        <v>-0.3926606960539389</v>
       </c>
       <c r="E12">
         <v>0.1418704476126033</v>
@@ -949,13 +949,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.07450578906792989</v>
+        <v>-0.07828834604569371</v>
       </c>
       <c r="C13">
         <v>0.04876962339280161</v>
       </c>
       <c r="D13">
-        <v>0.1077856607014213</v>
+        <v>0.0682481025881473</v>
       </c>
       <c r="E13">
         <v>-0.01463024890903251</v>
@@ -996,13 +996,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.03265917347778867</v>
+        <v>0.004732017893733165</v>
       </c>
       <c r="C14">
         <v>0.01742559811962423</v>
       </c>
       <c r="D14">
-        <v>-0.06144998064813029</v>
+        <v>-0.2865747988606426</v>
       </c>
       <c r="E14">
         <v>0.05679644052597838</v>
@@ -1043,13 +1043,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.05382833303964853</v>
+        <v>-0.08118141911519945</v>
       </c>
       <c r="C15">
         <v>0.06934592894886464</v>
       </c>
       <c r="D15">
-        <v>0.1362113189276979</v>
+        <v>0.2750477972531822</v>
       </c>
       <c r="E15">
         <v>0.3661331865400339</v>
@@ -1090,13 +1090,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.009843459895422251</v>
+        <v>-0.02673676715644199</v>
       </c>
       <c r="C16">
         <v>0.06306186227928907</v>
       </c>
       <c r="D16">
-        <v>-0.1364125383050702</v>
+        <v>-0.4368722050314565</v>
       </c>
       <c r="E16">
         <v>0.04245051279411372</v>

--- a/WorkingFolder/Tables/corrM.xlsx
+++ b/WorkingFolder/Tables/corrM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>sp500</t>
   </si>
@@ -31,9 +31,6 @@
     <t>iqrMed</t>
   </si>
   <si>
-    <t>skewMed</t>
-  </si>
-  <si>
     <t>varMed</t>
   </si>
   <si>
@@ -47,9 +44,6 @@
   </si>
   <si>
     <t>iqrMean</t>
-  </si>
-  <si>
-    <t>skewMean</t>
   </si>
   <si>
     <t>varMean</t>
@@ -416,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,14 +456,8 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,35 +476,32 @@
       <c r="F2">
         <v>0.02275530254629318</v>
       </c>
+      <c r="G2">
+        <v>0.01984950350403698</v>
+      </c>
       <c r="H2">
-        <v>0.01984950350403698</v>
+        <v>-0.07735816559944704</v>
       </c>
       <c r="I2">
-        <v>-0.07735816559944704</v>
+        <v>-0.1403061574535686</v>
       </c>
       <c r="J2">
-        <v>-0.1403061574535686</v>
+        <v>-0.04671663250852448</v>
       </c>
       <c r="K2">
-        <v>-0.04671663250852448</v>
+        <v>0.02676678503401862</v>
       </c>
       <c r="L2">
-        <v>0.02676678503401862</v>
+        <v>0.004732017893733165</v>
       </c>
       <c r="M2">
-        <v>-0.07828834604569371</v>
+        <v>-0.08118141911519945</v>
       </c>
       <c r="N2">
-        <v>0.004732017893733165</v>
-      </c>
-      <c r="O2">
-        <v>-0.08118141911519945</v>
-      </c>
-      <c r="P2">
         <v>-0.02673676715644199</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -535,35 +520,32 @@
       <c r="F3">
         <v>-0.06986646035450562</v>
       </c>
+      <c r="G3">
+        <v>-0.06051795811232875</v>
+      </c>
       <c r="H3">
-        <v>-0.06051795811232875</v>
+        <v>0.1143498427673656</v>
       </c>
       <c r="I3">
-        <v>0.1143498427673656</v>
+        <v>0.09527665589281313</v>
       </c>
       <c r="J3">
-        <v>0.09527665589281313</v>
+        <v>-0.01151755191354742</v>
       </c>
       <c r="K3">
-        <v>-0.01151755191354742</v>
+        <v>-0.02914244125909981</v>
       </c>
       <c r="L3">
-        <v>-0.02914244125909981</v>
+        <v>0.01742559811962423</v>
       </c>
       <c r="M3">
-        <v>0.04876962339280161</v>
+        <v>0.06934592894886464</v>
       </c>
       <c r="N3">
-        <v>0.01742559811962423</v>
-      </c>
-      <c r="O3">
-        <v>0.06934592894886464</v>
-      </c>
-      <c r="P3">
         <v>0.06306186227928907</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -582,35 +564,32 @@
       <c r="F4">
         <v>-0.1478776120475858</v>
       </c>
+      <c r="G4">
+        <v>-0.1909117508911267</v>
+      </c>
       <c r="H4">
-        <v>-0.1909117508911267</v>
+        <v>0.3510319043220564</v>
       </c>
       <c r="I4">
-        <v>0.3510319043220564</v>
+        <v>-0.4814546273730555</v>
       </c>
       <c r="J4">
-        <v>-0.4814546273730555</v>
+        <v>0.03448084153235571</v>
       </c>
       <c r="K4">
-        <v>0.03448084153235571</v>
+        <v>-0.3926606960539389</v>
       </c>
       <c r="L4">
-        <v>-0.3926606960539389</v>
+        <v>-0.2865747988606426</v>
       </c>
       <c r="M4">
-        <v>0.0682481025881473</v>
+        <v>0.2750477972531822</v>
       </c>
       <c r="N4">
-        <v>-0.2865747988606426</v>
-      </c>
-      <c r="O4">
-        <v>0.2750477972531822</v>
-      </c>
-      <c r="P4">
         <v>-0.4368722050314565</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -629,35 +608,32 @@
       <c r="F5">
         <v>0.3456618958283406</v>
       </c>
+      <c r="G5">
+        <v>0.3269328383725711</v>
+      </c>
       <c r="H5">
-        <v>0.3269328383725711</v>
+        <v>0.3958692142618715</v>
       </c>
       <c r="I5">
-        <v>0.3958692142618715</v>
+        <v>0.03844707986648056</v>
       </c>
       <c r="J5">
-        <v>0.03844707986648056</v>
+        <v>0.8041894500608463</v>
       </c>
       <c r="K5">
-        <v>0.8041894500608463</v>
+        <v>0.1418704476126033</v>
       </c>
       <c r="L5">
-        <v>0.1418704476126033</v>
+        <v>0.05679644052597838</v>
       </c>
       <c r="M5">
-        <v>-0.01463024890903251</v>
+        <v>0.3661331865400339</v>
       </c>
       <c r="N5">
-        <v>0.05679644052597838</v>
-      </c>
-      <c r="O5">
-        <v>0.3661331865400339</v>
-      </c>
-      <c r="P5">
         <v>0.04245051279411372</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -676,459 +652,380 @@
       <c r="F6">
         <v>1</v>
       </c>
+      <c r="G6">
+        <v>0.952956949937701</v>
+      </c>
       <c r="H6">
-        <v>0.952956949937701</v>
+        <v>0.3616315137833193</v>
       </c>
       <c r="I6">
-        <v>0.3616315137833193</v>
+        <v>0.3244402953268535</v>
       </c>
       <c r="J6">
-        <v>0.3244402953268535</v>
+        <v>0.6315695168996384</v>
       </c>
       <c r="K6">
-        <v>0.6315695168996384</v>
+        <v>0.06432798670309411</v>
       </c>
       <c r="L6">
-        <v>0.06432798670309411</v>
+        <v>-0.1980138146036305</v>
       </c>
       <c r="M6">
-        <v>-0.09781173102871583</v>
+        <v>0.4101233346279459</v>
       </c>
       <c r="N6">
-        <v>-0.1980138146036305</v>
-      </c>
-      <c r="O6">
-        <v>0.4101233346279459</v>
-      </c>
-      <c r="P6">
         <v>0.09082176799679093</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="B7">
+        <v>0.01984950350403698</v>
+      </c>
+      <c r="C7">
+        <v>-0.06051795811232875</v>
+      </c>
+      <c r="D7">
+        <v>-0.1909117508911267</v>
+      </c>
+      <c r="E7">
+        <v>0.3269328383725711</v>
+      </c>
+      <c r="F7">
+        <v>0.952956949937701</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0.3122748691730542</v>
+      </c>
+      <c r="I7">
+        <v>0.3819806403851467</v>
+      </c>
+      <c r="J7">
+        <v>0.6010659765620737</v>
+      </c>
+      <c r="K7">
+        <v>0.1802842195832685</v>
+      </c>
+      <c r="L7">
+        <v>-0.07627511032712242</v>
+      </c>
+      <c r="M7">
+        <v>0.3858841094161588</v>
+      </c>
+      <c r="N7">
+        <v>0.1521262490988143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.01984950350403698</v>
+        <v>-0.07735816559944704</v>
       </c>
       <c r="C8">
-        <v>-0.06051795811232875</v>
+        <v>0.1143498427673656</v>
       </c>
       <c r="D8">
-        <v>-0.1909117508911267</v>
+        <v>0.3510319043220564</v>
       </c>
       <c r="E8">
-        <v>0.3269328383725711</v>
+        <v>0.3958692142618715</v>
       </c>
       <c r="F8">
-        <v>0.952956949937701</v>
+        <v>0.3616315137833193</v>
+      </c>
+      <c r="G8">
+        <v>0.3122748691730542</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.3122748691730542</v>
+        <v>-0.2083907738613129</v>
       </c>
       <c r="J8">
-        <v>0.3819806403851467</v>
+        <v>0.445985760966529</v>
       </c>
       <c r="K8">
-        <v>0.6010659765620737</v>
+        <v>-0.1506489769386493</v>
       </c>
       <c r="L8">
-        <v>0.1802842195832685</v>
+        <v>-0.225486848726541</v>
       </c>
       <c r="M8">
-        <v>-0.0427452430127298</v>
+        <v>0.9082083413765707</v>
       </c>
       <c r="N8">
-        <v>-0.07627511032712242</v>
-      </c>
-      <c r="O8">
-        <v>0.3858841094161588</v>
-      </c>
-      <c r="P8">
-        <v>0.1521262490988143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>-0.1723749541018063</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.07735816559944704</v>
+        <v>-0.1403061574535686</v>
       </c>
       <c r="C9">
-        <v>0.1143498427673656</v>
+        <v>0.09527665589281313</v>
       </c>
       <c r="D9">
-        <v>0.3510319043220564</v>
+        <v>-0.4814546273730555</v>
       </c>
       <c r="E9">
-        <v>0.3958692142618715</v>
+        <v>0.03844707986648056</v>
       </c>
       <c r="F9">
-        <v>0.3616315137833193</v>
+        <v>0.3244402953268535</v>
+      </c>
+      <c r="G9">
+        <v>0.3819806403851467</v>
       </c>
       <c r="H9">
-        <v>0.3122748691730542</v>
+        <v>-0.2083907738613129</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>-0.2083907738613129</v>
+        <v>0.1987560697275382</v>
       </c>
       <c r="K9">
-        <v>0.445985760966529</v>
+        <v>0.6522674128189277</v>
       </c>
       <c r="L9">
-        <v>-0.1506489769386493</v>
+        <v>0.4944986209532007</v>
       </c>
       <c r="M9">
-        <v>-0.3230280538554612</v>
+        <v>-0.1579486423221279</v>
       </c>
       <c r="N9">
-        <v>-0.225486848726541</v>
-      </c>
-      <c r="O9">
-        <v>0.9082083413765707</v>
-      </c>
-      <c r="P9">
-        <v>-0.1723749541018063</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>0.7403132706269152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.1403061574535686</v>
+        <v>-0.04671663250852448</v>
       </c>
       <c r="C10">
-        <v>0.09527665589281313</v>
+        <v>-0.01151755191354742</v>
       </c>
       <c r="D10">
-        <v>-0.4814546273730555</v>
+        <v>0.03448084153235571</v>
       </c>
       <c r="E10">
-        <v>0.03844707986648056</v>
+        <v>0.8041894500608463</v>
       </c>
       <c r="F10">
-        <v>0.3244402953268535</v>
+        <v>0.6315695168996384</v>
+      </c>
+      <c r="G10">
+        <v>0.6010659765620737</v>
       </c>
       <c r="H10">
-        <v>0.3819806403851467</v>
+        <v>0.445985760966529</v>
       </c>
       <c r="I10">
-        <v>-0.2083907738613129</v>
+        <v>0.1987560697275382</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.1987560697275382</v>
+        <v>0.2525430715716202</v>
       </c>
       <c r="L10">
-        <v>0.6522674128189277</v>
+        <v>0.05601955201777537</v>
       </c>
       <c r="M10">
-        <v>0.114092003527871</v>
+        <v>0.5188514403663723</v>
       </c>
       <c r="N10">
-        <v>0.4944986209532007</v>
-      </c>
-      <c r="O10">
-        <v>-0.1579486423221279</v>
-      </c>
-      <c r="P10">
-        <v>0.7403132706269152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>0.1893413854013475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.04671663250852448</v>
+        <v>0.02676678503401862</v>
       </c>
       <c r="C11">
-        <v>-0.01151755191354742</v>
+        <v>-0.02914244125909981</v>
       </c>
       <c r="D11">
-        <v>0.03448084153235571</v>
+        <v>-0.3926606960539389</v>
       </c>
       <c r="E11">
-        <v>0.8041894500608463</v>
+        <v>0.1418704476126033</v>
       </c>
       <c r="F11">
-        <v>0.6315695168996384</v>
+        <v>0.06432798670309411</v>
+      </c>
+      <c r="G11">
+        <v>0.1802842195832685</v>
       </c>
       <c r="H11">
-        <v>0.6010659765620737</v>
+        <v>-0.1506489769386493</v>
       </c>
       <c r="I11">
-        <v>0.445985760966529</v>
+        <v>0.6522674128189277</v>
       </c>
       <c r="J11">
-        <v>0.1987560697275382</v>
+        <v>0.2525430715716202</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.2525430715716202</v>
+        <v>0.9363545332786369</v>
       </c>
       <c r="M11">
-        <v>-0.1349869902559086</v>
+        <v>-0.07480865452710381</v>
       </c>
       <c r="N11">
-        <v>0.05601955201777537</v>
-      </c>
-      <c r="O11">
-        <v>0.5188514403663723</v>
-      </c>
-      <c r="P11">
-        <v>0.1893413854013475</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>0.7459856900792554</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.02676678503401862</v>
+        <v>0.004732017893733165</v>
       </c>
       <c r="C12">
-        <v>-0.02914244125909981</v>
+        <v>0.01742559811962423</v>
       </c>
       <c r="D12">
-        <v>-0.3926606960539389</v>
+        <v>-0.2865747988606426</v>
       </c>
       <c r="E12">
-        <v>0.1418704476126033</v>
+        <v>0.05679644052597838</v>
       </c>
       <c r="F12">
-        <v>0.06432798670309411</v>
+        <v>-0.1980138146036305</v>
+      </c>
+      <c r="G12">
+        <v>-0.07627511032712242</v>
       </c>
       <c r="H12">
-        <v>0.1802842195832685</v>
+        <v>-0.225486848726541</v>
       </c>
       <c r="I12">
-        <v>-0.1506489769386493</v>
+        <v>0.4944986209532007</v>
       </c>
       <c r="J12">
-        <v>0.6522674128189277</v>
+        <v>0.05601955201777537</v>
       </c>
       <c r="K12">
-        <v>0.2525430715716202</v>
+        <v>0.9363545332786369</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1177035147288679</v>
+        <v>-0.1775736450325868</v>
       </c>
       <c r="N12">
-        <v>0.9363545332786369</v>
-      </c>
-      <c r="O12">
-        <v>-0.07480865452710381</v>
-      </c>
-      <c r="P12">
-        <v>0.7459856900792554</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>0.6916111360249111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.07828834604569371</v>
+        <v>-0.08118141911519945</v>
       </c>
       <c r="C13">
-        <v>0.04876962339280161</v>
+        <v>0.06934592894886464</v>
       </c>
       <c r="D13">
-        <v>0.0682481025881473</v>
+        <v>0.2750477972531822</v>
       </c>
       <c r="E13">
-        <v>-0.01463024890903251</v>
+        <v>0.3661331865400339</v>
       </c>
       <c r="F13">
-        <v>-0.09781173102871583</v>
+        <v>0.4101233346279459</v>
+      </c>
+      <c r="G13">
+        <v>0.3858841094161588</v>
       </c>
       <c r="H13">
-        <v>-0.0427452430127298</v>
+        <v>0.9082083413765707</v>
       </c>
       <c r="I13">
-        <v>-0.3230280538554612</v>
+        <v>-0.1579486423221279</v>
       </c>
       <c r="J13">
-        <v>0.114092003527871</v>
+        <v>0.5188514403663723</v>
       </c>
       <c r="K13">
-        <v>-0.1349869902559086</v>
+        <v>-0.07480865452710381</v>
       </c>
       <c r="L13">
-        <v>0.1177035147288679</v>
+        <v>-0.1775736450325868</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>0.1285181598510687</v>
-      </c>
-      <c r="O13">
-        <v>-0.2839976291441505</v>
-      </c>
-      <c r="P13">
-        <v>-0.02349543624334667</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>-0.1765699855808679</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.004732017893733165</v>
+        <v>-0.02673676715644199</v>
       </c>
       <c r="C14">
-        <v>0.01742559811962423</v>
+        <v>0.06306186227928907</v>
       </c>
       <c r="D14">
-        <v>-0.2865747988606426</v>
+        <v>-0.4368722050314565</v>
       </c>
       <c r="E14">
-        <v>0.05679644052597838</v>
+        <v>0.04245051279411372</v>
       </c>
       <c r="F14">
-        <v>-0.1980138146036305</v>
+        <v>0.09082176799679093</v>
+      </c>
+      <c r="G14">
+        <v>0.1521262490988143</v>
       </c>
       <c r="H14">
-        <v>-0.07627511032712242</v>
+        <v>-0.1723749541018063</v>
       </c>
       <c r="I14">
-        <v>-0.225486848726541</v>
+        <v>0.7403132706269152</v>
       </c>
       <c r="J14">
-        <v>0.4944986209532007</v>
+        <v>0.1893413854013475</v>
       </c>
       <c r="K14">
-        <v>0.05601955201777537</v>
+        <v>0.7459856900792554</v>
       </c>
       <c r="L14">
-        <v>0.9363545332786369</v>
+        <v>0.6916111360249111</v>
       </c>
       <c r="M14">
-        <v>0.1285181598510687</v>
+        <v>-0.1765699855808679</v>
       </c>
       <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>-0.1775736450325868</v>
-      </c>
-      <c r="P14">
-        <v>0.6916111360249111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>-0.08118141911519945</v>
-      </c>
-      <c r="C15">
-        <v>0.06934592894886464</v>
-      </c>
-      <c r="D15">
-        <v>0.2750477972531822</v>
-      </c>
-      <c r="E15">
-        <v>0.3661331865400339</v>
-      </c>
-      <c r="F15">
-        <v>0.4101233346279459</v>
-      </c>
-      <c r="H15">
-        <v>0.3858841094161588</v>
-      </c>
-      <c r="I15">
-        <v>0.9082083413765707</v>
-      </c>
-      <c r="J15">
-        <v>-0.1579486423221279</v>
-      </c>
-      <c r="K15">
-        <v>0.5188514403663723</v>
-      </c>
-      <c r="L15">
-        <v>-0.07480865452710381</v>
-      </c>
-      <c r="M15">
-        <v>-0.2839976291441505</v>
-      </c>
-      <c r="N15">
-        <v>-0.1775736450325868</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>-0.1765699855808679</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>-0.02673676715644199</v>
-      </c>
-      <c r="C16">
-        <v>0.06306186227928907</v>
-      </c>
-      <c r="D16">
-        <v>-0.4368722050314565</v>
-      </c>
-      <c r="E16">
-        <v>0.04245051279411372</v>
-      </c>
-      <c r="F16">
-        <v>0.09082176799679093</v>
-      </c>
-      <c r="H16">
-        <v>0.1521262490988143</v>
-      </c>
-      <c r="I16">
-        <v>-0.1723749541018063</v>
-      </c>
-      <c r="J16">
-        <v>0.7403132706269152</v>
-      </c>
-      <c r="K16">
-        <v>0.1893413854013475</v>
-      </c>
-      <c r="L16">
-        <v>0.7459856900792554</v>
-      </c>
-      <c r="M16">
-        <v>-0.02349543624334667</v>
-      </c>
-      <c r="N16">
-        <v>0.6916111360249111</v>
-      </c>
-      <c r="O16">
-        <v>-0.1765699855808679</v>
-      </c>
-      <c r="P16">
         <v>1</v>
       </c>
     </row>

--- a/WorkingFolder/Tables/corrM.xlsx
+++ b/WorkingFolder/Tables/corrM.xlsx
@@ -465,40 +465,40 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.7047556261015829</v>
+        <v>-0.680182012841634</v>
       </c>
       <c r="D2">
-        <v>-0.1005524227762842</v>
+        <v>-0.0783303930584449</v>
       </c>
       <c r="E2">
-        <v>-0.04743437747629582</v>
+        <v>-0.03052985330403633</v>
       </c>
       <c r="F2">
-        <v>0.02275530254629318</v>
+        <v>0.01371389403032016</v>
       </c>
       <c r="G2">
-        <v>0.01984950350403698</v>
+        <v>0.0124000437774399</v>
       </c>
       <c r="H2">
-        <v>-0.07735816559944704</v>
+        <v>-0.04819288080125357</v>
       </c>
       <c r="I2">
-        <v>-0.1403061574535686</v>
+        <v>-0.1023235157253121</v>
       </c>
       <c r="J2">
-        <v>-0.04671663250852448</v>
+        <v>-0.01461638364964552</v>
       </c>
       <c r="K2">
-        <v>0.02676678503401862</v>
+        <v>0.05652648764826258</v>
       </c>
       <c r="L2">
-        <v>0.004732017893733165</v>
+        <v>0.02823333018647582</v>
       </c>
       <c r="M2">
-        <v>-0.08118141911519945</v>
+        <v>-0.03196208928288601</v>
       </c>
       <c r="N2">
-        <v>-0.02673676715644199</v>
+        <v>-0.01748914489945714</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -506,43 +506,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.7047556261015829</v>
+        <v>-0.680182012841634</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.140323046109499</v>
+        <v>0.1221720518472285</v>
       </c>
       <c r="E3">
-        <v>0.07440478395551647</v>
+        <v>0.05653006462466296</v>
       </c>
       <c r="F3">
-        <v>-0.06986646035450562</v>
+        <v>-0.05391471495687534</v>
       </c>
       <c r="G3">
-        <v>-0.06051795811232875</v>
+        <v>-0.06253280915464397</v>
       </c>
       <c r="H3">
-        <v>0.1143498427673656</v>
+        <v>0.1111497886989482</v>
       </c>
       <c r="I3">
-        <v>0.09527665589281313</v>
+        <v>0.06909878822468789</v>
       </c>
       <c r="J3">
-        <v>-0.01151755191354742</v>
+        <v>-0.01909015669427782</v>
       </c>
       <c r="K3">
-        <v>-0.02914244125909981</v>
+        <v>-0.04374136016896989</v>
       </c>
       <c r="L3">
-        <v>0.01742559811962423</v>
+        <v>0.006575284563791996</v>
       </c>
       <c r="M3">
-        <v>0.06934592894886464</v>
+        <v>0.07679382384287423</v>
       </c>
       <c r="N3">
-        <v>0.06306186227928907</v>
+        <v>0.03795934618164015</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -550,43 +550,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.1005524227762842</v>
+        <v>-0.0783303930584449</v>
       </c>
       <c r="C4">
-        <v>0.140323046109499</v>
+        <v>0.1221720518472285</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.2912621032440872</v>
+        <v>0.2981098520604903</v>
       </c>
       <c r="F4">
-        <v>-0.1478776120475858</v>
+        <v>-0.1633195338039325</v>
       </c>
       <c r="G4">
-        <v>-0.1909117508911267</v>
+        <v>-0.1470984054862519</v>
       </c>
       <c r="H4">
-        <v>0.3510319043220564</v>
+        <v>0.3588750911617425</v>
       </c>
       <c r="I4">
-        <v>-0.4814546273730555</v>
+        <v>-0.5151684230962238</v>
       </c>
       <c r="J4">
-        <v>0.03448084153235571</v>
+        <v>0.01043230032222128</v>
       </c>
       <c r="K4">
-        <v>-0.3926606960539389</v>
+        <v>-0.459597172319483</v>
       </c>
       <c r="L4">
-        <v>-0.2865747988606426</v>
+        <v>-0.342156576835674</v>
       </c>
       <c r="M4">
-        <v>0.2750477972531822</v>
+        <v>0.3420214029909316</v>
       </c>
       <c r="N4">
-        <v>-0.4368722050314565</v>
+        <v>-0.4634142680280373</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -594,43 +594,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.04743437747629582</v>
+        <v>-0.03052985330403633</v>
       </c>
       <c r="C5">
-        <v>0.07440478395551647</v>
+        <v>0.05653006462466296</v>
       </c>
       <c r="D5">
-        <v>0.2912621032440872</v>
+        <v>0.2981098520604903</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.3456618958283406</v>
+        <v>0.3612509639485904</v>
       </c>
       <c r="G5">
-        <v>0.3269328383725711</v>
+        <v>0.3641198327393359</v>
       </c>
       <c r="H5">
-        <v>0.3958692142618715</v>
+        <v>0.4127631093249592</v>
       </c>
       <c r="I5">
-        <v>0.03844707986648056</v>
+        <v>0.03599422413450309</v>
       </c>
       <c r="J5">
-        <v>0.8041894500608463</v>
+        <v>0.7921024341773386</v>
       </c>
       <c r="K5">
-        <v>0.1418704476126033</v>
+        <v>0.08673123342589122</v>
       </c>
       <c r="L5">
-        <v>0.05679644052597838</v>
+        <v>-0.002601885874268448</v>
       </c>
       <c r="M5">
-        <v>0.3661331865400339</v>
+        <v>0.3904627113860717</v>
       </c>
       <c r="N5">
-        <v>0.04245051279411372</v>
+        <v>-0.0004828960342666396</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -638,43 +638,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02275530254629318</v>
+        <v>0.01371389403032016</v>
       </c>
       <c r="C6">
-        <v>-0.06986646035450562</v>
+        <v>-0.05391471495687534</v>
       </c>
       <c r="D6">
-        <v>-0.1478776120475858</v>
+        <v>-0.1633195338039325</v>
       </c>
       <c r="E6">
-        <v>0.3456618958283406</v>
+        <v>0.3612509639485904</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.952956949937701</v>
+        <v>0.9809329076610995</v>
       </c>
       <c r="H6">
-        <v>0.3616315137833193</v>
+        <v>0.3722554629941501</v>
       </c>
       <c r="I6">
-        <v>0.3244402953268535</v>
+        <v>0.1806114662513572</v>
       </c>
       <c r="J6">
-        <v>0.6315695168996384</v>
+        <v>0.6301873021039683</v>
       </c>
       <c r="K6">
-        <v>0.06432798670309411</v>
+        <v>-0.04454127211874876</v>
       </c>
       <c r="L6">
-        <v>-0.1980138146036305</v>
+        <v>-0.3129315469833898</v>
       </c>
       <c r="M6">
-        <v>0.4101233346279459</v>
+        <v>0.3725002900626034</v>
       </c>
       <c r="N6">
-        <v>0.09082176799679093</v>
+        <v>0.05618209907557382</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -682,43 +682,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01984950350403698</v>
+        <v>0.0124000437774399</v>
       </c>
       <c r="C7">
-        <v>-0.06051795811232875</v>
+        <v>-0.06253280915464397</v>
       </c>
       <c r="D7">
-        <v>-0.1909117508911267</v>
+        <v>-0.1470984054862519</v>
       </c>
       <c r="E7">
-        <v>0.3269328383725711</v>
+        <v>0.3641198327393359</v>
       </c>
       <c r="F7">
-        <v>0.952956949937701</v>
+        <v>0.9809329076610995</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.3122748691730542</v>
+        <v>0.3743625636196435</v>
       </c>
       <c r="I7">
-        <v>0.3819806403851467</v>
+        <v>0.2414502345040999</v>
       </c>
       <c r="J7">
-        <v>0.6010659765620737</v>
+        <v>0.6426601479267363</v>
       </c>
       <c r="K7">
-        <v>0.1802842195832685</v>
+        <v>0.008927636603904878</v>
       </c>
       <c r="L7">
-        <v>-0.07627511032712242</v>
+        <v>-0.268192419546511</v>
       </c>
       <c r="M7">
-        <v>0.3858841094161588</v>
+        <v>0.3823050395265182</v>
       </c>
       <c r="N7">
-        <v>0.1521262490988143</v>
+        <v>0.07325264309598917</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -726,43 +726,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.07735816559944704</v>
+        <v>-0.04819288080125357</v>
       </c>
       <c r="C8">
-        <v>0.1143498427673656</v>
+        <v>0.1111497886989482</v>
       </c>
       <c r="D8">
-        <v>0.3510319043220564</v>
+        <v>0.3588750911617425</v>
       </c>
       <c r="E8">
-        <v>0.3958692142618715</v>
+        <v>0.4127631093249592</v>
       </c>
       <c r="F8">
-        <v>0.3616315137833193</v>
+        <v>0.3722554629941501</v>
       </c>
       <c r="G8">
-        <v>0.3122748691730542</v>
+        <v>0.3743625636196435</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>-0.2083907738613129</v>
+        <v>-0.1997910261620322</v>
       </c>
       <c r="J8">
-        <v>0.445985760966529</v>
+        <v>0.4475614826426157</v>
       </c>
       <c r="K8">
-        <v>-0.1506489769386493</v>
+        <v>-0.1437392066062044</v>
       </c>
       <c r="L8">
-        <v>-0.225486848726541</v>
+        <v>-0.2180916373139349</v>
       </c>
       <c r="M8">
-        <v>0.9082083413765707</v>
+        <v>0.9172288078615954</v>
       </c>
       <c r="N8">
-        <v>-0.1723749541018063</v>
+        <v>-0.159014452899539</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -770,43 +770,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.1403061574535686</v>
+        <v>-0.1023235157253121</v>
       </c>
       <c r="C9">
-        <v>0.09527665589281313</v>
+        <v>0.06909878822468789</v>
       </c>
       <c r="D9">
-        <v>-0.4814546273730555</v>
+        <v>-0.5151684230962238</v>
       </c>
       <c r="E9">
-        <v>0.03844707986648056</v>
+        <v>0.03599422413450309</v>
       </c>
       <c r="F9">
-        <v>0.3244402953268535</v>
+        <v>0.1806114662513572</v>
       </c>
       <c r="G9">
-        <v>0.3819806403851467</v>
+        <v>0.2414502345040999</v>
       </c>
       <c r="H9">
-        <v>-0.2083907738613129</v>
+        <v>-0.1997910261620322</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.1987560697275382</v>
+        <v>0.2333820891919775</v>
       </c>
       <c r="K9">
-        <v>0.6522674128189277</v>
+        <v>0.6883971392785034</v>
       </c>
       <c r="L9">
-        <v>0.4944986209532007</v>
+        <v>0.5246616647241267</v>
       </c>
       <c r="M9">
-        <v>-0.1579486423221279</v>
+        <v>-0.2193972891311861</v>
       </c>
       <c r="N9">
-        <v>0.7403132706269152</v>
+        <v>0.7480185820308105</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -814,43 +814,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.04671663250852448</v>
+        <v>-0.01461638364964552</v>
       </c>
       <c r="C10">
-        <v>-0.01151755191354742</v>
+        <v>-0.01909015669427782</v>
       </c>
       <c r="D10">
-        <v>0.03448084153235571</v>
+        <v>0.01043230032222128</v>
       </c>
       <c r="E10">
-        <v>0.8041894500608463</v>
+        <v>0.7921024341773386</v>
       </c>
       <c r="F10">
-        <v>0.6315695168996384</v>
+        <v>0.6301873021039683</v>
       </c>
       <c r="G10">
-        <v>0.6010659765620737</v>
+        <v>0.6426601479267363</v>
       </c>
       <c r="H10">
-        <v>0.445985760966529</v>
+        <v>0.4475614826426157</v>
       </c>
       <c r="I10">
-        <v>0.1987560697275382</v>
+        <v>0.2333820891919775</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.2525430715716202</v>
+        <v>0.2711736763683567</v>
       </c>
       <c r="L10">
-        <v>0.05601955201777537</v>
+        <v>0.05649703490390926</v>
       </c>
       <c r="M10">
-        <v>0.5188514403663723</v>
+        <v>0.4819490113416408</v>
       </c>
       <c r="N10">
-        <v>0.1893413854013475</v>
+        <v>0.1951778656562174</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -858,43 +858,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.02676678503401862</v>
+        <v>0.05652648764826258</v>
       </c>
       <c r="C11">
-        <v>-0.02914244125909981</v>
+        <v>-0.04374136016896989</v>
       </c>
       <c r="D11">
-        <v>-0.3926606960539389</v>
+        <v>-0.459597172319483</v>
       </c>
       <c r="E11">
-        <v>0.1418704476126033</v>
+        <v>0.08673123342589122</v>
       </c>
       <c r="F11">
-        <v>0.06432798670309411</v>
+        <v>-0.04454127211874876</v>
       </c>
       <c r="G11">
-        <v>0.1802842195832685</v>
+        <v>0.008927636603904878</v>
       </c>
       <c r="H11">
-        <v>-0.1506489769386493</v>
+        <v>-0.1437392066062044</v>
       </c>
       <c r="I11">
-        <v>0.6522674128189277</v>
+        <v>0.6883971392785034</v>
       </c>
       <c r="J11">
-        <v>0.2525430715716202</v>
+        <v>0.2711736763683567</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.9363545332786369</v>
+        <v>0.931601405267243</v>
       </c>
       <c r="M11">
-        <v>-0.07480865452710381</v>
+        <v>-0.13932507739623</v>
       </c>
       <c r="N11">
-        <v>0.7459856900792554</v>
+        <v>0.759344995191208</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -902,43 +902,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.004732017893733165</v>
+        <v>0.02823333018647582</v>
       </c>
       <c r="C12">
-        <v>0.01742559811962423</v>
+        <v>0.006575284563791996</v>
       </c>
       <c r="D12">
-        <v>-0.2865747988606426</v>
+        <v>-0.342156576835674</v>
       </c>
       <c r="E12">
-        <v>0.05679644052597838</v>
+        <v>-0.002601885874268448</v>
       </c>
       <c r="F12">
-        <v>-0.1980138146036305</v>
+        <v>-0.3129315469833898</v>
       </c>
       <c r="G12">
-        <v>-0.07627511032712242</v>
+        <v>-0.268192419546511</v>
       </c>
       <c r="H12">
-        <v>-0.225486848726541</v>
+        <v>-0.2180916373139349</v>
       </c>
       <c r="I12">
-        <v>0.4944986209532007</v>
+        <v>0.5246616647241267</v>
       </c>
       <c r="J12">
-        <v>0.05601955201777537</v>
+        <v>0.05649703490390926</v>
       </c>
       <c r="K12">
-        <v>0.9363545332786369</v>
+        <v>0.931601405267243</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>-0.1775736450325868</v>
+        <v>-0.2257734971776478</v>
       </c>
       <c r="N12">
-        <v>0.6916111360249111</v>
+        <v>0.7016434961541568</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -946,43 +946,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.08118141911519945</v>
+        <v>-0.03196208928288601</v>
       </c>
       <c r="C13">
-        <v>0.06934592894886464</v>
+        <v>0.07679382384287423</v>
       </c>
       <c r="D13">
-        <v>0.2750477972531822</v>
+        <v>0.3420214029909316</v>
       </c>
       <c r="E13">
-        <v>0.3661331865400339</v>
+        <v>0.3904627113860717</v>
       </c>
       <c r="F13">
-        <v>0.4101233346279459</v>
+        <v>0.3725002900626034</v>
       </c>
       <c r="G13">
-        <v>0.3858841094161588</v>
+        <v>0.3823050395265182</v>
       </c>
       <c r="H13">
-        <v>0.9082083413765707</v>
+        <v>0.9172288078615954</v>
       </c>
       <c r="I13">
-        <v>-0.1579486423221279</v>
+        <v>-0.2193972891311861</v>
       </c>
       <c r="J13">
-        <v>0.5188514403663723</v>
+        <v>0.4819490113416408</v>
       </c>
       <c r="K13">
-        <v>-0.07480865452710381</v>
+        <v>-0.13932507739623</v>
       </c>
       <c r="L13">
-        <v>-0.1775736450325868</v>
+        <v>-0.2257734971776478</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>-0.1765699855808679</v>
+        <v>-0.1896858643044187</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -990,40 +990,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.02673676715644199</v>
+        <v>-0.01748914489945714</v>
       </c>
       <c r="C14">
-        <v>0.06306186227928907</v>
+        <v>0.03795934618164015</v>
       </c>
       <c r="D14">
-        <v>-0.4368722050314565</v>
+        <v>-0.4634142680280373</v>
       </c>
       <c r="E14">
-        <v>0.04245051279411372</v>
+        <v>-0.0004828960342666396</v>
       </c>
       <c r="F14">
-        <v>0.09082176799679093</v>
+        <v>0.05618209907557382</v>
       </c>
       <c r="G14">
-        <v>0.1521262490988143</v>
+        <v>0.07325264309598917</v>
       </c>
       <c r="H14">
-        <v>-0.1723749541018063</v>
+        <v>-0.159014452899539</v>
       </c>
       <c r="I14">
-        <v>0.7403132706269152</v>
+        <v>0.7480185820308105</v>
       </c>
       <c r="J14">
-        <v>0.1893413854013475</v>
+        <v>0.1951778656562174</v>
       </c>
       <c r="K14">
-        <v>0.7459856900792554</v>
+        <v>0.759344995191208</v>
       </c>
       <c r="L14">
-        <v>0.6916111360249111</v>
+        <v>0.7016434961541568</v>
       </c>
       <c r="M14">
-        <v>-0.1765699855808679</v>
+        <v>-0.1896858643044187</v>
       </c>
       <c r="N14">
         <v>1</v>

--- a/WorkingFolder/Tables/corrM.xlsx
+++ b/WorkingFolder/Tables/corrM.xlsx
@@ -465,40 +465,40 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.680182012841634</v>
+        <v>-0.689801893040383</v>
       </c>
       <c r="D2">
-        <v>-0.0783303930584449</v>
+        <v>-0.1977895957625399</v>
       </c>
       <c r="E2">
-        <v>-0.03052985330403633</v>
+        <v>0.00953015815020954</v>
       </c>
       <c r="F2">
-        <v>0.01371389403032016</v>
+        <v>0.01584236461698259</v>
       </c>
       <c r="G2">
-        <v>0.0124000437774399</v>
+        <v>0.01516645206850985</v>
       </c>
       <c r="H2">
-        <v>-0.04819288080125357</v>
+        <v>-0.05184377338114116</v>
       </c>
       <c r="I2">
-        <v>-0.1023235157253121</v>
+        <v>-0.1409981214786789</v>
       </c>
       <c r="J2">
-        <v>-0.01461638364964552</v>
+        <v>0.03196566811971526</v>
       </c>
       <c r="K2">
-        <v>0.05652648764826258</v>
+        <v>0.0665734164232875</v>
       </c>
       <c r="L2">
-        <v>0.02823333018647582</v>
+        <v>0.04435601442290548</v>
       </c>
       <c r="M2">
-        <v>-0.03196208928288601</v>
+        <v>-0.01419361331937312</v>
       </c>
       <c r="N2">
-        <v>-0.01748914489945714</v>
+        <v>-0.03413895618995193</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -506,43 +506,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.680182012841634</v>
+        <v>-0.689801893040383</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.1221720518472285</v>
+        <v>0.1754789520186602</v>
       </c>
       <c r="E3">
-        <v>0.05653006462466296</v>
+        <v>0.02771503092720217</v>
       </c>
       <c r="F3">
-        <v>-0.05391471495687534</v>
+        <v>-0.05556955588644442</v>
       </c>
       <c r="G3">
-        <v>-0.06253280915464397</v>
+        <v>-0.06463751991784057</v>
       </c>
       <c r="H3">
-        <v>0.1111497886989482</v>
+        <v>0.1146910281989733</v>
       </c>
       <c r="I3">
-        <v>0.06909878822468789</v>
+        <v>0.09652520864899328</v>
       </c>
       <c r="J3">
-        <v>-0.01909015669427782</v>
+        <v>-0.05239032369778457</v>
       </c>
       <c r="K3">
-        <v>-0.04374136016896989</v>
+        <v>-0.05126324650408413</v>
       </c>
       <c r="L3">
-        <v>0.006575284563791996</v>
+        <v>-0.003435706016208673</v>
       </c>
       <c r="M3">
-        <v>0.07679382384287423</v>
+        <v>0.06539098660404966</v>
       </c>
       <c r="N3">
-        <v>0.03795934618164015</v>
+        <v>0.05038073059792177</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -550,43 +550,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.0783303930584449</v>
+        <v>-0.1977895957625399</v>
       </c>
       <c r="C4">
-        <v>0.1221720518472285</v>
+        <v>0.1754789520186602</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.2981098520604903</v>
+        <v>0.1837602300496707</v>
       </c>
       <c r="F4">
-        <v>-0.1633195338039325</v>
+        <v>-0.1460803540235835</v>
       </c>
       <c r="G4">
-        <v>-0.1470984054862519</v>
+        <v>-0.1345222434929064</v>
       </c>
       <c r="H4">
-        <v>0.3588750911617425</v>
+        <v>0.3366930990988854</v>
       </c>
       <c r="I4">
-        <v>-0.5151684230962238</v>
+        <v>-0.3482231603619768</v>
       </c>
       <c r="J4">
-        <v>0.01043230032222128</v>
+        <v>-0.1039164003795496</v>
       </c>
       <c r="K4">
-        <v>-0.459597172319483</v>
+        <v>-0.4081009320055506</v>
       </c>
       <c r="L4">
-        <v>-0.342156576835674</v>
+        <v>-0.3005519182748715</v>
       </c>
       <c r="M4">
-        <v>0.3420214029909316</v>
+        <v>0.2776321694413547</v>
       </c>
       <c r="N4">
-        <v>-0.4634142680280373</v>
+        <v>-0.3571763908955822</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -594,43 +594,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.03052985330403633</v>
+        <v>0.00953015815020954</v>
       </c>
       <c r="C5">
-        <v>0.05653006462466296</v>
+        <v>0.02771503092720217</v>
       </c>
       <c r="D5">
-        <v>0.2981098520604903</v>
+        <v>0.1837602300496707</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.3612509639485904</v>
+        <v>0.3581846282573636</v>
       </c>
       <c r="G5">
-        <v>0.3641198327393359</v>
+        <v>0.3614420468932035</v>
       </c>
       <c r="H5">
-        <v>0.4127631093249592</v>
+        <v>0.4012543964666505</v>
       </c>
       <c r="I5">
-        <v>0.03599422413450309</v>
+        <v>0.006822339822395155</v>
       </c>
       <c r="J5">
-        <v>0.7921024341773386</v>
+        <v>0.7983442545732148</v>
       </c>
       <c r="K5">
-        <v>0.08673123342589122</v>
+        <v>0.09569588899601536</v>
       </c>
       <c r="L5">
-        <v>-0.002601885874268448</v>
+        <v>0.01011896657585113</v>
       </c>
       <c r="M5">
-        <v>0.3904627113860717</v>
+        <v>0.3944467797448968</v>
       </c>
       <c r="N5">
-        <v>-0.0004828960342666396</v>
+        <v>-0.01425156638275876</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -638,43 +638,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01371389403032016</v>
+        <v>0.01584236461698259</v>
       </c>
       <c r="C6">
-        <v>-0.05391471495687534</v>
+        <v>-0.05556955588644442</v>
       </c>
       <c r="D6">
-        <v>-0.1633195338039325</v>
+        <v>-0.1460803540235835</v>
       </c>
       <c r="E6">
-        <v>0.3612509639485904</v>
+        <v>0.3581846282573636</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9809329076610995</v>
+        <v>0.980928852548448</v>
       </c>
       <c r="H6">
-        <v>0.3722554629941501</v>
+        <v>0.3685197946180032</v>
       </c>
       <c r="I6">
-        <v>0.1806114662513572</v>
+        <v>0.1761391727802132</v>
       </c>
       <c r="J6">
-        <v>0.6301873021039683</v>
+        <v>0.6185290620948303</v>
       </c>
       <c r="K6">
-        <v>-0.04454127211874876</v>
+        <v>-0.04412919963610557</v>
       </c>
       <c r="L6">
-        <v>-0.3129315469833898</v>
+        <v>-0.3118451534525333</v>
       </c>
       <c r="M6">
-        <v>0.3725002900626034</v>
+        <v>0.3676699584686091</v>
       </c>
       <c r="N6">
-        <v>0.05618209907557382</v>
+        <v>0.05412256302001409</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -682,43 +682,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0124000437774399</v>
+        <v>0.01516645206850985</v>
       </c>
       <c r="C7">
-        <v>-0.06253280915464397</v>
+        <v>-0.06463751991784057</v>
       </c>
       <c r="D7">
-        <v>-0.1470984054862519</v>
+        <v>-0.1345222434929064</v>
       </c>
       <c r="E7">
-        <v>0.3641198327393359</v>
+        <v>0.3614420468932035</v>
       </c>
       <c r="F7">
-        <v>0.9809329076610995</v>
+        <v>0.980928852548448</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.3743625636196435</v>
+        <v>0.3699904242157438</v>
       </c>
       <c r="I7">
-        <v>0.2414502345040999</v>
+        <v>0.2355494801008387</v>
       </c>
       <c r="J7">
-        <v>0.6426601479267363</v>
+        <v>0.6315276142144191</v>
       </c>
       <c r="K7">
-        <v>0.008927636603904878</v>
+        <v>0.00934476116828869</v>
       </c>
       <c r="L7">
-        <v>-0.268192419546511</v>
+        <v>-0.2677596881566871</v>
       </c>
       <c r="M7">
-        <v>0.3823050395265182</v>
+        <v>0.3769175723241422</v>
       </c>
       <c r="N7">
-        <v>0.07325264309598917</v>
+        <v>0.07066182269695842</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -726,43 +726,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.04819288080125357</v>
+        <v>-0.05184377338114116</v>
       </c>
       <c r="C8">
-        <v>0.1111497886989482</v>
+        <v>0.1146910281989733</v>
       </c>
       <c r="D8">
-        <v>0.3588750911617425</v>
+        <v>0.3366930990988854</v>
       </c>
       <c r="E8">
-        <v>0.4127631093249592</v>
+        <v>0.4012543964666505</v>
       </c>
       <c r="F8">
-        <v>0.3722554629941501</v>
+        <v>0.3685197946180032</v>
       </c>
       <c r="G8">
-        <v>0.3743625636196435</v>
+        <v>0.3699904242157438</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>-0.1997910261620322</v>
+        <v>-0.1889160726068343</v>
       </c>
       <c r="J8">
-        <v>0.4475614826426157</v>
+        <v>0.4271370019900166</v>
       </c>
       <c r="K8">
-        <v>-0.1437392066062044</v>
+        <v>-0.1407985109390405</v>
       </c>
       <c r="L8">
-        <v>-0.2180916373139349</v>
+        <v>-0.2086571319298562</v>
       </c>
       <c r="M8">
-        <v>0.9172288078615954</v>
+        <v>0.912656523852559</v>
       </c>
       <c r="N8">
-        <v>-0.159014452899539</v>
+        <v>-0.1531507197198079</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -770,43 +770,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.1023235157253121</v>
+        <v>-0.1409981214786789</v>
       </c>
       <c r="C9">
-        <v>0.06909878822468789</v>
+        <v>0.09652520864899328</v>
       </c>
       <c r="D9">
-        <v>-0.5151684230962238</v>
+        <v>-0.3482231603619768</v>
       </c>
       <c r="E9">
-        <v>0.03599422413450309</v>
+        <v>0.006822339822395155</v>
       </c>
       <c r="F9">
-        <v>0.1806114662513572</v>
+        <v>0.1761391727802132</v>
       </c>
       <c r="G9">
-        <v>0.2414502345040999</v>
+        <v>0.2355494801008387</v>
       </c>
       <c r="H9">
-        <v>-0.1997910261620322</v>
+        <v>-0.1889160726068343</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.2333820891919775</v>
+        <v>0.1892206722387704</v>
       </c>
       <c r="K9">
-        <v>0.6883971392785034</v>
+        <v>0.6643566344192655</v>
       </c>
       <c r="L9">
-        <v>0.5246616647241267</v>
+        <v>0.4960415350896452</v>
       </c>
       <c r="M9">
-        <v>-0.2193972891311861</v>
+        <v>-0.2274648898758793</v>
       </c>
       <c r="N9">
-        <v>0.7480185820308105</v>
+        <v>0.7496178209675342</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -814,43 +814,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.01461638364964552</v>
+        <v>0.03196566811971526</v>
       </c>
       <c r="C10">
-        <v>-0.01909015669427782</v>
+        <v>-0.05239032369778457</v>
       </c>
       <c r="D10">
-        <v>0.01043230032222128</v>
+        <v>-0.1039164003795496</v>
       </c>
       <c r="E10">
-        <v>0.7921024341773386</v>
+        <v>0.7983442545732148</v>
       </c>
       <c r="F10">
-        <v>0.6301873021039683</v>
+        <v>0.6185290620948303</v>
       </c>
       <c r="G10">
-        <v>0.6426601479267363</v>
+        <v>0.6315276142144191</v>
       </c>
       <c r="H10">
-        <v>0.4475614826426157</v>
+        <v>0.4271370019900166</v>
       </c>
       <c r="I10">
-        <v>0.2333820891919775</v>
+        <v>0.1892206722387704</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.2711736763683567</v>
+        <v>0.2755031665414788</v>
       </c>
       <c r="L10">
-        <v>0.05649703490390926</v>
+        <v>0.06563921175841496</v>
       </c>
       <c r="M10">
-        <v>0.4819490113416408</v>
+        <v>0.4772401623332313</v>
       </c>
       <c r="N10">
-        <v>0.1951778656562174</v>
+        <v>0.1723205790794998</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -858,43 +858,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.05652648764826258</v>
+        <v>0.0665734164232875</v>
       </c>
       <c r="C11">
-        <v>-0.04374136016896989</v>
+        <v>-0.05126324650408413</v>
       </c>
       <c r="D11">
-        <v>-0.459597172319483</v>
+        <v>-0.4081009320055506</v>
       </c>
       <c r="E11">
-        <v>0.08673123342589122</v>
+        <v>0.09569588899601536</v>
       </c>
       <c r="F11">
-        <v>-0.04454127211874876</v>
+        <v>-0.04412919963610557</v>
       </c>
       <c r="G11">
-        <v>0.008927636603904878</v>
+        <v>0.00934476116828869</v>
       </c>
       <c r="H11">
-        <v>-0.1437392066062044</v>
+        <v>-0.1407985109390405</v>
       </c>
       <c r="I11">
-        <v>0.6883971392785034</v>
+        <v>0.6643566344192655</v>
       </c>
       <c r="J11">
-        <v>0.2711736763683567</v>
+        <v>0.2755031665414788</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.931601405267243</v>
+        <v>0.9291646513948305</v>
       </c>
       <c r="M11">
-        <v>-0.13932507739623</v>
+        <v>-0.1302229061075761</v>
       </c>
       <c r="N11">
-        <v>0.759344995191208</v>
+        <v>0.7526418513922563</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -902,43 +902,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.02823333018647582</v>
+        <v>0.04435601442290548</v>
       </c>
       <c r="C12">
-        <v>0.006575284563791996</v>
+        <v>-0.003435706016208673</v>
       </c>
       <c r="D12">
-        <v>-0.342156576835674</v>
+        <v>-0.3005519182748715</v>
       </c>
       <c r="E12">
-        <v>-0.002601885874268448</v>
+        <v>0.01011896657585113</v>
       </c>
       <c r="F12">
-        <v>-0.3129315469833898</v>
+        <v>-0.3118451534525333</v>
       </c>
       <c r="G12">
-        <v>-0.268192419546511</v>
+        <v>-0.2677596881566871</v>
       </c>
       <c r="H12">
-        <v>-0.2180916373139349</v>
+        <v>-0.2086571319298562</v>
       </c>
       <c r="I12">
-        <v>0.5246616647241267</v>
+        <v>0.4960415350896452</v>
       </c>
       <c r="J12">
-        <v>0.05649703490390926</v>
+        <v>0.06563921175841496</v>
       </c>
       <c r="K12">
-        <v>0.931601405267243</v>
+        <v>0.9291646513948305</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>-0.2257734971776478</v>
+        <v>-0.2054599720196534</v>
       </c>
       <c r="N12">
-        <v>0.7016434961541568</v>
+        <v>0.6915138823168836</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -946,43 +946,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.03196208928288601</v>
+        <v>-0.01419361331937312</v>
       </c>
       <c r="C13">
-        <v>0.07679382384287423</v>
+        <v>0.06539098660404966</v>
       </c>
       <c r="D13">
-        <v>0.3420214029909316</v>
+        <v>0.2776321694413547</v>
       </c>
       <c r="E13">
-        <v>0.3904627113860717</v>
+        <v>0.3944467797448968</v>
       </c>
       <c r="F13">
-        <v>0.3725002900626034</v>
+        <v>0.3676699584686091</v>
       </c>
       <c r="G13">
-        <v>0.3823050395265182</v>
+        <v>0.3769175723241422</v>
       </c>
       <c r="H13">
-        <v>0.9172288078615954</v>
+        <v>0.912656523852559</v>
       </c>
       <c r="I13">
-        <v>-0.2193972891311861</v>
+        <v>-0.2274648898758793</v>
       </c>
       <c r="J13">
-        <v>0.4819490113416408</v>
+        <v>0.4772401623332313</v>
       </c>
       <c r="K13">
-        <v>-0.13932507739623</v>
+        <v>-0.1302229061075761</v>
       </c>
       <c r="L13">
-        <v>-0.2257734971776478</v>
+        <v>-0.2054599720196534</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>-0.1896858643044187</v>
+        <v>-0.1903295950547503</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -990,40 +990,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.01748914489945714</v>
+        <v>-0.03413895618995193</v>
       </c>
       <c r="C14">
-        <v>0.03795934618164015</v>
+        <v>0.05038073059792177</v>
       </c>
       <c r="D14">
-        <v>-0.4634142680280373</v>
+        <v>-0.3571763908955822</v>
       </c>
       <c r="E14">
-        <v>-0.0004828960342666396</v>
+        <v>-0.01425156638275876</v>
       </c>
       <c r="F14">
-        <v>0.05618209907557382</v>
+        <v>0.05412256302001409</v>
       </c>
       <c r="G14">
-        <v>0.07325264309598917</v>
+        <v>0.07066182269695842</v>
       </c>
       <c r="H14">
-        <v>-0.159014452899539</v>
+        <v>-0.1531507197198079</v>
       </c>
       <c r="I14">
-        <v>0.7480185820308105</v>
+        <v>0.7496178209675342</v>
       </c>
       <c r="J14">
-        <v>0.1951778656562174</v>
+        <v>0.1723205790794998</v>
       </c>
       <c r="K14">
-        <v>0.759344995191208</v>
+        <v>0.7526418513922563</v>
       </c>
       <c r="L14">
-        <v>0.7016434961541568</v>
+        <v>0.6915138823168836</v>
       </c>
       <c r="M14">
-        <v>-0.1896858643044187</v>
+        <v>-0.1903295950547503</v>
       </c>
       <c r="N14">
         <v>1</v>

--- a/WorkingFolder/Tables/corrM.xlsx
+++ b/WorkingFolder/Tables/corrM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>sp500</t>
   </si>
@@ -31,6 +31,9 @@
     <t>iqrMed</t>
   </si>
   <si>
+    <t>skewMed</t>
+  </si>
+  <si>
     <t>varMed</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
   </si>
   <si>
     <t>iqrMean</t>
+  </si>
+  <si>
+    <t>skewMean</t>
   </si>
   <si>
     <t>varMean</t>
@@ -410,13 +416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,8 +462,14 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,32 +488,35 @@
       <c r="F2">
         <v>0.01584236461698259</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.01516645206850985</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-0.05184377338114116</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-0.1409981214786789</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.03196566811971526</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0.0665734164232875</v>
       </c>
-      <c r="L2">
+      <c r="M2">
+        <v>-0.01711181371022921</v>
+      </c>
+      <c r="N2">
         <v>0.04435601442290548</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>-0.01419361331937312</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>-0.03413895618995193</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -520,32 +535,35 @@
       <c r="F3">
         <v>-0.05556955588644442</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-0.06463751991784057</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.1146910281989733</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.09652520864899328</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.05239032369778457</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-0.05126324650408413</v>
       </c>
-      <c r="L3">
+      <c r="M3">
+        <v>0.01183533634683476</v>
+      </c>
+      <c r="N3">
         <v>-0.003435706016208673</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>0.06539098660404966</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>0.05038073059792177</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -564,32 +582,35 @@
       <c r="F4">
         <v>-0.1460803540235835</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-0.1345222434929064</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.3366930990988854</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-0.3482231603619768</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-0.1039164003795496</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>-0.4081009320055506</v>
       </c>
-      <c r="L4">
+      <c r="M4">
+        <v>-0.07888568017450877</v>
+      </c>
+      <c r="N4">
         <v>-0.3005519182748715</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>0.2776321694413547</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>-0.3571763908955822</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -608,32 +629,35 @@
       <c r="F5">
         <v>0.3581846282573636</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.3614420468932035</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.4012543964666505</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.006822339822395155</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.7983442545732148</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.09569588899601536</v>
       </c>
-      <c r="L5">
+      <c r="M5">
+        <v>-0.04129872032365137</v>
+      </c>
+      <c r="N5">
         <v>0.01011896657585113</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>0.3944467797448968</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>-0.01425156638275876</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -652,380 +676,459 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.980928852548448</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.3685197946180032</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.1761391727802132</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.6185290620948303</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>-0.04412919963610557</v>
       </c>
-      <c r="L6">
+      <c r="M6">
+        <v>-0.2322392139256818</v>
+      </c>
+      <c r="N6">
         <v>-0.3118451534525333</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>0.3676699584686091</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>0.05412256302001409</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.01516645206850985</v>
-      </c>
-      <c r="C7">
-        <v>-0.06463751991784057</v>
-      </c>
-      <c r="D7">
-        <v>-0.1345222434929064</v>
-      </c>
-      <c r="E7">
-        <v>0.3614420468932035</v>
-      </c>
-      <c r="F7">
-        <v>0.980928852548448</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0.3699904242157438</v>
-      </c>
-      <c r="I7">
-        <v>0.2355494801008387</v>
-      </c>
-      <c r="J7">
-        <v>0.6315276142144191</v>
-      </c>
-      <c r="K7">
-        <v>0.00934476116828869</v>
-      </c>
-      <c r="L7">
-        <v>-0.2677596881566871</v>
-      </c>
-      <c r="M7">
-        <v>0.3769175723241422</v>
-      </c>
-      <c r="N7">
-        <v>0.07066182269695842</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.05184377338114116</v>
+        <v>0.01516645206850985</v>
       </c>
       <c r="C8">
-        <v>0.1146910281989733</v>
+        <v>-0.06463751991784057</v>
       </c>
       <c r="D8">
-        <v>0.3366930990988854</v>
+        <v>-0.1345222434929064</v>
       </c>
       <c r="E8">
-        <v>0.4012543964666505</v>
+        <v>0.3614420468932035</v>
       </c>
       <c r="F8">
-        <v>0.3685197946180032</v>
-      </c>
-      <c r="G8">
+        <v>0.980928852548448</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>0.3699904242157438</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>-0.1889160726068343</v>
-      </c>
       <c r="J8">
-        <v>0.4271370019900166</v>
+        <v>0.2355494801008387</v>
       </c>
       <c r="K8">
-        <v>-0.1407985109390405</v>
+        <v>0.6315276142144191</v>
       </c>
       <c r="L8">
-        <v>-0.2086571319298562</v>
+        <v>0.00934476116828869</v>
       </c>
       <c r="M8">
-        <v>0.912656523852559</v>
+        <v>-0.1817930213045486</v>
       </c>
       <c r="N8">
-        <v>-0.1531507197198079</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>-0.2677596881566871</v>
+      </c>
+      <c r="O8">
+        <v>0.3769175723241422</v>
+      </c>
+      <c r="P8">
+        <v>0.07066182269695842</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.1409981214786789</v>
+        <v>-0.05184377338114116</v>
       </c>
       <c r="C9">
-        <v>0.09652520864899328</v>
+        <v>0.1146910281989733</v>
       </c>
       <c r="D9">
-        <v>-0.3482231603619768</v>
+        <v>0.3366930990988854</v>
       </c>
       <c r="E9">
-        <v>0.006822339822395155</v>
+        <v>0.4012543964666505</v>
       </c>
       <c r="F9">
-        <v>0.1761391727802132</v>
-      </c>
-      <c r="G9">
-        <v>0.2355494801008387</v>
+        <v>0.3685197946180032</v>
       </c>
       <c r="H9">
+        <v>0.3699904242157438</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
         <v>-0.1889160726068343</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0.1892206722387704</v>
-      </c>
       <c r="K9">
-        <v>0.6643566344192655</v>
+        <v>0.4271370019900166</v>
       </c>
       <c r="L9">
-        <v>0.4960415350896452</v>
+        <v>-0.1407985109390405</v>
       </c>
       <c r="M9">
-        <v>-0.2274648898758793</v>
+        <v>-0.3032079420773576</v>
       </c>
       <c r="N9">
-        <v>0.7496178209675342</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>-0.2086571319298562</v>
+      </c>
+      <c r="O9">
+        <v>0.912656523852559</v>
+      </c>
+      <c r="P9">
+        <v>-0.1531507197198079</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.03196566811971526</v>
+        <v>-0.1409981214786789</v>
       </c>
       <c r="C10">
-        <v>-0.05239032369778457</v>
+        <v>0.09652520864899328</v>
       </c>
       <c r="D10">
-        <v>-0.1039164003795496</v>
+        <v>-0.3482231603619768</v>
       </c>
       <c r="E10">
-        <v>0.7983442545732148</v>
+        <v>0.006822339822395155</v>
       </c>
       <c r="F10">
-        <v>0.6185290620948303</v>
-      </c>
-      <c r="G10">
-        <v>0.6315276142144191</v>
+        <v>0.1761391727802132</v>
       </c>
       <c r="H10">
-        <v>0.4271370019900166</v>
+        <v>0.2355494801008387</v>
       </c>
       <c r="I10">
+        <v>-0.1889160726068343</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
         <v>0.1892206722387704</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>0.2755031665414788</v>
-      </c>
       <c r="L10">
-        <v>0.06563921175841496</v>
+        <v>0.6643566344192655</v>
       </c>
       <c r="M10">
-        <v>0.4772401623332313</v>
+        <v>0.117551294370681</v>
       </c>
       <c r="N10">
-        <v>0.1723205790794998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.4960415350896452</v>
+      </c>
+      <c r="O10">
+        <v>-0.2274648898758793</v>
+      </c>
+      <c r="P10">
+        <v>0.7496178209675342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.0665734164232875</v>
+        <v>0.03196566811971526</v>
       </c>
       <c r="C11">
-        <v>-0.05126324650408413</v>
+        <v>-0.05239032369778457</v>
       </c>
       <c r="D11">
-        <v>-0.4081009320055506</v>
+        <v>-0.1039164003795496</v>
       </c>
       <c r="E11">
-        <v>0.09569588899601536</v>
+        <v>0.7983442545732148</v>
       </c>
       <c r="F11">
-        <v>-0.04412919963610557</v>
-      </c>
-      <c r="G11">
-        <v>0.00934476116828869</v>
+        <v>0.6185290620948303</v>
       </c>
       <c r="H11">
-        <v>-0.1407985109390405</v>
+        <v>0.6315276142144191</v>
       </c>
       <c r="I11">
-        <v>0.6643566344192655</v>
+        <v>0.4271370019900166</v>
       </c>
       <c r="J11">
+        <v>0.1892206722387704</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>0.2755031665414788</v>
       </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.9291646513948305</v>
-      </c>
       <c r="M11">
-        <v>-0.1302229061075761</v>
+        <v>-0.06793267903473671</v>
       </c>
       <c r="N11">
-        <v>0.7526418513922563</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.06563921175841496</v>
+      </c>
+      <c r="O11">
+        <v>0.4772401623332313</v>
+      </c>
+      <c r="P11">
+        <v>0.1723205790794998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.04435601442290548</v>
+        <v>0.0665734164232875</v>
       </c>
       <c r="C12">
-        <v>-0.003435706016208673</v>
+        <v>-0.05126324650408413</v>
       </c>
       <c r="D12">
-        <v>-0.3005519182748715</v>
+        <v>-0.4081009320055506</v>
       </c>
       <c r="E12">
-        <v>0.01011896657585113</v>
+        <v>0.09569588899601536</v>
       </c>
       <c r="F12">
-        <v>-0.3118451534525333</v>
-      </c>
-      <c r="G12">
-        <v>-0.2677596881566871</v>
+        <v>-0.04412919963610557</v>
       </c>
       <c r="H12">
-        <v>-0.2086571319298562</v>
+        <v>0.00934476116828869</v>
       </c>
       <c r="I12">
-        <v>0.4960415350896452</v>
+        <v>-0.1407985109390405</v>
       </c>
       <c r="J12">
-        <v>0.06563921175841496</v>
+        <v>0.6643566344192655</v>
       </c>
       <c r="K12">
+        <v>0.2755031665414788</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.155101694151577</v>
+      </c>
+      <c r="N12">
         <v>0.9291646513948305</v>
       </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>-0.2054599720196534</v>
-      </c>
-      <c r="N12">
-        <v>0.6915138823168836</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>-0.1302229061075761</v>
+      </c>
+      <c r="P12">
+        <v>0.7526418513922563</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.01419361331937312</v>
+        <v>-0.01711181371022921</v>
       </c>
       <c r="C13">
-        <v>0.06539098660404966</v>
+        <v>0.01183533634683476</v>
       </c>
       <c r="D13">
-        <v>0.2776321694413547</v>
+        <v>-0.07888568017450877</v>
       </c>
       <c r="E13">
-        <v>0.3944467797448968</v>
+        <v>-0.04129872032365137</v>
       </c>
       <c r="F13">
-        <v>0.3676699584686091</v>
-      </c>
-      <c r="G13">
-        <v>0.3769175723241422</v>
+        <v>-0.2322392139256818</v>
       </c>
       <c r="H13">
-        <v>0.912656523852559</v>
+        <v>-0.1817930213045486</v>
       </c>
       <c r="I13">
-        <v>-0.2274648898758793</v>
+        <v>-0.3032079420773576</v>
       </c>
       <c r="J13">
-        <v>0.4772401623332313</v>
+        <v>0.117551294370681</v>
       </c>
       <c r="K13">
-        <v>-0.1302229061075761</v>
+        <v>-0.06793267903473671</v>
       </c>
       <c r="L13">
-        <v>-0.2054599720196534</v>
+        <v>0.155101694151577</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>-0.1903295950547503</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.167881496477694</v>
+      </c>
+      <c r="O13">
+        <v>-0.2465782624408502</v>
+      </c>
+      <c r="P13">
+        <v>0.0008191071168884024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14">
+        <v>0.04435601442290548</v>
+      </c>
+      <c r="C14">
+        <v>-0.003435706016208673</v>
+      </c>
+      <c r="D14">
+        <v>-0.3005519182748715</v>
+      </c>
+      <c r="E14">
+        <v>0.01011896657585113</v>
+      </c>
+      <c r="F14">
+        <v>-0.3118451534525333</v>
+      </c>
+      <c r="H14">
+        <v>-0.2677596881566871</v>
+      </c>
+      <c r="I14">
+        <v>-0.2086571319298562</v>
+      </c>
+      <c r="J14">
+        <v>0.4960415350896452</v>
+      </c>
+      <c r="K14">
+        <v>0.06563921175841496</v>
+      </c>
+      <c r="L14">
+        <v>0.9291646513948305</v>
+      </c>
+      <c r="M14">
+        <v>0.167881496477694</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>-0.2054599720196534</v>
+      </c>
+      <c r="P14">
+        <v>0.6915138823168836</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>-0.01419361331937312</v>
+      </c>
+      <c r="C15">
+        <v>0.06539098660404966</v>
+      </c>
+      <c r="D15">
+        <v>0.2776321694413547</v>
+      </c>
+      <c r="E15">
+        <v>0.3944467797448968</v>
+      </c>
+      <c r="F15">
+        <v>0.3676699584686091</v>
+      </c>
+      <c r="H15">
+        <v>0.3769175723241422</v>
+      </c>
+      <c r="I15">
+        <v>0.912656523852559</v>
+      </c>
+      <c r="J15">
+        <v>-0.2274648898758793</v>
+      </c>
+      <c r="K15">
+        <v>0.4772401623332313</v>
+      </c>
+      <c r="L15">
+        <v>-0.1302229061075761</v>
+      </c>
+      <c r="M15">
+        <v>-0.2465782624408502</v>
+      </c>
+      <c r="N15">
+        <v>-0.2054599720196534</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>-0.1903295950547503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
         <v>-0.03413895618995193</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <v>0.05038073059792177</v>
       </c>
-      <c r="D14">
+      <c r="D16">
         <v>-0.3571763908955822</v>
       </c>
-      <c r="E14">
+      <c r="E16">
         <v>-0.01425156638275876</v>
       </c>
-      <c r="F14">
+      <c r="F16">
         <v>0.05412256302001409</v>
       </c>
-      <c r="G14">
+      <c r="H16">
         <v>0.07066182269695842</v>
       </c>
-      <c r="H14">
+      <c r="I16">
         <v>-0.1531507197198079</v>
       </c>
-      <c r="I14">
+      <c r="J16">
         <v>0.7496178209675342</v>
       </c>
-      <c r="J14">
+      <c r="K16">
         <v>0.1723205790794998</v>
       </c>
-      <c r="K14">
+      <c r="L16">
         <v>0.7526418513922563</v>
       </c>
-      <c r="L14">
+      <c r="M16">
+        <v>0.0008191071168884024</v>
+      </c>
+      <c r="N16">
         <v>0.6915138823168836</v>
       </c>
-      <c r="M14">
+      <c r="O16">
         <v>-0.1903295950547503</v>
       </c>
-      <c r="N14">
+      <c r="P16">
         <v>1</v>
       </c>
     </row>
